--- a/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
   </bookViews>
   <sheets>
-    <sheet name="6.终冷洗苯" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="_zhongleng_day_hour" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="_dictionary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
+    <sheet name="_zhongleng_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>终冷洗苯</t>
   </si>
@@ -25,7 +26,7 @@
     <t xml:space="preserve"> SGSSG-BSMCSA33-G008-01A</t>
   </si>
   <si>
-    <t xml:space="preserve">项目
+    <t>项目
 时间</t>
   </si>
   <si>
@@ -67,23 +68,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t>贫油流量m</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
-        <vertAlign val="superscript"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -259,26 +263,27 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t>塔前含苯量</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> g/m</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>3</t>
     </r>
@@ -286,26 +291,27 @@
   <si>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <sz val="12"/>
+        <charset val="134"/>
       </rPr>
       <t>塔后含苯量</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> g/m</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <sz val="12"/>
-        <vertAlign val="superscript"/>
       </rPr>
       <t>3</t>
     </r>
@@ -314,10 +320,10 @@
     <t>富油</t>
   </si>
   <si>
-    <t xml:space="preserve">含苯 ％</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含水 ％</t>
+    <t>含苯 ％</t>
+  </si>
+  <si>
+    <t>含水 ％</t>
   </si>
   <si>
     <t>贫油</t>
@@ -328,25 +334,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="14"/>
         <rFont val="宋体"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t>记</t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
         <rFont val="Times New Roman"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
     </r>
     <r>
       <rPr>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
-        <sz val="14"/>
       </rPr>
       <t>事</t>
     </r>
@@ -364,18 +371,19 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
         <rFont val="宋体"/>
-        <sz val="14"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <scheme val="minor"/>
-        <sz val="14"/>
       </rPr>
       <t xml:space="preserve">                          交班：                              接班：</t>
     </r>
@@ -384,420 +392,306 @@
     <t/>
   </si>
   <si>
-    <t>63202/苯/1#-2#焦炉苯塔前</t>
-  </si>
-  <si>
-    <t>63202/苯/1#-2#焦炉苯塔后</t>
-  </si>
-  <si>
-    <t>MMJY/苯</t>
-  </si>
-  <si>
-    <t>MMJY/H2O</t>
-  </si>
-  <si>
-    <t>MMJY/苯_2</t>
-  </si>
-  <si>
-    <t>MMJY/H2O_2</t>
-  </si>
-  <si>
     <t>version</t>
+  </si>
+  <si>
+    <r>
+      <t>MMJY/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21PFY</t>
+    </r>
+  </si>
+  <si>
+    <t>MMJY/H2O/QMIR21PFY</t>
+  </si>
+  <si>
+    <r>
+      <t>MMJY/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2/QMIR21PFY</t>
+    </r>
+  </si>
+  <si>
+    <t>MMJY/H2O_2/QMIR21PFY</t>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/1#-2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焦炉苯塔前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/1#-2#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>焦炉苯塔后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="0"/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="4"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
       <sz val="11"/>
-      <u val="single"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="65"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color indexed="2"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="14"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -806,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -815,104 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1446,528 +1242,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyAlignment="1">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="116">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="6" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="2" numFmtId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="3" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="0" borderId="4" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="11" borderId="5" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="11" borderId="1" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="12" borderId="6" numFmtId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="13" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="14" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="15" fillId="0" borderId="7" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="8" numFmtId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="17" fillId="15" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="16" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="18" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="20" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="21" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="22" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="23" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="24" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="26" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="27" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="29" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="30" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="32" borderId="0" numFmtId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
-  </cellStyleXfs>
-  <cellXfs count="113">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1"/>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1"/>
-    <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="22" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="23" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="0" borderId="9" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="24" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="33" borderId="10" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="11" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="12" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="13" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="25" fillId="33" borderId="15" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="26" fillId="0" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="19" fillId="33" borderId="16" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="27" fillId="33" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="27" fillId="33" borderId="18" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="27" fillId="33" borderId="19" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="33" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="19" fillId="33" borderId="20" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="27" fillId="33" borderId="17" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="21" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="26" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="26" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="26" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="24" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="25" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="23" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="26" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="29" fillId="33" borderId="27" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="28" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="29" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="29" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="33" borderId="30" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="30" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="33" borderId="31" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="30" fillId="33" borderId="34" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="31" fillId="33" borderId="0" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="31" fillId="33" borderId="35" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="31" fillId="33" borderId="36" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="30" fillId="33" borderId="25" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="30" fillId="33" borderId="36" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="30" fillId="33" borderId="37" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="28" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="31" fillId="33" borderId="38" numFmtId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="39" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="40" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="41" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="42" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="22" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="42" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="43" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="32" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="33" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="44" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="19" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="33" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="17" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="21" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="0" numFmtId="0" xfId="49" applyFont="1"/>
-    <xf fontId="27" fillId="0" borderId="44" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="17" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="21" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="20" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="26" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="45" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="28" fillId="0" borderId="46" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="27" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="28" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="47" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="28" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="48" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="13" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="49" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="50" numFmtId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="24" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="51" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="14" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="15" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="17" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="21" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="22" fillId="0" borderId="27" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="29" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="27" fillId="0" borderId="31" numFmtId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="30" fillId="0" borderId="48" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="14" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="25" fillId="0" borderId="15" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="30" fillId="0" borderId="27" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="29" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="25" fillId="0" borderId="31" numFmtId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color indexed="2"/>
@@ -2153,301 +1769,18 @@
         <color indexed="2"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2650,3222 +1983,3250 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70">
-      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="3" style="1" width="9.25"/>
-    <col customWidth="1" min="4" max="4" style="2" width="9.25"/>
-    <col customWidth="1" min="5" max="5" style="1" width="9.25"/>
-    <col customWidth="1" min="6" max="6" style="2" width="9.25"/>
-    <col customWidth="1" min="7" max="11" style="1" width="9.25"/>
-    <col customWidth="1" min="12" max="12" style="2" width="9.25"/>
-    <col customWidth="1" min="13" max="17" style="1" width="9.25"/>
-    <col customWidth="1" min="18" max="19" style="2" width="9.25"/>
-    <col customWidth="1" min="20" max="20" style="1" width="9.25"/>
-    <col customWidth="1" min="21" max="21" style="1" width="6.3333333333333304"/>
-    <col customWidth="1" min="22" max="22" style="1" width="18.4166666666667"/>
-    <col customWidth="1" min="23" max="25" style="1" width="9.6666666666666696"/>
-    <col min="26" max="252" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="253" max="272" style="1" width="9.25"/>
-    <col customWidth="1" min="273" max="273" style="1" width="3"/>
-    <col customWidth="1" min="274" max="274" style="1" width="8"/>
-    <col customWidth="1" min="275" max="275" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="276" max="276" style="1" width="29.8333333333333"/>
-    <col min="277" max="508" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="509" max="528" style="1" width="9.25"/>
-    <col customWidth="1" min="529" max="529" style="1" width="3"/>
-    <col customWidth="1" min="530" max="530" style="1" width="8"/>
-    <col customWidth="1" min="531" max="531" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="532" max="532" style="1" width="29.8333333333333"/>
-    <col min="533" max="764" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="765" max="784" style="1" width="9.25"/>
-    <col customWidth="1" min="785" max="785" style="1" width="3"/>
-    <col customWidth="1" min="786" max="786" style="1" width="8"/>
-    <col customWidth="1" min="787" max="787" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="788" max="788" style="1" width="29.8333333333333"/>
-    <col min="789" max="1020" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="1021" max="1040" style="1" width="9.25"/>
-    <col customWidth="1" min="1041" max="1041" style="1" width="3"/>
-    <col customWidth="1" min="1042" max="1042" style="1" width="8"/>
-    <col customWidth="1" min="1043" max="1043" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="1044" max="1044" style="1" width="29.8333333333333"/>
-    <col min="1045" max="1276" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="1277" max="1296" style="1" width="9.25"/>
-    <col customWidth="1" min="1297" max="1297" style="1" width="3"/>
-    <col customWidth="1" min="1298" max="1298" style="1" width="8"/>
-    <col customWidth="1" min="1299" max="1299" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="1300" max="1300" style="1" width="29.8333333333333"/>
-    <col min="1301" max="1532" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="1533" max="1552" style="1" width="9.25"/>
-    <col customWidth="1" min="1553" max="1553" style="1" width="3"/>
-    <col customWidth="1" min="1554" max="1554" style="1" width="8"/>
-    <col customWidth="1" min="1555" max="1555" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="1556" max="1556" style="1" width="29.8333333333333"/>
-    <col min="1557" max="1788" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="1789" max="1808" style="1" width="9.25"/>
-    <col customWidth="1" min="1809" max="1809" style="1" width="3"/>
-    <col customWidth="1" min="1810" max="1810" style="1" width="8"/>
-    <col customWidth="1" min="1811" max="1811" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="1812" max="1812" style="1" width="29.8333333333333"/>
-    <col min="1813" max="2044" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="2045" max="2064" style="1" width="9.25"/>
-    <col customWidth="1" min="2065" max="2065" style="1" width="3"/>
-    <col customWidth="1" min="2066" max="2066" style="1" width="8"/>
-    <col customWidth="1" min="2067" max="2067" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="2068" max="2068" style="1" width="29.8333333333333"/>
-    <col min="2069" max="2300" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="2301" max="2320" style="1" width="9.25"/>
-    <col customWidth="1" min="2321" max="2321" style="1" width="3"/>
-    <col customWidth="1" min="2322" max="2322" style="1" width="8"/>
-    <col customWidth="1" min="2323" max="2323" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="2324" max="2324" style="1" width="29.8333333333333"/>
-    <col min="2325" max="2556" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="2557" max="2576" style="1" width="9.25"/>
-    <col customWidth="1" min="2577" max="2577" style="1" width="3"/>
-    <col customWidth="1" min="2578" max="2578" style="1" width="8"/>
-    <col customWidth="1" min="2579" max="2579" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="2580" max="2580" style="1" width="29.8333333333333"/>
-    <col min="2581" max="2812" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="2813" max="2832" style="1" width="9.25"/>
-    <col customWidth="1" min="2833" max="2833" style="1" width="3"/>
-    <col customWidth="1" min="2834" max="2834" style="1" width="8"/>
-    <col customWidth="1" min="2835" max="2835" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="2836" max="2836" style="1" width="29.8333333333333"/>
-    <col min="2837" max="3068" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="3069" max="3088" style="1" width="9.25"/>
-    <col customWidth="1" min="3089" max="3089" style="1" width="3"/>
-    <col customWidth="1" min="3090" max="3090" style="1" width="8"/>
-    <col customWidth="1" min="3091" max="3091" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="3092" max="3092" style="1" width="29.8333333333333"/>
-    <col min="3093" max="3324" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="3325" max="3344" style="1" width="9.25"/>
-    <col customWidth="1" min="3345" max="3345" style="1" width="3"/>
-    <col customWidth="1" min="3346" max="3346" style="1" width="8"/>
-    <col customWidth="1" min="3347" max="3347" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="3348" max="3348" style="1" width="29.8333333333333"/>
-    <col min="3349" max="3580" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="3581" max="3600" style="1" width="9.25"/>
-    <col customWidth="1" min="3601" max="3601" style="1" width="3"/>
-    <col customWidth="1" min="3602" max="3602" style="1" width="8"/>
-    <col customWidth="1" min="3603" max="3603" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="3604" max="3604" style="1" width="29.8333333333333"/>
-    <col min="3605" max="3836" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="3837" max="3856" style="1" width="9.25"/>
-    <col customWidth="1" min="3857" max="3857" style="1" width="3"/>
-    <col customWidth="1" min="3858" max="3858" style="1" width="8"/>
-    <col customWidth="1" min="3859" max="3859" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="3860" max="3860" style="1" width="29.8333333333333"/>
-    <col min="3861" max="4092" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="4093" max="4112" style="1" width="9.25"/>
-    <col customWidth="1" min="4113" max="4113" style="1" width="3"/>
-    <col customWidth="1" min="4114" max="4114" style="1" width="8"/>
-    <col customWidth="1" min="4115" max="4115" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="4116" max="4116" style="1" width="29.8333333333333"/>
-    <col min="4117" max="4348" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="4349" max="4368" style="1" width="9.25"/>
-    <col customWidth="1" min="4369" max="4369" style="1" width="3"/>
-    <col customWidth="1" min="4370" max="4370" style="1" width="8"/>
-    <col customWidth="1" min="4371" max="4371" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="4372" max="4372" style="1" width="29.8333333333333"/>
-    <col min="4373" max="4604" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="4605" max="4624" style="1" width="9.25"/>
-    <col customWidth="1" min="4625" max="4625" style="1" width="3"/>
-    <col customWidth="1" min="4626" max="4626" style="1" width="8"/>
-    <col customWidth="1" min="4627" max="4627" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="4628" max="4628" style="1" width="29.8333333333333"/>
-    <col min="4629" max="4860" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="4861" max="4880" style="1" width="9.25"/>
-    <col customWidth="1" min="4881" max="4881" style="1" width="3"/>
-    <col customWidth="1" min="4882" max="4882" style="1" width="8"/>
-    <col customWidth="1" min="4883" max="4883" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="4884" max="4884" style="1" width="29.8333333333333"/>
-    <col min="4885" max="5116" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="5117" max="5136" style="1" width="9.25"/>
-    <col customWidth="1" min="5137" max="5137" style="1" width="3"/>
-    <col customWidth="1" min="5138" max="5138" style="1" width="8"/>
-    <col customWidth="1" min="5139" max="5139" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="5140" max="5140" style="1" width="29.8333333333333"/>
-    <col min="5141" max="5372" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="5373" max="5392" style="1" width="9.25"/>
-    <col customWidth="1" min="5393" max="5393" style="1" width="3"/>
-    <col customWidth="1" min="5394" max="5394" style="1" width="8"/>
-    <col customWidth="1" min="5395" max="5395" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="5396" max="5396" style="1" width="29.8333333333333"/>
-    <col min="5397" max="5628" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="5629" max="5648" style="1" width="9.25"/>
-    <col customWidth="1" min="5649" max="5649" style="1" width="3"/>
-    <col customWidth="1" min="5650" max="5650" style="1" width="8"/>
-    <col customWidth="1" min="5651" max="5651" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="5652" max="5652" style="1" width="29.8333333333333"/>
-    <col min="5653" max="5884" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="5885" max="5904" style="1" width="9.25"/>
-    <col customWidth="1" min="5905" max="5905" style="1" width="3"/>
-    <col customWidth="1" min="5906" max="5906" style="1" width="8"/>
-    <col customWidth="1" min="5907" max="5907" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="5908" max="5908" style="1" width="29.8333333333333"/>
-    <col min="5909" max="6140" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="6141" max="6160" style="1" width="9.25"/>
-    <col customWidth="1" min="6161" max="6161" style="1" width="3"/>
-    <col customWidth="1" min="6162" max="6162" style="1" width="8"/>
-    <col customWidth="1" min="6163" max="6163" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="6164" max="6164" style="1" width="29.8333333333333"/>
-    <col min="6165" max="6396" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="6397" max="6416" style="1" width="9.25"/>
-    <col customWidth="1" min="6417" max="6417" style="1" width="3"/>
-    <col customWidth="1" min="6418" max="6418" style="1" width="8"/>
-    <col customWidth="1" min="6419" max="6419" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="6420" max="6420" style="1" width="29.8333333333333"/>
-    <col min="6421" max="6652" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="6653" max="6672" style="1" width="9.25"/>
-    <col customWidth="1" min="6673" max="6673" style="1" width="3"/>
-    <col customWidth="1" min="6674" max="6674" style="1" width="8"/>
-    <col customWidth="1" min="6675" max="6675" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="6676" max="6676" style="1" width="29.8333333333333"/>
-    <col min="6677" max="6908" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="6909" max="6928" style="1" width="9.25"/>
-    <col customWidth="1" min="6929" max="6929" style="1" width="3"/>
-    <col customWidth="1" min="6930" max="6930" style="1" width="8"/>
-    <col customWidth="1" min="6931" max="6931" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="6932" max="6932" style="1" width="29.8333333333333"/>
-    <col min="6933" max="7164" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="7165" max="7184" style="1" width="9.25"/>
-    <col customWidth="1" min="7185" max="7185" style="1" width="3"/>
-    <col customWidth="1" min="7186" max="7186" style="1" width="8"/>
-    <col customWidth="1" min="7187" max="7187" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="7188" max="7188" style="1" width="29.8333333333333"/>
-    <col min="7189" max="7420" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="7421" max="7440" style="1" width="9.25"/>
-    <col customWidth="1" min="7441" max="7441" style="1" width="3"/>
-    <col customWidth="1" min="7442" max="7442" style="1" width="8"/>
-    <col customWidth="1" min="7443" max="7443" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="7444" max="7444" style="1" width="29.8333333333333"/>
-    <col min="7445" max="7676" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="7677" max="7696" style="1" width="9.25"/>
-    <col customWidth="1" min="7697" max="7697" style="1" width="3"/>
-    <col customWidth="1" min="7698" max="7698" style="1" width="8"/>
-    <col customWidth="1" min="7699" max="7699" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="7700" max="7700" style="1" width="29.8333333333333"/>
-    <col min="7701" max="7932" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="7933" max="7952" style="1" width="9.25"/>
-    <col customWidth="1" min="7953" max="7953" style="1" width="3"/>
-    <col customWidth="1" min="7954" max="7954" style="1" width="8"/>
-    <col customWidth="1" min="7955" max="7955" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="7956" max="7956" style="1" width="29.8333333333333"/>
-    <col min="7957" max="8188" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="8189" max="8208" style="1" width="9.25"/>
-    <col customWidth="1" min="8209" max="8209" style="1" width="3"/>
-    <col customWidth="1" min="8210" max="8210" style="1" width="8"/>
-    <col customWidth="1" min="8211" max="8211" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="8212" max="8212" style="1" width="29.8333333333333"/>
-    <col min="8213" max="8444" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="8445" max="8464" style="1" width="9.25"/>
-    <col customWidth="1" min="8465" max="8465" style="1" width="3"/>
-    <col customWidth="1" min="8466" max="8466" style="1" width="8"/>
-    <col customWidth="1" min="8467" max="8467" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="8468" max="8468" style="1" width="29.8333333333333"/>
-    <col min="8469" max="8700" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="8701" max="8720" style="1" width="9.25"/>
-    <col customWidth="1" min="8721" max="8721" style="1" width="3"/>
-    <col customWidth="1" min="8722" max="8722" style="1" width="8"/>
-    <col customWidth="1" min="8723" max="8723" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="8724" max="8724" style="1" width="29.8333333333333"/>
-    <col min="8725" max="8956" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="8957" max="8976" style="1" width="9.25"/>
-    <col customWidth="1" min="8977" max="8977" style="1" width="3"/>
-    <col customWidth="1" min="8978" max="8978" style="1" width="8"/>
-    <col customWidth="1" min="8979" max="8979" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="8980" max="8980" style="1" width="29.8333333333333"/>
-    <col min="8981" max="9212" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="9213" max="9232" style="1" width="9.25"/>
-    <col customWidth="1" min="9233" max="9233" style="1" width="3"/>
-    <col customWidth="1" min="9234" max="9234" style="1" width="8"/>
-    <col customWidth="1" min="9235" max="9235" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="9236" max="9236" style="1" width="29.8333333333333"/>
-    <col min="9237" max="9468" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="9469" max="9488" style="1" width="9.25"/>
-    <col customWidth="1" min="9489" max="9489" style="1" width="3"/>
-    <col customWidth="1" min="9490" max="9490" style="1" width="8"/>
-    <col customWidth="1" min="9491" max="9491" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="9492" max="9492" style="1" width="29.8333333333333"/>
-    <col min="9493" max="9724" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="9725" max="9744" style="1" width="9.25"/>
-    <col customWidth="1" min="9745" max="9745" style="1" width="3"/>
-    <col customWidth="1" min="9746" max="9746" style="1" width="8"/>
-    <col customWidth="1" min="9747" max="9747" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="9748" max="9748" style="1" width="29.8333333333333"/>
-    <col min="9749" max="9980" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="9981" max="10000" style="1" width="9.25"/>
-    <col customWidth="1" min="10001" max="10001" style="1" width="3"/>
-    <col customWidth="1" min="10002" max="10002" style="1" width="8"/>
-    <col customWidth="1" min="10003" max="10003" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="10004" max="10004" style="1" width="29.8333333333333"/>
-    <col min="10005" max="10236" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="10237" max="10256" style="1" width="9.25"/>
-    <col customWidth="1" min="10257" max="10257" style="1" width="3"/>
-    <col customWidth="1" min="10258" max="10258" style="1" width="8"/>
-    <col customWidth="1" min="10259" max="10259" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="10260" max="10260" style="1" width="29.8333333333333"/>
-    <col min="10261" max="10492" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="10493" max="10512" style="1" width="9.25"/>
-    <col customWidth="1" min="10513" max="10513" style="1" width="3"/>
-    <col customWidth="1" min="10514" max="10514" style="1" width="8"/>
-    <col customWidth="1" min="10515" max="10515" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="10516" max="10516" style="1" width="29.8333333333333"/>
-    <col min="10517" max="10748" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="10749" max="10768" style="1" width="9.25"/>
-    <col customWidth="1" min="10769" max="10769" style="1" width="3"/>
-    <col customWidth="1" min="10770" max="10770" style="1" width="8"/>
-    <col customWidth="1" min="10771" max="10771" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="10772" max="10772" style="1" width="29.8333333333333"/>
-    <col min="10773" max="11004" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="11005" max="11024" style="1" width="9.25"/>
-    <col customWidth="1" min="11025" max="11025" style="1" width="3"/>
-    <col customWidth="1" min="11026" max="11026" style="1" width="8"/>
-    <col customWidth="1" min="11027" max="11027" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="11028" max="11028" style="1" width="29.8333333333333"/>
-    <col min="11029" max="11260" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="11261" max="11280" style="1" width="9.25"/>
-    <col customWidth="1" min="11281" max="11281" style="1" width="3"/>
-    <col customWidth="1" min="11282" max="11282" style="1" width="8"/>
-    <col customWidth="1" min="11283" max="11283" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="11284" max="11284" style="1" width="29.8333333333333"/>
-    <col min="11285" max="11516" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="11517" max="11536" style="1" width="9.25"/>
-    <col customWidth="1" min="11537" max="11537" style="1" width="3"/>
-    <col customWidth="1" min="11538" max="11538" style="1" width="8"/>
-    <col customWidth="1" min="11539" max="11539" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="11540" max="11540" style="1" width="29.8333333333333"/>
-    <col min="11541" max="11772" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="11773" max="11792" style="1" width="9.25"/>
-    <col customWidth="1" min="11793" max="11793" style="1" width="3"/>
-    <col customWidth="1" min="11794" max="11794" style="1" width="8"/>
-    <col customWidth="1" min="11795" max="11795" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="11796" max="11796" style="1" width="29.8333333333333"/>
-    <col min="11797" max="12028" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="12029" max="12048" style="1" width="9.25"/>
-    <col customWidth="1" min="12049" max="12049" style="1" width="3"/>
-    <col customWidth="1" min="12050" max="12050" style="1" width="8"/>
-    <col customWidth="1" min="12051" max="12051" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="12052" max="12052" style="1" width="29.8333333333333"/>
-    <col min="12053" max="12284" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="12285" max="12304" style="1" width="9.25"/>
-    <col customWidth="1" min="12305" max="12305" style="1" width="3"/>
-    <col customWidth="1" min="12306" max="12306" style="1" width="8"/>
-    <col customWidth="1" min="12307" max="12307" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="12308" max="12308" style="1" width="29.8333333333333"/>
-    <col min="12309" max="12540" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="12541" max="12560" style="1" width="9.25"/>
-    <col customWidth="1" min="12561" max="12561" style="1" width="3"/>
-    <col customWidth="1" min="12562" max="12562" style="1" width="8"/>
-    <col customWidth="1" min="12563" max="12563" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="12564" max="12564" style="1" width="29.8333333333333"/>
-    <col min="12565" max="12796" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="12797" max="12816" style="1" width="9.25"/>
-    <col customWidth="1" min="12817" max="12817" style="1" width="3"/>
-    <col customWidth="1" min="12818" max="12818" style="1" width="8"/>
-    <col customWidth="1" min="12819" max="12819" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="12820" max="12820" style="1" width="29.8333333333333"/>
-    <col min="12821" max="13052" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="13053" max="13072" style="1" width="9.25"/>
-    <col customWidth="1" min="13073" max="13073" style="1" width="3"/>
-    <col customWidth="1" min="13074" max="13074" style="1" width="8"/>
-    <col customWidth="1" min="13075" max="13075" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="13076" max="13076" style="1" width="29.8333333333333"/>
-    <col min="13077" max="13308" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="13309" max="13328" style="1" width="9.25"/>
-    <col customWidth="1" min="13329" max="13329" style="1" width="3"/>
-    <col customWidth="1" min="13330" max="13330" style="1" width="8"/>
-    <col customWidth="1" min="13331" max="13331" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="13332" max="13332" style="1" width="29.8333333333333"/>
-    <col min="13333" max="13564" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="13565" max="13584" style="1" width="9.25"/>
-    <col customWidth="1" min="13585" max="13585" style="1" width="3"/>
-    <col customWidth="1" min="13586" max="13586" style="1" width="8"/>
-    <col customWidth="1" min="13587" max="13587" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="13588" max="13588" style="1" width="29.8333333333333"/>
-    <col min="13589" max="13820" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="13821" max="13840" style="1" width="9.25"/>
-    <col customWidth="1" min="13841" max="13841" style="1" width="3"/>
-    <col customWidth="1" min="13842" max="13842" style="1" width="8"/>
-    <col customWidth="1" min="13843" max="13843" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="13844" max="13844" style="1" width="29.8333333333333"/>
-    <col min="13845" max="14076" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="14077" max="14096" style="1" width="9.25"/>
-    <col customWidth="1" min="14097" max="14097" style="1" width="3"/>
-    <col customWidth="1" min="14098" max="14098" style="1" width="8"/>
-    <col customWidth="1" min="14099" max="14099" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="14100" max="14100" style="1" width="29.8333333333333"/>
-    <col min="14101" max="14332" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="14333" max="14352" style="1" width="9.25"/>
-    <col customWidth="1" min="14353" max="14353" style="1" width="3"/>
-    <col customWidth="1" min="14354" max="14354" style="1" width="8"/>
-    <col customWidth="1" min="14355" max="14355" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="14356" max="14356" style="1" width="29.8333333333333"/>
-    <col min="14357" max="14588" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="14589" max="14608" style="1" width="9.25"/>
-    <col customWidth="1" min="14609" max="14609" style="1" width="3"/>
-    <col customWidth="1" min="14610" max="14610" style="1" width="8"/>
-    <col customWidth="1" min="14611" max="14611" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="14612" max="14612" style="1" width="29.8333333333333"/>
-    <col min="14613" max="14844" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="14845" max="14864" style="1" width="9.25"/>
-    <col customWidth="1" min="14865" max="14865" style="1" width="3"/>
-    <col customWidth="1" min="14866" max="14866" style="1" width="8"/>
-    <col customWidth="1" min="14867" max="14867" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="14868" max="14868" style="1" width="29.8333333333333"/>
-    <col min="14869" max="15100" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="15101" max="15120" style="1" width="9.25"/>
-    <col customWidth="1" min="15121" max="15121" style="1" width="3"/>
-    <col customWidth="1" min="15122" max="15122" style="1" width="8"/>
-    <col customWidth="1" min="15123" max="15123" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="15124" max="15124" style="1" width="29.8333333333333"/>
-    <col min="15125" max="15356" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="15357" max="15376" style="1" width="9.25"/>
-    <col customWidth="1" min="15377" max="15377" style="1" width="3"/>
-    <col customWidth="1" min="15378" max="15378" style="1" width="8"/>
-    <col customWidth="1" min="15379" max="15379" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="15380" max="15380" style="1" width="29.8333333333333"/>
-    <col min="15381" max="15612" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="15613" max="15632" style="1" width="9.25"/>
-    <col customWidth="1" min="15633" max="15633" style="1" width="3"/>
-    <col customWidth="1" min="15634" max="15634" style="1" width="8"/>
-    <col customWidth="1" min="15635" max="15635" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="15636" max="15636" style="1" width="29.8333333333333"/>
-    <col min="15637" max="15868" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="15869" max="15888" style="1" width="9.25"/>
-    <col customWidth="1" min="15889" max="15889" style="1" width="3"/>
-    <col customWidth="1" min="15890" max="15890" style="1" width="8"/>
-    <col customWidth="1" min="15891" max="15891" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="15892" max="15892" style="1" width="29.8333333333333"/>
-    <col min="15893" max="16124" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="16125" max="16144" style="1" width="9.25"/>
-    <col customWidth="1" min="16145" max="16145" style="1" width="3"/>
-    <col customWidth="1" min="16146" max="16146" style="1" width="8"/>
-    <col customWidth="1" min="16147" max="16147" style="1" width="7.8333333333333304"/>
-    <col customWidth="1" min="16148" max="16148" style="1" width="29.8333333333333"/>
-    <col min="16149" max="16377" style="1" width="8.6666666666666696"/>
-    <col customWidth="1" min="16378" max="16384" style="1" width="8.6666666666666696"/>
+    <col min="1" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="11" width="9.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="2" customWidth="1"/>
+    <col min="13" max="17" width="9.25" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" style="1" customWidth="1"/>
+    <col min="23" max="25" width="9.625" style="1" customWidth="1"/>
+    <col min="26" max="252" width="8.625" style="1"/>
+    <col min="253" max="272" width="9.25" style="1" customWidth="1"/>
+    <col min="273" max="273" width="3" style="1" customWidth="1"/>
+    <col min="274" max="274" width="8" style="1" customWidth="1"/>
+    <col min="275" max="275" width="7.875" style="1" customWidth="1"/>
+    <col min="276" max="276" width="29.875" style="1" customWidth="1"/>
+    <col min="277" max="508" width="8.625" style="1"/>
+    <col min="509" max="528" width="9.25" style="1" customWidth="1"/>
+    <col min="529" max="529" width="3" style="1" customWidth="1"/>
+    <col min="530" max="530" width="8" style="1" customWidth="1"/>
+    <col min="531" max="531" width="7.875" style="1" customWidth="1"/>
+    <col min="532" max="532" width="29.875" style="1" customWidth="1"/>
+    <col min="533" max="764" width="8.625" style="1"/>
+    <col min="765" max="784" width="9.25" style="1" customWidth="1"/>
+    <col min="785" max="785" width="3" style="1" customWidth="1"/>
+    <col min="786" max="786" width="8" style="1" customWidth="1"/>
+    <col min="787" max="787" width="7.875" style="1" customWidth="1"/>
+    <col min="788" max="788" width="29.875" style="1" customWidth="1"/>
+    <col min="789" max="1020" width="8.625" style="1"/>
+    <col min="1021" max="1040" width="9.25" style="1" customWidth="1"/>
+    <col min="1041" max="1041" width="3" style="1" customWidth="1"/>
+    <col min="1042" max="1042" width="8" style="1" customWidth="1"/>
+    <col min="1043" max="1043" width="7.875" style="1" customWidth="1"/>
+    <col min="1044" max="1044" width="29.875" style="1" customWidth="1"/>
+    <col min="1045" max="1276" width="8.625" style="1"/>
+    <col min="1277" max="1296" width="9.25" style="1" customWidth="1"/>
+    <col min="1297" max="1297" width="3" style="1" customWidth="1"/>
+    <col min="1298" max="1298" width="8" style="1" customWidth="1"/>
+    <col min="1299" max="1299" width="7.875" style="1" customWidth="1"/>
+    <col min="1300" max="1300" width="29.875" style="1" customWidth="1"/>
+    <col min="1301" max="1532" width="8.625" style="1"/>
+    <col min="1533" max="1552" width="9.25" style="1" customWidth="1"/>
+    <col min="1553" max="1553" width="3" style="1" customWidth="1"/>
+    <col min="1554" max="1554" width="8" style="1" customWidth="1"/>
+    <col min="1555" max="1555" width="7.875" style="1" customWidth="1"/>
+    <col min="1556" max="1556" width="29.875" style="1" customWidth="1"/>
+    <col min="1557" max="1788" width="8.625" style="1"/>
+    <col min="1789" max="1808" width="9.25" style="1" customWidth="1"/>
+    <col min="1809" max="1809" width="3" style="1" customWidth="1"/>
+    <col min="1810" max="1810" width="8" style="1" customWidth="1"/>
+    <col min="1811" max="1811" width="7.875" style="1" customWidth="1"/>
+    <col min="1812" max="1812" width="29.875" style="1" customWidth="1"/>
+    <col min="1813" max="2044" width="8.625" style="1"/>
+    <col min="2045" max="2064" width="9.25" style="1" customWidth="1"/>
+    <col min="2065" max="2065" width="3" style="1" customWidth="1"/>
+    <col min="2066" max="2066" width="8" style="1" customWidth="1"/>
+    <col min="2067" max="2067" width="7.875" style="1" customWidth="1"/>
+    <col min="2068" max="2068" width="29.875" style="1" customWidth="1"/>
+    <col min="2069" max="2300" width="8.625" style="1"/>
+    <col min="2301" max="2320" width="9.25" style="1" customWidth="1"/>
+    <col min="2321" max="2321" width="3" style="1" customWidth="1"/>
+    <col min="2322" max="2322" width="8" style="1" customWidth="1"/>
+    <col min="2323" max="2323" width="7.875" style="1" customWidth="1"/>
+    <col min="2324" max="2324" width="29.875" style="1" customWidth="1"/>
+    <col min="2325" max="2556" width="8.625" style="1"/>
+    <col min="2557" max="2576" width="9.25" style="1" customWidth="1"/>
+    <col min="2577" max="2577" width="3" style="1" customWidth="1"/>
+    <col min="2578" max="2578" width="8" style="1" customWidth="1"/>
+    <col min="2579" max="2579" width="7.875" style="1" customWidth="1"/>
+    <col min="2580" max="2580" width="29.875" style="1" customWidth="1"/>
+    <col min="2581" max="2812" width="8.625" style="1"/>
+    <col min="2813" max="2832" width="9.25" style="1" customWidth="1"/>
+    <col min="2833" max="2833" width="3" style="1" customWidth="1"/>
+    <col min="2834" max="2834" width="8" style="1" customWidth="1"/>
+    <col min="2835" max="2835" width="7.875" style="1" customWidth="1"/>
+    <col min="2836" max="2836" width="29.875" style="1" customWidth="1"/>
+    <col min="2837" max="3068" width="8.625" style="1"/>
+    <col min="3069" max="3088" width="9.25" style="1" customWidth="1"/>
+    <col min="3089" max="3089" width="3" style="1" customWidth="1"/>
+    <col min="3090" max="3090" width="8" style="1" customWidth="1"/>
+    <col min="3091" max="3091" width="7.875" style="1" customWidth="1"/>
+    <col min="3092" max="3092" width="29.875" style="1" customWidth="1"/>
+    <col min="3093" max="3324" width="8.625" style="1"/>
+    <col min="3325" max="3344" width="9.25" style="1" customWidth="1"/>
+    <col min="3345" max="3345" width="3" style="1" customWidth="1"/>
+    <col min="3346" max="3346" width="8" style="1" customWidth="1"/>
+    <col min="3347" max="3347" width="7.875" style="1" customWidth="1"/>
+    <col min="3348" max="3348" width="29.875" style="1" customWidth="1"/>
+    <col min="3349" max="3580" width="8.625" style="1"/>
+    <col min="3581" max="3600" width="9.25" style="1" customWidth="1"/>
+    <col min="3601" max="3601" width="3" style="1" customWidth="1"/>
+    <col min="3602" max="3602" width="8" style="1" customWidth="1"/>
+    <col min="3603" max="3603" width="7.875" style="1" customWidth="1"/>
+    <col min="3604" max="3604" width="29.875" style="1" customWidth="1"/>
+    <col min="3605" max="3836" width="8.625" style="1"/>
+    <col min="3837" max="3856" width="9.25" style="1" customWidth="1"/>
+    <col min="3857" max="3857" width="3" style="1" customWidth="1"/>
+    <col min="3858" max="3858" width="8" style="1" customWidth="1"/>
+    <col min="3859" max="3859" width="7.875" style="1" customWidth="1"/>
+    <col min="3860" max="3860" width="29.875" style="1" customWidth="1"/>
+    <col min="3861" max="4092" width="8.625" style="1"/>
+    <col min="4093" max="4112" width="9.25" style="1" customWidth="1"/>
+    <col min="4113" max="4113" width="3" style="1" customWidth="1"/>
+    <col min="4114" max="4114" width="8" style="1" customWidth="1"/>
+    <col min="4115" max="4115" width="7.875" style="1" customWidth="1"/>
+    <col min="4116" max="4116" width="29.875" style="1" customWidth="1"/>
+    <col min="4117" max="4348" width="8.625" style="1"/>
+    <col min="4349" max="4368" width="9.25" style="1" customWidth="1"/>
+    <col min="4369" max="4369" width="3" style="1" customWidth="1"/>
+    <col min="4370" max="4370" width="8" style="1" customWidth="1"/>
+    <col min="4371" max="4371" width="7.875" style="1" customWidth="1"/>
+    <col min="4372" max="4372" width="29.875" style="1" customWidth="1"/>
+    <col min="4373" max="4604" width="8.625" style="1"/>
+    <col min="4605" max="4624" width="9.25" style="1" customWidth="1"/>
+    <col min="4625" max="4625" width="3" style="1" customWidth="1"/>
+    <col min="4626" max="4626" width="8" style="1" customWidth="1"/>
+    <col min="4627" max="4627" width="7.875" style="1" customWidth="1"/>
+    <col min="4628" max="4628" width="29.875" style="1" customWidth="1"/>
+    <col min="4629" max="4860" width="8.625" style="1"/>
+    <col min="4861" max="4880" width="9.25" style="1" customWidth="1"/>
+    <col min="4881" max="4881" width="3" style="1" customWidth="1"/>
+    <col min="4882" max="4882" width="8" style="1" customWidth="1"/>
+    <col min="4883" max="4883" width="7.875" style="1" customWidth="1"/>
+    <col min="4884" max="4884" width="29.875" style="1" customWidth="1"/>
+    <col min="4885" max="5116" width="8.625" style="1"/>
+    <col min="5117" max="5136" width="9.25" style="1" customWidth="1"/>
+    <col min="5137" max="5137" width="3" style="1" customWidth="1"/>
+    <col min="5138" max="5138" width="8" style="1" customWidth="1"/>
+    <col min="5139" max="5139" width="7.875" style="1" customWidth="1"/>
+    <col min="5140" max="5140" width="29.875" style="1" customWidth="1"/>
+    <col min="5141" max="5372" width="8.625" style="1"/>
+    <col min="5373" max="5392" width="9.25" style="1" customWidth="1"/>
+    <col min="5393" max="5393" width="3" style="1" customWidth="1"/>
+    <col min="5394" max="5394" width="8" style="1" customWidth="1"/>
+    <col min="5395" max="5395" width="7.875" style="1" customWidth="1"/>
+    <col min="5396" max="5396" width="29.875" style="1" customWidth="1"/>
+    <col min="5397" max="5628" width="8.625" style="1"/>
+    <col min="5629" max="5648" width="9.25" style="1" customWidth="1"/>
+    <col min="5649" max="5649" width="3" style="1" customWidth="1"/>
+    <col min="5650" max="5650" width="8" style="1" customWidth="1"/>
+    <col min="5651" max="5651" width="7.875" style="1" customWidth="1"/>
+    <col min="5652" max="5652" width="29.875" style="1" customWidth="1"/>
+    <col min="5653" max="5884" width="8.625" style="1"/>
+    <col min="5885" max="5904" width="9.25" style="1" customWidth="1"/>
+    <col min="5905" max="5905" width="3" style="1" customWidth="1"/>
+    <col min="5906" max="5906" width="8" style="1" customWidth="1"/>
+    <col min="5907" max="5907" width="7.875" style="1" customWidth="1"/>
+    <col min="5908" max="5908" width="29.875" style="1" customWidth="1"/>
+    <col min="5909" max="6140" width="8.625" style="1"/>
+    <col min="6141" max="6160" width="9.25" style="1" customWidth="1"/>
+    <col min="6161" max="6161" width="3" style="1" customWidth="1"/>
+    <col min="6162" max="6162" width="8" style="1" customWidth="1"/>
+    <col min="6163" max="6163" width="7.875" style="1" customWidth="1"/>
+    <col min="6164" max="6164" width="29.875" style="1" customWidth="1"/>
+    <col min="6165" max="6396" width="8.625" style="1"/>
+    <col min="6397" max="6416" width="9.25" style="1" customWidth="1"/>
+    <col min="6417" max="6417" width="3" style="1" customWidth="1"/>
+    <col min="6418" max="6418" width="8" style="1" customWidth="1"/>
+    <col min="6419" max="6419" width="7.875" style="1" customWidth="1"/>
+    <col min="6420" max="6420" width="29.875" style="1" customWidth="1"/>
+    <col min="6421" max="6652" width="8.625" style="1"/>
+    <col min="6653" max="6672" width="9.25" style="1" customWidth="1"/>
+    <col min="6673" max="6673" width="3" style="1" customWidth="1"/>
+    <col min="6674" max="6674" width="8" style="1" customWidth="1"/>
+    <col min="6675" max="6675" width="7.875" style="1" customWidth="1"/>
+    <col min="6676" max="6676" width="29.875" style="1" customWidth="1"/>
+    <col min="6677" max="6908" width="8.625" style="1"/>
+    <col min="6909" max="6928" width="9.25" style="1" customWidth="1"/>
+    <col min="6929" max="6929" width="3" style="1" customWidth="1"/>
+    <col min="6930" max="6930" width="8" style="1" customWidth="1"/>
+    <col min="6931" max="6931" width="7.875" style="1" customWidth="1"/>
+    <col min="6932" max="6932" width="29.875" style="1" customWidth="1"/>
+    <col min="6933" max="7164" width="8.625" style="1"/>
+    <col min="7165" max="7184" width="9.25" style="1" customWidth="1"/>
+    <col min="7185" max="7185" width="3" style="1" customWidth="1"/>
+    <col min="7186" max="7186" width="8" style="1" customWidth="1"/>
+    <col min="7187" max="7187" width="7.875" style="1" customWidth="1"/>
+    <col min="7188" max="7188" width="29.875" style="1" customWidth="1"/>
+    <col min="7189" max="7420" width="8.625" style="1"/>
+    <col min="7421" max="7440" width="9.25" style="1" customWidth="1"/>
+    <col min="7441" max="7441" width="3" style="1" customWidth="1"/>
+    <col min="7442" max="7442" width="8" style="1" customWidth="1"/>
+    <col min="7443" max="7443" width="7.875" style="1" customWidth="1"/>
+    <col min="7444" max="7444" width="29.875" style="1" customWidth="1"/>
+    <col min="7445" max="7676" width="8.625" style="1"/>
+    <col min="7677" max="7696" width="9.25" style="1" customWidth="1"/>
+    <col min="7697" max="7697" width="3" style="1" customWidth="1"/>
+    <col min="7698" max="7698" width="8" style="1" customWidth="1"/>
+    <col min="7699" max="7699" width="7.875" style="1" customWidth="1"/>
+    <col min="7700" max="7700" width="29.875" style="1" customWidth="1"/>
+    <col min="7701" max="7932" width="8.625" style="1"/>
+    <col min="7933" max="7952" width="9.25" style="1" customWidth="1"/>
+    <col min="7953" max="7953" width="3" style="1" customWidth="1"/>
+    <col min="7954" max="7954" width="8" style="1" customWidth="1"/>
+    <col min="7955" max="7955" width="7.875" style="1" customWidth="1"/>
+    <col min="7956" max="7956" width="29.875" style="1" customWidth="1"/>
+    <col min="7957" max="8188" width="8.625" style="1"/>
+    <col min="8189" max="8208" width="9.25" style="1" customWidth="1"/>
+    <col min="8209" max="8209" width="3" style="1" customWidth="1"/>
+    <col min="8210" max="8210" width="8" style="1" customWidth="1"/>
+    <col min="8211" max="8211" width="7.875" style="1" customWidth="1"/>
+    <col min="8212" max="8212" width="29.875" style="1" customWidth="1"/>
+    <col min="8213" max="8444" width="8.625" style="1"/>
+    <col min="8445" max="8464" width="9.25" style="1" customWidth="1"/>
+    <col min="8465" max="8465" width="3" style="1" customWidth="1"/>
+    <col min="8466" max="8466" width="8" style="1" customWidth="1"/>
+    <col min="8467" max="8467" width="7.875" style="1" customWidth="1"/>
+    <col min="8468" max="8468" width="29.875" style="1" customWidth="1"/>
+    <col min="8469" max="8700" width="8.625" style="1"/>
+    <col min="8701" max="8720" width="9.25" style="1" customWidth="1"/>
+    <col min="8721" max="8721" width="3" style="1" customWidth="1"/>
+    <col min="8722" max="8722" width="8" style="1" customWidth="1"/>
+    <col min="8723" max="8723" width="7.875" style="1" customWidth="1"/>
+    <col min="8724" max="8724" width="29.875" style="1" customWidth="1"/>
+    <col min="8725" max="8956" width="8.625" style="1"/>
+    <col min="8957" max="8976" width="9.25" style="1" customWidth="1"/>
+    <col min="8977" max="8977" width="3" style="1" customWidth="1"/>
+    <col min="8978" max="8978" width="8" style="1" customWidth="1"/>
+    <col min="8979" max="8979" width="7.875" style="1" customWidth="1"/>
+    <col min="8980" max="8980" width="29.875" style="1" customWidth="1"/>
+    <col min="8981" max="9212" width="8.625" style="1"/>
+    <col min="9213" max="9232" width="9.25" style="1" customWidth="1"/>
+    <col min="9233" max="9233" width="3" style="1" customWidth="1"/>
+    <col min="9234" max="9234" width="8" style="1" customWidth="1"/>
+    <col min="9235" max="9235" width="7.875" style="1" customWidth="1"/>
+    <col min="9236" max="9236" width="29.875" style="1" customWidth="1"/>
+    <col min="9237" max="9468" width="8.625" style="1"/>
+    <col min="9469" max="9488" width="9.25" style="1" customWidth="1"/>
+    <col min="9489" max="9489" width="3" style="1" customWidth="1"/>
+    <col min="9490" max="9490" width="8" style="1" customWidth="1"/>
+    <col min="9491" max="9491" width="7.875" style="1" customWidth="1"/>
+    <col min="9492" max="9492" width="29.875" style="1" customWidth="1"/>
+    <col min="9493" max="9724" width="8.625" style="1"/>
+    <col min="9725" max="9744" width="9.25" style="1" customWidth="1"/>
+    <col min="9745" max="9745" width="3" style="1" customWidth="1"/>
+    <col min="9746" max="9746" width="8" style="1" customWidth="1"/>
+    <col min="9747" max="9747" width="7.875" style="1" customWidth="1"/>
+    <col min="9748" max="9748" width="29.875" style="1" customWidth="1"/>
+    <col min="9749" max="9980" width="8.625" style="1"/>
+    <col min="9981" max="10000" width="9.25" style="1" customWidth="1"/>
+    <col min="10001" max="10001" width="3" style="1" customWidth="1"/>
+    <col min="10002" max="10002" width="8" style="1" customWidth="1"/>
+    <col min="10003" max="10003" width="7.875" style="1" customWidth="1"/>
+    <col min="10004" max="10004" width="29.875" style="1" customWidth="1"/>
+    <col min="10005" max="10236" width="8.625" style="1"/>
+    <col min="10237" max="10256" width="9.25" style="1" customWidth="1"/>
+    <col min="10257" max="10257" width="3" style="1" customWidth="1"/>
+    <col min="10258" max="10258" width="8" style="1" customWidth="1"/>
+    <col min="10259" max="10259" width="7.875" style="1" customWidth="1"/>
+    <col min="10260" max="10260" width="29.875" style="1" customWidth="1"/>
+    <col min="10261" max="10492" width="8.625" style="1"/>
+    <col min="10493" max="10512" width="9.25" style="1" customWidth="1"/>
+    <col min="10513" max="10513" width="3" style="1" customWidth="1"/>
+    <col min="10514" max="10514" width="8" style="1" customWidth="1"/>
+    <col min="10515" max="10515" width="7.875" style="1" customWidth="1"/>
+    <col min="10516" max="10516" width="29.875" style="1" customWidth="1"/>
+    <col min="10517" max="10748" width="8.625" style="1"/>
+    <col min="10749" max="10768" width="9.25" style="1" customWidth="1"/>
+    <col min="10769" max="10769" width="3" style="1" customWidth="1"/>
+    <col min="10770" max="10770" width="8" style="1" customWidth="1"/>
+    <col min="10771" max="10771" width="7.875" style="1" customWidth="1"/>
+    <col min="10772" max="10772" width="29.875" style="1" customWidth="1"/>
+    <col min="10773" max="11004" width="8.625" style="1"/>
+    <col min="11005" max="11024" width="9.25" style="1" customWidth="1"/>
+    <col min="11025" max="11025" width="3" style="1" customWidth="1"/>
+    <col min="11026" max="11026" width="8" style="1" customWidth="1"/>
+    <col min="11027" max="11027" width="7.875" style="1" customWidth="1"/>
+    <col min="11028" max="11028" width="29.875" style="1" customWidth="1"/>
+    <col min="11029" max="11260" width="8.625" style="1"/>
+    <col min="11261" max="11280" width="9.25" style="1" customWidth="1"/>
+    <col min="11281" max="11281" width="3" style="1" customWidth="1"/>
+    <col min="11282" max="11282" width="8" style="1" customWidth="1"/>
+    <col min="11283" max="11283" width="7.875" style="1" customWidth="1"/>
+    <col min="11284" max="11284" width="29.875" style="1" customWidth="1"/>
+    <col min="11285" max="11516" width="8.625" style="1"/>
+    <col min="11517" max="11536" width="9.25" style="1" customWidth="1"/>
+    <col min="11537" max="11537" width="3" style="1" customWidth="1"/>
+    <col min="11538" max="11538" width="8" style="1" customWidth="1"/>
+    <col min="11539" max="11539" width="7.875" style="1" customWidth="1"/>
+    <col min="11540" max="11540" width="29.875" style="1" customWidth="1"/>
+    <col min="11541" max="11772" width="8.625" style="1"/>
+    <col min="11773" max="11792" width="9.25" style="1" customWidth="1"/>
+    <col min="11793" max="11793" width="3" style="1" customWidth="1"/>
+    <col min="11794" max="11794" width="8" style="1" customWidth="1"/>
+    <col min="11795" max="11795" width="7.875" style="1" customWidth="1"/>
+    <col min="11796" max="11796" width="29.875" style="1" customWidth="1"/>
+    <col min="11797" max="12028" width="8.625" style="1"/>
+    <col min="12029" max="12048" width="9.25" style="1" customWidth="1"/>
+    <col min="12049" max="12049" width="3" style="1" customWidth="1"/>
+    <col min="12050" max="12050" width="8" style="1" customWidth="1"/>
+    <col min="12051" max="12051" width="7.875" style="1" customWidth="1"/>
+    <col min="12052" max="12052" width="29.875" style="1" customWidth="1"/>
+    <col min="12053" max="12284" width="8.625" style="1"/>
+    <col min="12285" max="12304" width="9.25" style="1" customWidth="1"/>
+    <col min="12305" max="12305" width="3" style="1" customWidth="1"/>
+    <col min="12306" max="12306" width="8" style="1" customWidth="1"/>
+    <col min="12307" max="12307" width="7.875" style="1" customWidth="1"/>
+    <col min="12308" max="12308" width="29.875" style="1" customWidth="1"/>
+    <col min="12309" max="12540" width="8.625" style="1"/>
+    <col min="12541" max="12560" width="9.25" style="1" customWidth="1"/>
+    <col min="12561" max="12561" width="3" style="1" customWidth="1"/>
+    <col min="12562" max="12562" width="8" style="1" customWidth="1"/>
+    <col min="12563" max="12563" width="7.875" style="1" customWidth="1"/>
+    <col min="12564" max="12564" width="29.875" style="1" customWidth="1"/>
+    <col min="12565" max="12796" width="8.625" style="1"/>
+    <col min="12797" max="12816" width="9.25" style="1" customWidth="1"/>
+    <col min="12817" max="12817" width="3" style="1" customWidth="1"/>
+    <col min="12818" max="12818" width="8" style="1" customWidth="1"/>
+    <col min="12819" max="12819" width="7.875" style="1" customWidth="1"/>
+    <col min="12820" max="12820" width="29.875" style="1" customWidth="1"/>
+    <col min="12821" max="13052" width="8.625" style="1"/>
+    <col min="13053" max="13072" width="9.25" style="1" customWidth="1"/>
+    <col min="13073" max="13073" width="3" style="1" customWidth="1"/>
+    <col min="13074" max="13074" width="8" style="1" customWidth="1"/>
+    <col min="13075" max="13075" width="7.875" style="1" customWidth="1"/>
+    <col min="13076" max="13076" width="29.875" style="1" customWidth="1"/>
+    <col min="13077" max="13308" width="8.625" style="1"/>
+    <col min="13309" max="13328" width="9.25" style="1" customWidth="1"/>
+    <col min="13329" max="13329" width="3" style="1" customWidth="1"/>
+    <col min="13330" max="13330" width="8" style="1" customWidth="1"/>
+    <col min="13331" max="13331" width="7.875" style="1" customWidth="1"/>
+    <col min="13332" max="13332" width="29.875" style="1" customWidth="1"/>
+    <col min="13333" max="13564" width="8.625" style="1"/>
+    <col min="13565" max="13584" width="9.25" style="1" customWidth="1"/>
+    <col min="13585" max="13585" width="3" style="1" customWidth="1"/>
+    <col min="13586" max="13586" width="8" style="1" customWidth="1"/>
+    <col min="13587" max="13587" width="7.875" style="1" customWidth="1"/>
+    <col min="13588" max="13588" width="29.875" style="1" customWidth="1"/>
+    <col min="13589" max="13820" width="8.625" style="1"/>
+    <col min="13821" max="13840" width="9.25" style="1" customWidth="1"/>
+    <col min="13841" max="13841" width="3" style="1" customWidth="1"/>
+    <col min="13842" max="13842" width="8" style="1" customWidth="1"/>
+    <col min="13843" max="13843" width="7.875" style="1" customWidth="1"/>
+    <col min="13844" max="13844" width="29.875" style="1" customWidth="1"/>
+    <col min="13845" max="14076" width="8.625" style="1"/>
+    <col min="14077" max="14096" width="9.25" style="1" customWidth="1"/>
+    <col min="14097" max="14097" width="3" style="1" customWidth="1"/>
+    <col min="14098" max="14098" width="8" style="1" customWidth="1"/>
+    <col min="14099" max="14099" width="7.875" style="1" customWidth="1"/>
+    <col min="14100" max="14100" width="29.875" style="1" customWidth="1"/>
+    <col min="14101" max="14332" width="8.625" style="1"/>
+    <col min="14333" max="14352" width="9.25" style="1" customWidth="1"/>
+    <col min="14353" max="14353" width="3" style="1" customWidth="1"/>
+    <col min="14354" max="14354" width="8" style="1" customWidth="1"/>
+    <col min="14355" max="14355" width="7.875" style="1" customWidth="1"/>
+    <col min="14356" max="14356" width="29.875" style="1" customWidth="1"/>
+    <col min="14357" max="14588" width="8.625" style="1"/>
+    <col min="14589" max="14608" width="9.25" style="1" customWidth="1"/>
+    <col min="14609" max="14609" width="3" style="1" customWidth="1"/>
+    <col min="14610" max="14610" width="8" style="1" customWidth="1"/>
+    <col min="14611" max="14611" width="7.875" style="1" customWidth="1"/>
+    <col min="14612" max="14612" width="29.875" style="1" customWidth="1"/>
+    <col min="14613" max="14844" width="8.625" style="1"/>
+    <col min="14845" max="14864" width="9.25" style="1" customWidth="1"/>
+    <col min="14865" max="14865" width="3" style="1" customWidth="1"/>
+    <col min="14866" max="14866" width="8" style="1" customWidth="1"/>
+    <col min="14867" max="14867" width="7.875" style="1" customWidth="1"/>
+    <col min="14868" max="14868" width="29.875" style="1" customWidth="1"/>
+    <col min="14869" max="15100" width="8.625" style="1"/>
+    <col min="15101" max="15120" width="9.25" style="1" customWidth="1"/>
+    <col min="15121" max="15121" width="3" style="1" customWidth="1"/>
+    <col min="15122" max="15122" width="8" style="1" customWidth="1"/>
+    <col min="15123" max="15123" width="7.875" style="1" customWidth="1"/>
+    <col min="15124" max="15124" width="29.875" style="1" customWidth="1"/>
+    <col min="15125" max="15356" width="8.625" style="1"/>
+    <col min="15357" max="15376" width="9.25" style="1" customWidth="1"/>
+    <col min="15377" max="15377" width="3" style="1" customWidth="1"/>
+    <col min="15378" max="15378" width="8" style="1" customWidth="1"/>
+    <col min="15379" max="15379" width="7.875" style="1" customWidth="1"/>
+    <col min="15380" max="15380" width="29.875" style="1" customWidth="1"/>
+    <col min="15381" max="15612" width="8.625" style="1"/>
+    <col min="15613" max="15632" width="9.25" style="1" customWidth="1"/>
+    <col min="15633" max="15633" width="3" style="1" customWidth="1"/>
+    <col min="15634" max="15634" width="8" style="1" customWidth="1"/>
+    <col min="15635" max="15635" width="7.875" style="1" customWidth="1"/>
+    <col min="15636" max="15636" width="29.875" style="1" customWidth="1"/>
+    <col min="15637" max="15868" width="8.625" style="1"/>
+    <col min="15869" max="15888" width="9.25" style="1" customWidth="1"/>
+    <col min="15889" max="15889" width="3" style="1" customWidth="1"/>
+    <col min="15890" max="15890" width="8" style="1" customWidth="1"/>
+    <col min="15891" max="15891" width="7.875" style="1" customWidth="1"/>
+    <col min="15892" max="15892" width="29.875" style="1" customWidth="1"/>
+    <col min="15893" max="16124" width="8.625" style="1"/>
+    <col min="16125" max="16144" width="9.25" style="1" customWidth="1"/>
+    <col min="16145" max="16145" width="3" style="1" customWidth="1"/>
+    <col min="16146" max="16146" width="8" style="1" customWidth="1"/>
+    <col min="16147" max="16147" width="7.875" style="1" customWidth="1"/>
+    <col min="16148" max="16148" width="29.875" style="1" customWidth="1"/>
+    <col min="16149" max="16377" width="8.625" style="1"/>
+    <col min="16378" max="16384" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="33.75" customHeight="1" r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
     </row>
-    <row ht="22.5" customHeight="1" r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="str">
+    <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="71" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="9" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
     </row>
-    <row ht="18" customHeight="1" r="3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="17" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="19"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="83"/>
     </row>
-    <row ht="26.25" customHeight="1" r="4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="80"/>
+      <c r="B4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="K4" s="90"/>
+      <c r="L4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="24" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="30"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="86"/>
     </row>
-    <row ht="34" customHeight="1" r="5">
-      <c r="A5" s="20"/>
-      <c r="B5" s="26" t="s">
+    <row r="5" spans="1:25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="80"/>
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="30"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="86"/>
     </row>
-    <row ht="24.75" customHeight="1" hidden="1" r="6">
-      <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="80"/>
+      <c r="B6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="96"/>
+      <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="96"/>
+      <c r="L6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="25" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="37" t="s">
+      <c r="U6" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39" t="s">
+      <c r="V6" s="98"/>
+      <c r="W6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="39" t="s">
+      <c r="X6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Y6" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row ht="24.75" customHeight="1" r="7">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="17">
         <v>1.5</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="M7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="R7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="S7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="48" t="s">
+      <c r="U7" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49" t="s">
+      <c r="V7" s="99"/>
+      <c r="W7" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="49" t="s">
+      <c r="X7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="50" t="s">
+      <c r="Y7" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row ht="24.75" customHeight="1" hidden="1" r="8">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="24">
         <v>80</v>
       </c>
-      <c r="C8" s="53">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="D8" s="54">
+      <c r="C8" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="26">
         <v>80</v>
       </c>
-      <c r="E8" s="53">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="F8" s="55">
+      <c r="E8" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="27">
         <v>30</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="27">
         <v>1.8</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="27">
         <v>1.5</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="27">
         <v>28</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="26">
         <v>70</v>
       </c>
-      <c r="K8" s="53">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="L8" s="54">
+      <c r="K8" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="26">
         <v>70</v>
       </c>
-      <c r="M8" s="53">
-        <v>0.69999999999999996</v>
-      </c>
-      <c r="N8" s="55">
+      <c r="M8" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="27">
         <v>110</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="27">
         <v>29</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="27">
         <v>1.3</v>
       </c>
-      <c r="Q8" s="56">
+      <c r="Q8" s="28">
         <v>1.5</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="27">
         <v>1.2</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="27">
         <v>1.2</v>
       </c>
-      <c r="T8" s="57">
+      <c r="T8" s="29">
         <v>4</v>
       </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="60"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="32"/>
     </row>
-    <row ht="24.75" customHeight="1" hidden="1" r="9">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="24">
         <v>-9999</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="24">
         <v>-9999</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="24">
         <v>-9999</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="24">
         <v>-9999</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="24">
         <v>-9999</v>
       </c>
-      <c r="G9" s="55">
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="H9" s="52">
+      <c r="G9" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="24">
         <v>-9999</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="27">
         <v>24</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="24">
         <v>-9999</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="24">
         <v>-9999</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="24">
         <v>-9999</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="24">
         <v>-9999</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="27">
         <v>80</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="27">
         <v>25</v>
       </c>
-      <c r="P9" s="55">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="Q9" s="52">
+      <c r="P9" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="24">
         <v>-9999</v>
       </c>
-      <c r="R9" s="52">
+      <c r="R9" s="24">
         <v>-9999</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="24">
         <v>-9999</v>
       </c>
-      <c r="T9" s="61">
+      <c r="T9" s="33">
         <v>-9999</v>
       </c>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="32"/>
     </row>
-    <row ht="24.75" customHeight="1" hidden="1" r="10">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="66" t="s">
+      <c r="J10" s="37"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="66" t="s">
+      <c r="P10" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="67" t="s">
+      <c r="Q10" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="66" t="s">
+      <c r="R10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="66" t="s">
+      <c r="S10" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="68" t="s">
+      <c r="T10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="70"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="101"/>
     </row>
-    <row ht="20" customHeight="1" r="11">
-      <c r="A11" s="71">
+    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41">
         <v>0</v>
       </c>
-      <c r="B11" s="72" t="str">
+      <c r="B11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A2="","",_zhongleng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C11" s="72" t="str">
+      <c r="C11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B2="","",_zhongleng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D11" s="72" t="str">
+      <c r="D11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C2="","",_zhongleng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E11" s="72" t="str">
+      <c r="E11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D2="","",_zhongleng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F11" s="72" t="str">
+      <c r="F11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E2="","",_zhongleng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G11" s="72" t="str">
+      <c r="G11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F2="","",_zhongleng_day_hour!F2/1000)</f>
         <v/>
       </c>
-      <c r="H11" s="72" t="str">
+      <c r="H11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G2="","",_zhongleng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="I11" s="72" t="str">
+      <c r="I11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H2="","",_zhongleng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="J11" s="72" t="str">
+      <c r="J11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I2="","",_zhongleng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K11" s="72" t="str">
+      <c r="K11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J2="","",_zhongleng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L11" s="72" t="str">
+      <c r="L11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K2="","",_zhongleng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M11" s="72" t="str">
+      <c r="M11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L2="","",_zhongleng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N11" s="72" t="str">
+      <c r="N11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M2="","",_zhongleng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O11" s="72" t="str">
+      <c r="O11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N2="","",_zhongleng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P11" s="72" t="str">
+      <c r="P11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O2="","",_zhongleng_day_hour!O2/1000)</f>
         <v/>
       </c>
-      <c r="Q11" s="72" t="str">
+      <c r="Q11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P2="","",_zhongleng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="R11" s="72" t="str">
+      <c r="R11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q2="","",_zhongleng_day_hour!Q2/1000)</f>
         <v/>
       </c>
-      <c r="S11" s="72" t="str">
+      <c r="S11" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R2="","",_zhongleng_day_hour!R2/1000)</f>
         <v/>
       </c>
-      <c r="T11" s="73" t="str">
+      <c r="T11" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S2="","",_zhongleng_day_hour!S2/1000)</f>
         <v/>
       </c>
-      <c r="U11" s="74" t="s">
+      <c r="U11" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="75" t="s">
+      <c r="V11" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="76" t="str">
+      <c r="W11" s="45" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="X11" s="76" t="str">
+      <c r="X11" s="45" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="Y11" s="77" t="str">
+      <c r="Y11" s="46" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row ht="20" customHeight="1" r="12">
-      <c r="A12" s="71">
-        <v>0.041666666666666699</v>
-      </c>
-      <c r="B12" s="72" t="str">
+    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A3="","",_zhongleng_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C12" s="72" t="str">
+      <c r="C12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B3="","",_zhongleng_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="D12" s="72" t="str">
+      <c r="D12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C3="","",_zhongleng_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="E12" s="72" t="str">
+      <c r="E12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D3="","",_zhongleng_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="F12" s="72" t="str">
+      <c r="F12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E3="","",_zhongleng_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="G12" s="72" t="str">
+      <c r="G12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F3="","",_zhongleng_day_hour!F3/1000)</f>
         <v/>
       </c>
-      <c r="H12" s="72" t="str">
+      <c r="H12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G3="","",_zhongleng_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="I12" s="72" t="str">
+      <c r="I12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H3="","",_zhongleng_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="J12" s="72" t="str">
+      <c r="J12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I3="","",_zhongleng_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="K12" s="72" t="str">
+      <c r="K12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J3="","",_zhongleng_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="L12" s="72" t="str">
+      <c r="L12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K3="","",_zhongleng_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="M12" s="72" t="str">
+      <c r="M12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L3="","",_zhongleng_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="N12" s="72" t="str">
+      <c r="N12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M3="","",_zhongleng_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="O12" s="72" t="str">
+      <c r="O12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N3="","",_zhongleng_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="P12" s="72" t="str">
+      <c r="P12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O3="","",_zhongleng_day_hour!O3/1000)</f>
         <v/>
       </c>
-      <c r="Q12" s="72" t="str">
+      <c r="Q12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P3="","",_zhongleng_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="R12" s="72" t="str">
+      <c r="R12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q3="","",_zhongleng_day_hour!Q3/1000)</f>
         <v/>
       </c>
-      <c r="S12" s="72" t="str">
+      <c r="S12" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R3="","",_zhongleng_day_hour!R3/1000)</f>
         <v/>
       </c>
-      <c r="T12" s="73" t="str">
+      <c r="T12" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S3="","",_zhongleng_day_hour!S3/1000)</f>
         <v/>
       </c>
-      <c r="U12" s="74"/>
-      <c r="V12" s="75" t="s">
+      <c r="U12" s="102"/>
+      <c r="V12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="W12" s="76" t="str">
+      <c r="W12" s="45" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="X12" s="76" t="str">
+      <c r="X12" s="45" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="Y12" s="77" t="str">
+      <c r="Y12" s="46" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row ht="20" customHeight="1" r="13">
-      <c r="A13" s="71">
-        <v>0.083333333333333301</v>
-      </c>
-      <c r="B13" s="72" t="str">
+    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A4="","",_zhongleng_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C13" s="72" t="str">
+      <c r="C13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B4="","",_zhongleng_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="D13" s="72" t="str">
+      <c r="D13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C4="","",_zhongleng_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="E13" s="72" t="str">
+      <c r="E13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D4="","",_zhongleng_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="F13" s="72" t="str">
+      <c r="F13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E4="","",_zhongleng_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="G13" s="72" t="str">
+      <c r="G13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F4="","",_zhongleng_day_hour!F4/1000)</f>
         <v/>
       </c>
-      <c r="H13" s="72" t="str">
+      <c r="H13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G4="","",_zhongleng_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="I13" s="72" t="str">
+      <c r="I13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H4="","",_zhongleng_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="J13" s="72" t="str">
+      <c r="J13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I4="","",_zhongleng_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="K13" s="72" t="str">
+      <c r="K13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J4="","",_zhongleng_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="L13" s="72" t="str">
+      <c r="L13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K4="","",_zhongleng_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="M13" s="72" t="str">
+      <c r="M13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L4="","",_zhongleng_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="N13" s="72" t="str">
+      <c r="N13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M4="","",_zhongleng_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="O13" s="72" t="str">
+      <c r="O13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N4="","",_zhongleng_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="P13" s="72" t="str">
+      <c r="P13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O4="","",_zhongleng_day_hour!O4/1000)</f>
         <v/>
       </c>
-      <c r="Q13" s="72" t="str">
+      <c r="Q13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P4="","",_zhongleng_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="R13" s="72" t="str">
+      <c r="R13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q4="","",_zhongleng_day_hour!Q4/1000)</f>
         <v/>
       </c>
-      <c r="S13" s="72" t="str">
+      <c r="S13" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R4="","",_zhongleng_day_hour!R4/1000)</f>
         <v/>
       </c>
-      <c r="T13" s="73" t="str">
+      <c r="T13" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S4="","",_zhongleng_day_hour!S4/1000)</f>
         <v/>
       </c>
-      <c r="U13" s="74" t="s">
+      <c r="U13" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="V13" s="75" t="s">
+      <c r="V13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="W13" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C2:_analysis_day_shift!F2),"",_analysis_day_shift!C2)</f>
-        <v/>
-      </c>
-      <c r="X13" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C3:_analysis_day_shift!F3),"",_analysis_day_shift!C3)</f>
-        <v/>
-      </c>
-      <c r="Y13" s="77" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C4:_analysis_day_shift!F4),"",_analysis_day_shift!C4)</f>
+      <c r="W13" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!C2)</f>
+        <v/>
+      </c>
+      <c r="X13" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!C3)</f>
+        <v/>
+      </c>
+      <c r="Y13" s="46" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row customFormat="1" ht="20" customHeight="1" r="14" s="78">
-      <c r="A14" s="79">
+    <row r="14" spans="1:25" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="48">
         <v>0.125</v>
       </c>
-      <c r="B14" s="80" t="str">
+      <c r="B14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!A5="","",_zhongleng_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="C14" s="80" t="str">
+      <c r="C14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!B5="","",_zhongleng_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="D14" s="80" t="str">
+      <c r="D14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!C5="","",_zhongleng_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="E14" s="80" t="str">
+      <c r="E14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!D5="","",_zhongleng_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="F14" s="80" t="str">
+      <c r="F14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!E5="","",_zhongleng_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="G14" s="80" t="str">
+      <c r="G14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!F5="","",_zhongleng_day_hour!F5/1000)</f>
         <v/>
       </c>
-      <c r="H14" s="80" t="str">
+      <c r="H14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!G5="","",_zhongleng_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="I14" s="80" t="str">
+      <c r="I14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!H5="","",_zhongleng_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="J14" s="80" t="str">
+      <c r="J14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!I5="","",_zhongleng_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="K14" s="80" t="str">
+      <c r="K14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!J5="","",_zhongleng_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="L14" s="80" t="str">
+      <c r="L14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!K5="","",_zhongleng_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="M14" s="80" t="str">
+      <c r="M14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!L5="","",_zhongleng_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="N14" s="80" t="str">
+      <c r="N14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!M5="","",_zhongleng_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="O14" s="80" t="str">
+      <c r="O14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!N5="","",_zhongleng_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="P14" s="80" t="str">
+      <c r="P14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!O5="","",_zhongleng_day_hour!O5/1000)</f>
         <v/>
       </c>
-      <c r="Q14" s="80" t="str">
+      <c r="Q14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!P5="","",_zhongleng_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="R14" s="80" t="str">
+      <c r="R14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!Q5="","",_zhongleng_day_hour!Q5/1000)</f>
         <v/>
       </c>
-      <c r="S14" s="80" t="str">
+      <c r="S14" s="49" t="str">
         <f>IF(_zhongleng_day_hour!R5="","",_zhongleng_day_hour!R5/1000)</f>
         <v/>
       </c>
-      <c r="T14" s="81" t="str">
+      <c r="T14" s="50" t="str">
         <f>IF(_zhongleng_day_hour!S5="","",_zhongleng_day_hour!S5/1000)</f>
         <v/>
       </c>
-      <c r="U14" s="74"/>
-      <c r="V14" s="75" t="s">
+      <c r="U14" s="102"/>
+      <c r="V14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="W14" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C2:_analysis_day_shift!F2),"",_analysis_day_shift!D2)</f>
-        <v/>
-      </c>
-      <c r="X14" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C3:_analysis_day_shift!F3),"",_analysis_day_shift!D3)</f>
-        <v/>
-      </c>
-      <c r="Y14" s="77" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C4:_analysis_day_shift!F4),"",_analysis_day_shift!D4)</f>
+      <c r="W14" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!D2)</f>
+        <v/>
+      </c>
+      <c r="X14" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!D3)</f>
+        <v/>
+      </c>
+      <c r="Y14" s="46" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row ht="20" customHeight="1" r="15">
-      <c r="A15" s="71">
+    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B15" s="80" t="str">
+      <c r="B15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!A6="","",_zhongleng_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="C15" s="80" t="str">
+      <c r="C15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!B6="","",_zhongleng_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="D15" s="80" t="str">
+      <c r="D15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!C6="","",_zhongleng_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="E15" s="80" t="str">
+      <c r="E15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!D6="","",_zhongleng_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="F15" s="80" t="str">
+      <c r="F15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!E6="","",_zhongleng_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="G15" s="80" t="str">
+      <c r="G15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!F6="","",_zhongleng_day_hour!F6/1000)</f>
         <v/>
       </c>
-      <c r="H15" s="80" t="str">
+      <c r="H15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!G6="","",_zhongleng_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="I15" s="80" t="str">
+      <c r="I15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!H6="","",_zhongleng_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="J15" s="80" t="str">
+      <c r="J15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!I6="","",_zhongleng_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="K15" s="80" t="str">
+      <c r="K15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!J6="","",_zhongleng_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="L15" s="80" t="str">
+      <c r="L15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!K6="","",_zhongleng_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="M15" s="80" t="str">
+      <c r="M15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!L6="","",_zhongleng_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="N15" s="80" t="str">
+      <c r="N15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!M6="","",_zhongleng_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="O15" s="80" t="str">
+      <c r="O15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!N6="","",_zhongleng_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="P15" s="80" t="str">
+      <c r="P15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!O6="","",_zhongleng_day_hour!O6/1000)</f>
         <v/>
       </c>
-      <c r="Q15" s="80" t="str">
+      <c r="Q15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!P6="","",_zhongleng_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="R15" s="80" t="str">
+      <c r="R15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!Q6="","",_zhongleng_day_hour!Q6/1000)</f>
         <v/>
       </c>
-      <c r="S15" s="80" t="str">
+      <c r="S15" s="49" t="str">
         <f>IF(_zhongleng_day_hour!R6="","",_zhongleng_day_hour!R6/1000)</f>
         <v/>
       </c>
-      <c r="T15" s="81" t="str">
+      <c r="T15" s="50" t="str">
         <f>IF(_zhongleng_day_hour!S6="","",_zhongleng_day_hour!S6/1000)</f>
         <v/>
       </c>
-      <c r="U15" s="82" t="s">
+      <c r="U15" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="75" t="s">
+      <c r="V15" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C2:_analysis_day_shift!F2),"",_analysis_day_shift!E2)</f>
-        <v/>
-      </c>
-      <c r="X15" s="76" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C3:_analysis_day_shift!F3),"",_analysis_day_shift!E3)</f>
-        <v/>
-      </c>
-      <c r="Y15" s="77" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C4:_analysis_day_shift!F4),"",_analysis_day_shift!E4)</f>
+      <c r="W15" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!E2)</f>
+        <v/>
+      </c>
+      <c r="X15" s="45" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!E3)</f>
+        <v/>
+      </c>
+      <c r="Y15" s="46" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row ht="20" customHeight="1" r="16">
-      <c r="A16" s="71">
+    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B16" s="80" t="str">
+      <c r="B16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!A7="","",_zhongleng_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="C16" s="80" t="str">
+      <c r="C16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!B7="","",_zhongleng_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="D16" s="80" t="str">
+      <c r="D16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!C7="","",_zhongleng_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="E16" s="80" t="str">
+      <c r="E16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!D7="","",_zhongleng_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="F16" s="80" t="str">
+      <c r="F16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!E7="","",_zhongleng_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="G16" s="80" t="str">
+      <c r="G16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!F7="","",_zhongleng_day_hour!F7/1000)</f>
         <v/>
       </c>
-      <c r="H16" s="80" t="str">
+      <c r="H16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!G7="","",_zhongleng_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="I16" s="80" t="str">
+      <c r="I16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!H7="","",_zhongleng_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="J16" s="80" t="str">
+      <c r="J16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!I7="","",_zhongleng_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="K16" s="80" t="str">
+      <c r="K16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!J7="","",_zhongleng_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="L16" s="80" t="str">
+      <c r="L16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!K7="","",_zhongleng_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="M16" s="80" t="str">
+      <c r="M16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!L7="","",_zhongleng_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="N16" s="80" t="str">
+      <c r="N16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!M7="","",_zhongleng_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="O16" s="80" t="str">
+      <c r="O16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!N7="","",_zhongleng_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="P16" s="80" t="str">
+      <c r="P16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!O7="","",_zhongleng_day_hour!O7/1000)</f>
         <v/>
       </c>
-      <c r="Q16" s="80" t="str">
+      <c r="Q16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!P7="","",_zhongleng_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="R16" s="80" t="str">
+      <c r="R16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!Q7="","",_zhongleng_day_hour!Q7/1000)</f>
         <v/>
       </c>
-      <c r="S16" s="80" t="str">
+      <c r="S16" s="49" t="str">
         <f>IF(_zhongleng_day_hour!R7="","",_zhongleng_day_hour!R7/1000)</f>
         <v/>
       </c>
-      <c r="T16" s="81" t="str">
+      <c r="T16" s="50" t="str">
         <f>IF(_zhongleng_day_hour!S7="","",_zhongleng_day_hour!S7/1000)</f>
         <v/>
       </c>
-      <c r="U16" s="83"/>
-      <c r="V16" s="84" t="s">
+      <c r="U16" s="108"/>
+      <c r="V16" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="W16" s="85" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C2:_analysis_day_shift!F2),"",_analysis_day_shift!F2)</f>
-        <v/>
-      </c>
-      <c r="X16" s="85" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C3:_analysis_day_shift!F3),"",_analysis_day_shift!F3)</f>
-        <v/>
-      </c>
-      <c r="Y16" s="86" t="str">
-        <f ca="1">IF(COUNTBLANK(_analysis_day_shift!C4:_analysis_day_shift!F4),"",_analysis_day_shift!F4)</f>
+      <c r="W16" s="52" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!F2)</f>
+        <v/>
+      </c>
+      <c r="X16" s="52" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!F3)</f>
+        <v/>
+      </c>
+      <c r="Y16" s="53" t="str">
+        <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row ht="20" customHeight="1" r="17">
-      <c r="A17" s="71">
+    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41">
         <v>0.25</v>
       </c>
-      <c r="B17" s="80" t="str">
+      <c r="B17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!A8="","",_zhongleng_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="C17" s="80" t="str">
+      <c r="C17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!B8="","",_zhongleng_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="D17" s="80" t="str">
+      <c r="D17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!C8="","",_zhongleng_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="E17" s="80" t="str">
+      <c r="E17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!D8="","",_zhongleng_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="F17" s="80" t="str">
+      <c r="F17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!E8="","",_zhongleng_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="G17" s="80" t="str">
+      <c r="G17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!F8="","",_zhongleng_day_hour!F8/1000)</f>
         <v/>
       </c>
-      <c r="H17" s="80" t="str">
+      <c r="H17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!G8="","",_zhongleng_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="I17" s="80" t="str">
+      <c r="I17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!H8="","",_zhongleng_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="J17" s="80" t="str">
+      <c r="J17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!I8="","",_zhongleng_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="K17" s="80" t="str">
+      <c r="K17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!J8="","",_zhongleng_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="L17" s="80" t="str">
+      <c r="L17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!K8="","",_zhongleng_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="M17" s="80" t="str">
+      <c r="M17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!L8="","",_zhongleng_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="N17" s="80" t="str">
+      <c r="N17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!M8="","",_zhongleng_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="O17" s="80" t="str">
+      <c r="O17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!N8="","",_zhongleng_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="P17" s="80" t="str">
+      <c r="P17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!O8="","",_zhongleng_day_hour!O8/1000)</f>
         <v/>
       </c>
-      <c r="Q17" s="80" t="str">
+      <c r="Q17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!P8="","",_zhongleng_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="R17" s="80" t="str">
+      <c r="R17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!Q8="","",_zhongleng_day_hour!Q8/1000)</f>
         <v/>
       </c>
-      <c r="S17" s="80" t="str">
+      <c r="S17" s="49" t="str">
         <f>IF(_zhongleng_day_hour!R8="","",_zhongleng_day_hour!R8/1000)</f>
         <v/>
       </c>
-      <c r="T17" s="81" t="str">
+      <c r="T17" s="50" t="str">
         <f>IF(_zhongleng_day_hour!S8="","",_zhongleng_day_hour!S8/1000)</f>
         <v/>
       </c>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="88"/>
+      <c r="U17" s="109"/>
+      <c r="V17" s="109"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="110"/>
     </row>
-    <row ht="20" customHeight="1" r="18">
-      <c r="A18" s="89">
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="54">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B18" s="90" t="str">
+      <c r="B18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!A9="","",_zhongleng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="C18" s="90" t="str">
+      <c r="C18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!B9="","",_zhongleng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!C9="","",_zhongleng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E18" s="90" t="str">
+      <c r="E18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!D9="","",_zhongleng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F18" s="90" t="str">
+      <c r="F18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!E9="","",_zhongleng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G18" s="90" t="str">
+      <c r="G18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!F9="","",_zhongleng_day_hour!F9/1000)</f>
         <v/>
       </c>
-      <c r="H18" s="90" t="str">
+      <c r="H18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!G9="","",_zhongleng_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="I18" s="90" t="str">
+      <c r="I18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!H9="","",_zhongleng_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="J18" s="90" t="str">
+      <c r="J18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!I9="","",_zhongleng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K18" s="90" t="str">
+      <c r="K18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!J9="","",_zhongleng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L18" s="90" t="str">
+      <c r="L18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!K9="","",_zhongleng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M18" s="90" t="str">
+      <c r="M18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!L9="","",_zhongleng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N18" s="90" t="str">
+      <c r="N18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!M9="","",_zhongleng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O18" s="90" t="str">
+      <c r="O18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!N9="","",_zhongleng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P18" s="90" t="str">
+      <c r="P18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!O9="","",_zhongleng_day_hour!O9/1000)</f>
         <v/>
       </c>
-      <c r="Q18" s="90" t="str">
+      <c r="Q18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!P9="","",_zhongleng_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="R18" s="90" t="str">
+      <c r="R18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!Q9="","",_zhongleng_day_hour!Q9/1000)</f>
         <v/>
       </c>
-      <c r="S18" s="90" t="str">
+      <c r="S18" s="55" t="str">
         <f>IF(_zhongleng_day_hour!R9="","",_zhongleng_day_hour!R9/1000)</f>
         <v/>
       </c>
-      <c r="T18" s="91" t="str">
+      <c r="T18" s="56" t="str">
         <f>IF(_zhongleng_day_hour!S9="","",_zhongleng_day_hour!S9/1000)</f>
         <v/>
       </c>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="93"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="19">
-      <c r="A19" s="94">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="57">
         <v>0.33333333333333398</v>
       </c>
-      <c r="B19" s="95" t="str">
+      <c r="B19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!A10="","",_zhongleng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="C19" s="95" t="str">
+      <c r="C19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!B10="","",_zhongleng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="D19" s="95" t="str">
+      <c r="D19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!C10="","",_zhongleng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="E19" s="95" t="str">
+      <c r="E19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!D10="","",_zhongleng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="F19" s="95" t="str">
+      <c r="F19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!E10="","",_zhongleng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="G19" s="95" t="str">
+      <c r="G19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!F10="","",_zhongleng_day_hour!F10/1000)</f>
         <v/>
       </c>
-      <c r="H19" s="95" t="str">
+      <c r="H19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!G10="","",_zhongleng_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="I19" s="95" t="str">
+      <c r="I19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!H10="","",_zhongleng_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="J19" s="95" t="str">
+      <c r="J19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!I10="","",_zhongleng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="K19" s="95" t="str">
+      <c r="K19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!J10="","",_zhongleng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L19" s="95" t="str">
+      <c r="L19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!K10="","",_zhongleng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="M19" s="95" t="str">
+      <c r="M19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!L10="","",_zhongleng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="N19" s="95" t="str">
+      <c r="N19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!M10="","",_zhongleng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="O19" s="95" t="str">
+      <c r="O19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!N10="","",_zhongleng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="P19" s="95" t="str">
+      <c r="P19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!O10="","",_zhongleng_day_hour!O10/1000)</f>
         <v/>
       </c>
-      <c r="Q19" s="95" t="str">
+      <c r="Q19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!P10="","",_zhongleng_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="R19" s="95" t="str">
+      <c r="R19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!Q10="","",_zhongleng_day_hour!Q10/1000)</f>
         <v/>
       </c>
-      <c r="S19" s="95" t="str">
+      <c r="S19" s="58" t="str">
         <f>IF(_zhongleng_day_hour!R10="","",_zhongleng_day_hour!R10/1000)</f>
         <v/>
       </c>
-      <c r="T19" s="96" t="str">
+      <c r="T19" s="59" t="str">
         <f>IF(_zhongleng_day_hour!S10="","",_zhongleng_day_hour!S10/1000)</f>
         <v/>
       </c>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="93"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="20">
-      <c r="A20" s="71">
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="41">
         <v>0.375</v>
       </c>
-      <c r="B20" s="72" t="str">
+      <c r="B20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A11="","",_zhongleng_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="C20" s="72" t="str">
+      <c r="C20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B11="","",_zhongleng_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="D20" s="72" t="str">
+      <c r="D20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C11="","",_zhongleng_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="E20" s="72" t="str">
+      <c r="E20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D11="","",_zhongleng_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="F20" s="72" t="str">
+      <c r="F20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E11="","",_zhongleng_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="G20" s="72" t="str">
+      <c r="G20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F11="","",_zhongleng_day_hour!F11/1000)</f>
         <v/>
       </c>
-      <c r="H20" s="72" t="str">
+      <c r="H20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G11="","",_zhongleng_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="I20" s="72" t="str">
+      <c r="I20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H11="","",_zhongleng_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="J20" s="72" t="str">
+      <c r="J20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I11="","",_zhongleng_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="K20" s="72" t="str">
+      <c r="K20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J11="","",_zhongleng_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="L20" s="72" t="str">
+      <c r="L20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K11="","",_zhongleng_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="M20" s="72" t="str">
+      <c r="M20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L11="","",_zhongleng_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="N20" s="72" t="str">
+      <c r="N20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M11="","",_zhongleng_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="O20" s="72" t="str">
+      <c r="O20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N11="","",_zhongleng_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="P20" s="72" t="str">
+      <c r="P20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O11="","",_zhongleng_day_hour!O11/1000)</f>
         <v/>
       </c>
-      <c r="Q20" s="72" t="str">
+      <c r="Q20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P11="","",_zhongleng_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="R20" s="72" t="str">
+      <c r="R20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q11="","",_zhongleng_day_hour!Q11/1000)</f>
         <v/>
       </c>
-      <c r="S20" s="72" t="str">
+      <c r="S20" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R11="","",_zhongleng_day_hour!R11/1000)</f>
         <v/>
       </c>
-      <c r="T20" s="73" t="str">
+      <c r="T20" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S11="","",_zhongleng_day_hour!S11/1000)</f>
         <v/>
       </c>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="93"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="21">
-      <c r="A21" s="71">
+    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="41">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B21" s="72" t="str">
+      <c r="B21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A12="","",_zhongleng_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="C21" s="72" t="str">
+      <c r="C21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B12="","",_zhongleng_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="D21" s="72" t="str">
+      <c r="D21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C12="","",_zhongleng_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="E21" s="72" t="str">
+      <c r="E21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D12="","",_zhongleng_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="F21" s="72" t="str">
+      <c r="F21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E12="","",_zhongleng_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="G21" s="72" t="str">
+      <c r="G21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F12="","",_zhongleng_day_hour!F12/1000)</f>
         <v/>
       </c>
-      <c r="H21" s="72" t="str">
+      <c r="H21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G12="","",_zhongleng_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="I21" s="72" t="str">
+      <c r="I21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H12="","",_zhongleng_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="J21" s="72" t="str">
+      <c r="J21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I12="","",_zhongleng_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="K21" s="72" t="str">
+      <c r="K21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J12="","",_zhongleng_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="L21" s="72" t="str">
+      <c r="L21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K12="","",_zhongleng_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="M21" s="72" t="str">
+      <c r="M21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L12="","",_zhongleng_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="N21" s="72" t="str">
+      <c r="N21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M12="","",_zhongleng_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="O21" s="72" t="str">
+      <c r="O21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N12="","",_zhongleng_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="P21" s="72" t="str">
+      <c r="P21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O12="","",_zhongleng_day_hour!O12/1000)</f>
         <v/>
       </c>
-      <c r="Q21" s="72" t="str">
+      <c r="Q21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P12="","",_zhongleng_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="R21" s="72" t="str">
+      <c r="R21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q12="","",_zhongleng_day_hour!Q12/1000)</f>
         <v/>
       </c>
-      <c r="S21" s="72" t="str">
+      <c r="S21" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R12="","",_zhongleng_day_hour!R12/1000)</f>
         <v/>
       </c>
-      <c r="T21" s="73" t="str">
+      <c r="T21" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S12="","",_zhongleng_day_hour!S12/1000)</f>
         <v/>
       </c>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="93"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="22">
-      <c r="A22" s="71">
+    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="41">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B22" s="72" t="str">
+      <c r="B22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A13="","",_zhongleng_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="C22" s="72" t="str">
+      <c r="C22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B13="","",_zhongleng_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="D22" s="72" t="str">
+      <c r="D22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C13="","",_zhongleng_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="E22" s="72" t="str">
+      <c r="E22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D13="","",_zhongleng_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="F22" s="72" t="str">
+      <c r="F22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E13="","",_zhongleng_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="G22" s="72" t="str">
+      <c r="G22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F13="","",_zhongleng_day_hour!F13/1000)</f>
         <v/>
       </c>
-      <c r="H22" s="72" t="str">
+      <c r="H22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G13="","",_zhongleng_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="I22" s="72" t="str">
+      <c r="I22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H13="","",_zhongleng_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="J22" s="72" t="str">
+      <c r="J22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I13="","",_zhongleng_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="K22" s="72" t="str">
+      <c r="K22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J13="","",_zhongleng_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="L22" s="72" t="str">
+      <c r="L22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K13="","",_zhongleng_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="M22" s="72" t="str">
+      <c r="M22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L13="","",_zhongleng_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="N22" s="72" t="str">
+      <c r="N22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M13="","",_zhongleng_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="O22" s="72" t="str">
+      <c r="O22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N13="","",_zhongleng_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="P22" s="72" t="str">
+      <c r="P22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O13="","",_zhongleng_day_hour!O13/1000)</f>
         <v/>
       </c>
-      <c r="Q22" s="72" t="str">
+      <c r="Q22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P13="","",_zhongleng_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="R22" s="72" t="str">
+      <c r="R22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q13="","",_zhongleng_day_hour!Q13/1000)</f>
         <v/>
       </c>
-      <c r="S22" s="72" t="str">
+      <c r="S22" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R13="","",_zhongleng_day_hour!R13/1000)</f>
         <v/>
       </c>
-      <c r="T22" s="73" t="str">
+      <c r="T22" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S13="","",_zhongleng_day_hour!S13/1000)</f>
         <v/>
       </c>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="93"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="23">
-      <c r="A23" s="71">
+    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="41">
         <v>0.5</v>
       </c>
-      <c r="B23" s="72" t="str">
+      <c r="B23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A14="","",_zhongleng_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="C23" s="72" t="str">
+      <c r="C23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B14="","",_zhongleng_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="D23" s="72" t="str">
+      <c r="D23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C14="","",_zhongleng_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="E23" s="72" t="str">
+      <c r="E23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D14="","",_zhongleng_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="F23" s="72" t="str">
+      <c r="F23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E14="","",_zhongleng_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="G23" s="72" t="str">
+      <c r="G23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F14="","",_zhongleng_day_hour!F14/1000)</f>
         <v/>
       </c>
-      <c r="H23" s="72" t="str">
+      <c r="H23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G14="","",_zhongleng_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="I23" s="72" t="str">
+      <c r="I23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H14="","",_zhongleng_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="J23" s="72" t="str">
+      <c r="J23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I14="","",_zhongleng_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="K23" s="72" t="str">
+      <c r="K23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J14="","",_zhongleng_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="L23" s="72" t="str">
+      <c r="L23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K14="","",_zhongleng_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="M23" s="72" t="str">
+      <c r="M23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L14="","",_zhongleng_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="N23" s="72" t="str">
+      <c r="N23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M14="","",_zhongleng_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="O23" s="72" t="str">
+      <c r="O23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N14="","",_zhongleng_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="P23" s="72" t="str">
+      <c r="P23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O14="","",_zhongleng_day_hour!O14/1000)</f>
         <v/>
       </c>
-      <c r="Q23" s="72" t="str">
+      <c r="Q23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P14="","",_zhongleng_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="R23" s="72" t="str">
+      <c r="R23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q14="","",_zhongleng_day_hour!Q14/1000)</f>
         <v/>
       </c>
-      <c r="S23" s="72" t="str">
+      <c r="S23" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R14="","",_zhongleng_day_hour!R14/1000)</f>
         <v/>
       </c>
-      <c r="T23" s="73" t="str">
+      <c r="T23" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S14="","",_zhongleng_day_hour!S14/1000)</f>
         <v/>
       </c>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="93"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="24">
-      <c r="A24" s="71">
+    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="41">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B24" s="72" t="str">
+      <c r="B24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A15="","",_zhongleng_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="C24" s="72" t="str">
+      <c r="C24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B15="","",_zhongleng_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="D24" s="72" t="str">
+      <c r="D24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C15="","",_zhongleng_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="E24" s="72" t="str">
+      <c r="E24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D15="","",_zhongleng_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="F24" s="72" t="str">
+      <c r="F24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E15="","",_zhongleng_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="G24" s="72" t="str">
+      <c r="G24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F15="","",_zhongleng_day_hour!F15/1000)</f>
         <v/>
       </c>
-      <c r="H24" s="72" t="str">
+      <c r="H24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G15="","",_zhongleng_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="I24" s="72" t="str">
+      <c r="I24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H15="","",_zhongleng_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="J24" s="72" t="str">
+      <c r="J24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I15="","",_zhongleng_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="K24" s="72" t="str">
+      <c r="K24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J15="","",_zhongleng_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="L24" s="72" t="str">
+      <c r="L24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K15="","",_zhongleng_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="M24" s="72" t="str">
+      <c r="M24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L15="","",_zhongleng_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="N24" s="72" t="str">
+      <c r="N24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M15="","",_zhongleng_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="O24" s="72" t="str">
+      <c r="O24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N15="","",_zhongleng_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="P24" s="72" t="str">
+      <c r="P24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O15="","",_zhongleng_day_hour!O15/1000)</f>
         <v/>
       </c>
-      <c r="Q24" s="72" t="str">
+      <c r="Q24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P15="","",_zhongleng_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="R24" s="72" t="str">
+      <c r="R24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q15="","",_zhongleng_day_hour!Q15/1000)</f>
         <v/>
       </c>
-      <c r="S24" s="72" t="str">
+      <c r="S24" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R15="","",_zhongleng_day_hour!R15/1000)</f>
         <v/>
       </c>
-      <c r="T24" s="73" t="str">
+      <c r="T24" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S15="","",_zhongleng_day_hour!S15/1000)</f>
         <v/>
       </c>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="93"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="25">
-      <c r="A25" s="71">
+    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="41">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B25" s="72" t="str">
+      <c r="B25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!A16="","",_zhongleng_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="C25" s="72" t="str">
+      <c r="C25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!B16="","",_zhongleng_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="D25" s="72" t="str">
+      <c r="D25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!C16="","",_zhongleng_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="E25" s="72" t="str">
+      <c r="E25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!D16="","",_zhongleng_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="F25" s="72" t="str">
+      <c r="F25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!E16="","",_zhongleng_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="G25" s="72" t="str">
+      <c r="G25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!F16="","",_zhongleng_day_hour!F16/1000)</f>
         <v/>
       </c>
-      <c r="H25" s="72" t="str">
+      <c r="H25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!G16="","",_zhongleng_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="I25" s="72" t="str">
+      <c r="I25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!H16="","",_zhongleng_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="J25" s="72" t="str">
+      <c r="J25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!I16="","",_zhongleng_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="K25" s="72" t="str">
+      <c r="K25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!J16="","",_zhongleng_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="L25" s="72" t="str">
+      <c r="L25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!K16="","",_zhongleng_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="M25" s="72" t="str">
+      <c r="M25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!L16="","",_zhongleng_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="N25" s="72" t="str">
+      <c r="N25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!M16="","",_zhongleng_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="O25" s="72" t="str">
+      <c r="O25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!N16="","",_zhongleng_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="P25" s="72" t="str">
+      <c r="P25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!O16="","",_zhongleng_day_hour!O16/1000)</f>
         <v/>
       </c>
-      <c r="Q25" s="72" t="str">
+      <c r="Q25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!P16="","",_zhongleng_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="R25" s="72" t="str">
+      <c r="R25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!Q16="","",_zhongleng_day_hour!Q16/1000)</f>
         <v/>
       </c>
-      <c r="S25" s="72" t="str">
+      <c r="S25" s="42" t="str">
         <f>IF(_zhongleng_day_hour!R16="","",_zhongleng_day_hour!R16/1000)</f>
         <v/>
       </c>
-      <c r="T25" s="73" t="str">
+      <c r="T25" s="43" t="str">
         <f>IF(_zhongleng_day_hour!S16="","",_zhongleng_day_hour!S16/1000)</f>
         <v/>
       </c>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="93"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="26">
-      <c r="A26" s="97">
+    <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="60">
         <v>0.625</v>
       </c>
-      <c r="B26" s="98" t="str">
+      <c r="B26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!A17="","",_zhongleng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="C26" s="98" t="str">
+      <c r="C26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!B17="","",_zhongleng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="D26" s="98" t="str">
+      <c r="D26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!C17="","",_zhongleng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="E26" s="98" t="str">
+      <c r="E26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!D17="","",_zhongleng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="F26" s="98" t="str">
+      <c r="F26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!E17="","",_zhongleng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="G26" s="98" t="str">
+      <c r="G26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!F17="","",_zhongleng_day_hour!F17/1000)</f>
         <v/>
       </c>
-      <c r="H26" s="98" t="str">
+      <c r="H26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!G17="","",_zhongleng_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="I26" s="98" t="str">
+      <c r="I26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!H17="","",_zhongleng_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="J26" s="98" t="str">
+      <c r="J26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!I17="","",_zhongleng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="K26" s="98" t="str">
+      <c r="K26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!J17="","",_zhongleng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L26" s="98" t="str">
+      <c r="L26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!K17="","",_zhongleng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="M26" s="98" t="str">
+      <c r="M26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!L17="","",_zhongleng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="N26" s="98" t="str">
+      <c r="N26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!M17="","",_zhongleng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="O26" s="98" t="str">
+      <c r="O26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!N17="","",_zhongleng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="P26" s="98" t="str">
+      <c r="P26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!O17="","",_zhongleng_day_hour!O17/1000)</f>
         <v/>
       </c>
-      <c r="Q26" s="98" t="str">
+      <c r="Q26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!P17="","",_zhongleng_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="R26" s="98" t="str">
+      <c r="R26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!Q17="","",_zhongleng_day_hour!Q17/1000)</f>
         <v/>
       </c>
-      <c r="S26" s="98" t="str">
+      <c r="S26" s="61" t="str">
         <f>IF(_zhongleng_day_hour!R17="","",_zhongleng_day_hour!R17/1000)</f>
         <v/>
       </c>
-      <c r="T26" s="99" t="str">
+      <c r="T26" s="62" t="str">
         <f>IF(_zhongleng_day_hour!S17="","",_zhongleng_day_hour!S17/1000)</f>
         <v/>
       </c>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="93"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="27">
-      <c r="A27" s="94">
+    <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="57">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="100" t="str">
+      <c r="B27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!A18="","",_zhongleng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C27" s="100" t="str">
+      <c r="C27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!B18="","",_zhongleng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D27" s="100" t="str">
+      <c r="D27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!C18="","",_zhongleng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E27" s="100" t="str">
+      <c r="E27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!D18="","",_zhongleng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F27" s="100" t="str">
+      <c r="F27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!E18="","",_zhongleng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G27" s="100" t="str">
+      <c r="G27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!F18="","",_zhongleng_day_hour!F18/1000)</f>
         <v/>
       </c>
-      <c r="H27" s="100" t="str">
+      <c r="H27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!G18="","",_zhongleng_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="I27" s="100" t="str">
+      <c r="I27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!H18="","",_zhongleng_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="J27" s="100" t="str">
+      <c r="J27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!I18="","",_zhongleng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K27" s="100" t="str">
+      <c r="K27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!J18="","",_zhongleng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L27" s="100" t="str">
+      <c r="L27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!K18="","",_zhongleng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M27" s="100" t="str">
+      <c r="M27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!L18="","",_zhongleng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N27" s="100" t="str">
+      <c r="N27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!M18="","",_zhongleng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O27" s="100" t="str">
+      <c r="O27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!N18="","",_zhongleng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P27" s="100" t="str">
+      <c r="P27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!O18="","",_zhongleng_day_hour!O18/1000)</f>
         <v/>
       </c>
-      <c r="Q27" s="100" t="str">
+      <c r="Q27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!P18="","",_zhongleng_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="R27" s="100" t="str">
+      <c r="R27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!Q18="","",_zhongleng_day_hour!Q18/1000)</f>
         <v/>
       </c>
-      <c r="S27" s="100" t="str">
+      <c r="S27" s="63" t="str">
         <f>IF(_zhongleng_day_hour!R18="","",_zhongleng_day_hour!R18/1000)</f>
         <v/>
       </c>
-      <c r="T27" s="101" t="str">
+      <c r="T27" s="64" t="str">
         <f>IF(_zhongleng_day_hour!S18="","",_zhongleng_day_hour!S18/1000)</f>
         <v/>
       </c>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="93"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="28">
-      <c r="A28" s="71">
+    <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="41">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B28" s="102" t="str">
+      <c r="B28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A19="","",_zhongleng_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="C28" s="102" t="str">
+      <c r="C28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B19="","",_zhongleng_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="D28" s="102" t="str">
+      <c r="D28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C19="","",_zhongleng_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="E28" s="102" t="str">
+      <c r="E28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D19="","",_zhongleng_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="F28" s="102" t="str">
+      <c r="F28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E19="","",_zhongleng_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="G28" s="102" t="str">
+      <c r="G28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F19="","",_zhongleng_day_hour!F19/1000)</f>
         <v/>
       </c>
-      <c r="H28" s="102" t="str">
+      <c r="H28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G19="","",_zhongleng_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="I28" s="102" t="str">
+      <c r="I28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H19="","",_zhongleng_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="J28" s="102" t="str">
+      <c r="J28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I19="","",_zhongleng_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="K28" s="102" t="str">
+      <c r="K28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J19="","",_zhongleng_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="L28" s="102" t="str">
+      <c r="L28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K19="","",_zhongleng_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="M28" s="102" t="str">
+      <c r="M28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L19="","",_zhongleng_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="N28" s="102" t="str">
+      <c r="N28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M19="","",_zhongleng_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="O28" s="102" t="str">
+      <c r="O28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N19="","",_zhongleng_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="P28" s="102" t="str">
+      <c r="P28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O19="","",_zhongleng_day_hour!O19/1000)</f>
         <v/>
       </c>
-      <c r="Q28" s="102" t="str">
+      <c r="Q28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P19="","",_zhongleng_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="R28" s="102" t="str">
+      <c r="R28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q19="","",_zhongleng_day_hour!Q19/1000)</f>
         <v/>
       </c>
-      <c r="S28" s="102" t="str">
+      <c r="S28" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R19="","",_zhongleng_day_hour!R19/1000)</f>
         <v/>
       </c>
-      <c r="T28" s="103" t="str">
+      <c r="T28" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S19="","",_zhongleng_day_hour!S19/1000)</f>
         <v/>
       </c>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="93"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="29">
-      <c r="A29" s="71">
+    <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="41">
         <v>0.75</v>
       </c>
-      <c r="B29" s="102" t="str">
+      <c r="B29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A20="","",_zhongleng_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="C29" s="102" t="str">
+      <c r="C29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B20="","",_zhongleng_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="D29" s="102" t="str">
+      <c r="D29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C20="","",_zhongleng_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="E29" s="102" t="str">
+      <c r="E29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D20="","",_zhongleng_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="F29" s="102" t="str">
+      <c r="F29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E20="","",_zhongleng_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="G29" s="102" t="str">
+      <c r="G29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F20="","",_zhongleng_day_hour!F20/1000)</f>
         <v/>
       </c>
-      <c r="H29" s="102" t="str">
+      <c r="H29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G20="","",_zhongleng_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="I29" s="102" t="str">
+      <c r="I29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H20="","",_zhongleng_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="J29" s="102" t="str">
+      <c r="J29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I20="","",_zhongleng_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="K29" s="102" t="str">
+      <c r="K29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J20="","",_zhongleng_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="L29" s="102" t="str">
+      <c r="L29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K20="","",_zhongleng_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="M29" s="102" t="str">
+      <c r="M29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L20="","",_zhongleng_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="N29" s="102" t="str">
+      <c r="N29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M20="","",_zhongleng_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="O29" s="102" t="str">
+      <c r="O29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N20="","",_zhongleng_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="P29" s="102" t="str">
+      <c r="P29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O20="","",_zhongleng_day_hour!O20/1000)</f>
         <v/>
       </c>
-      <c r="Q29" s="102" t="str">
+      <c r="Q29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P20="","",_zhongleng_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="R29" s="102" t="str">
+      <c r="R29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q20="","",_zhongleng_day_hour!Q20/1000)</f>
         <v/>
       </c>
-      <c r="S29" s="102" t="str">
+      <c r="S29" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R20="","",_zhongleng_day_hour!R20/1000)</f>
         <v/>
       </c>
-      <c r="T29" s="103" t="str">
+      <c r="T29" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S20="","",_zhongleng_day_hour!S20/1000)</f>
         <v/>
       </c>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="93"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="30">
-      <c r="A30" s="71">
+    <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="41">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B30" s="102" t="str">
+      <c r="B30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A21="","",_zhongleng_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="C30" s="102" t="str">
+      <c r="C30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B21="","",_zhongleng_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="D30" s="102" t="str">
+      <c r="D30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C21="","",_zhongleng_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="E30" s="102" t="str">
+      <c r="E30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D21="","",_zhongleng_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="F30" s="102" t="str">
+      <c r="F30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E21="","",_zhongleng_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="G30" s="102" t="str">
+      <c r="G30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F21="","",_zhongleng_day_hour!F21/1000)</f>
         <v/>
       </c>
-      <c r="H30" s="102" t="str">
+      <c r="H30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G21="","",_zhongleng_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="I30" s="102" t="str">
+      <c r="I30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H21="","",_zhongleng_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="J30" s="102" t="str">
+      <c r="J30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I21="","",_zhongleng_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="K30" s="102" t="str">
+      <c r="K30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J21="","",_zhongleng_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="L30" s="102" t="str">
+      <c r="L30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K21="","",_zhongleng_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="M30" s="102" t="str">
+      <c r="M30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L21="","",_zhongleng_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="N30" s="102" t="str">
+      <c r="N30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M21="","",_zhongleng_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="O30" s="102" t="str">
+      <c r="O30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N21="","",_zhongleng_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="P30" s="102" t="str">
+      <c r="P30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O21="","",_zhongleng_day_hour!O21/1000)</f>
         <v/>
       </c>
-      <c r="Q30" s="102" t="str">
+      <c r="Q30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P21="","",_zhongleng_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="R30" s="102" t="str">
+      <c r="R30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q21="","",_zhongleng_day_hour!Q21/1000)</f>
         <v/>
       </c>
-      <c r="S30" s="102" t="str">
+      <c r="S30" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R21="","",_zhongleng_day_hour!R21/1000)</f>
         <v/>
       </c>
-      <c r="T30" s="103" t="str">
+      <c r="T30" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S21="","",_zhongleng_day_hour!S21/1000)</f>
         <v/>
       </c>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="93"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="31">
-      <c r="A31" s="71">
+    <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="41">
         <v>0.83333333333333404</v>
       </c>
-      <c r="B31" s="102" t="str">
+      <c r="B31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A22="","",_zhongleng_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="C31" s="102" t="str">
+      <c r="C31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B22="","",_zhongleng_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="D31" s="102" t="str">
+      <c r="D31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C22="","",_zhongleng_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="E31" s="102" t="str">
+      <c r="E31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D22="","",_zhongleng_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="F31" s="102" t="str">
+      <c r="F31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E22="","",_zhongleng_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="G31" s="102" t="str">
+      <c r="G31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F22="","",_zhongleng_day_hour!F22/1000)</f>
         <v/>
       </c>
-      <c r="H31" s="102" t="str">
+      <c r="H31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G22="","",_zhongleng_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="I31" s="102" t="str">
+      <c r="I31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H22="","",_zhongleng_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="J31" s="102" t="str">
+      <c r="J31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I22="","",_zhongleng_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="K31" s="102" t="str">
+      <c r="K31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J22="","",_zhongleng_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="L31" s="102" t="str">
+      <c r="L31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K22="","",_zhongleng_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="M31" s="102" t="str">
+      <c r="M31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L22="","",_zhongleng_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="N31" s="102" t="str">
+      <c r="N31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M22="","",_zhongleng_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="O31" s="102" t="str">
+      <c r="O31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N22="","",_zhongleng_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="P31" s="102" t="str">
+      <c r="P31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O22="","",_zhongleng_day_hour!O22/1000)</f>
         <v/>
       </c>
-      <c r="Q31" s="102" t="str">
+      <c r="Q31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P22="","",_zhongleng_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="R31" s="102" t="str">
+      <c r="R31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q22="","",_zhongleng_day_hour!Q22/1000)</f>
         <v/>
       </c>
-      <c r="S31" s="102" t="str">
+      <c r="S31" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R22="","",_zhongleng_day_hour!R22/1000)</f>
         <v/>
       </c>
-      <c r="T31" s="103" t="str">
+      <c r="T31" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S22="","",_zhongleng_day_hour!S22/1000)</f>
         <v/>
       </c>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="93"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="32">
-      <c r="A32" s="71">
+    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="41">
         <v>0.875</v>
       </c>
-      <c r="B32" s="102" t="str">
+      <c r="B32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A23="","",_zhongleng_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="C32" s="102" t="str">
+      <c r="C32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B23="","",_zhongleng_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="D32" s="102" t="str">
+      <c r="D32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C23="","",_zhongleng_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="E32" s="102" t="str">
+      <c r="E32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D23="","",_zhongleng_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="F32" s="102" t="str">
+      <c r="F32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E23="","",_zhongleng_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="G32" s="102" t="str">
+      <c r="G32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F23="","",_zhongleng_day_hour!F23/1000)</f>
         <v/>
       </c>
-      <c r="H32" s="102" t="str">
+      <c r="H32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G23="","",_zhongleng_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="I32" s="102" t="str">
+      <c r="I32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H23="","",_zhongleng_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="J32" s="102" t="str">
+      <c r="J32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I23="","",_zhongleng_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="K32" s="102" t="str">
+      <c r="K32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J23="","",_zhongleng_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="L32" s="102" t="str">
+      <c r="L32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K23="","",_zhongleng_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="M32" s="102" t="str">
+      <c r="M32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L23="","",_zhongleng_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="N32" s="102" t="str">
+      <c r="N32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M23="","",_zhongleng_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="O32" s="102" t="str">
+      <c r="O32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N23="","",_zhongleng_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="P32" s="102" t="str">
+      <c r="P32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O23="","",_zhongleng_day_hour!O23/1000)</f>
         <v/>
       </c>
-      <c r="Q32" s="102" t="str">
+      <c r="Q32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P23="","",_zhongleng_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="R32" s="102" t="str">
+      <c r="R32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q23="","",_zhongleng_day_hour!Q23/1000)</f>
         <v/>
       </c>
-      <c r="S32" s="102" t="str">
+      <c r="S32" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R23="","",_zhongleng_day_hour!R23/1000)</f>
         <v/>
       </c>
-      <c r="T32" s="103" t="str">
+      <c r="T32" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S23="","",_zhongleng_day_hour!S23/1000)</f>
         <v/>
       </c>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="93"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="33">
-      <c r="A33" s="71">
+    <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="41">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B33" s="102" t="str">
+      <c r="B33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A24="","",_zhongleng_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="C33" s="102" t="str">
+      <c r="C33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B24="","",_zhongleng_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="D33" s="102" t="str">
+      <c r="D33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C24="","",_zhongleng_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="E33" s="102" t="str">
+      <c r="E33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D24="","",_zhongleng_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="F33" s="102" t="str">
+      <c r="F33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E24="","",_zhongleng_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="G33" s="102" t="str">
+      <c r="G33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F24="","",_zhongleng_day_hour!F24/1000)</f>
         <v/>
       </c>
-      <c r="H33" s="102" t="str">
+      <c r="H33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G24="","",_zhongleng_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="I33" s="102" t="str">
+      <c r="I33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H24="","",_zhongleng_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="J33" s="102" t="str">
+      <c r="J33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I24="","",_zhongleng_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="K33" s="102" t="str">
+      <c r="K33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J24="","",_zhongleng_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="L33" s="102" t="str">
+      <c r="L33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K24="","",_zhongleng_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="M33" s="102" t="str">
+      <c r="M33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L24="","",_zhongleng_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="N33" s="102" t="str">
+      <c r="N33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M24="","",_zhongleng_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="O33" s="102" t="str">
+      <c r="O33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N24="","",_zhongleng_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="P33" s="102" t="str">
+      <c r="P33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O24="","",_zhongleng_day_hour!O24/1000)</f>
         <v/>
       </c>
-      <c r="Q33" s="102" t="str">
+      <c r="Q33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P24="","",_zhongleng_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="R33" s="102" t="str">
+      <c r="R33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q24="","",_zhongleng_day_hour!Q24/1000)</f>
         <v/>
       </c>
-      <c r="S33" s="102" t="str">
+      <c r="S33" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R24="","",_zhongleng_day_hour!R24/1000)</f>
         <v/>
       </c>
-      <c r="T33" s="103" t="str">
+      <c r="T33" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S24="","",_zhongleng_day_hour!S24/1000)</f>
         <v/>
       </c>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="93"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="34">
-      <c r="A34" s="71">
+    <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="41">
         <v>0.95833333333333404</v>
       </c>
-      <c r="B34" s="102" t="str">
+      <c r="B34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!A25="","",_zhongleng_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="C34" s="102" t="str">
+      <c r="C34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!B25="","",_zhongleng_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="D34" s="102" t="str">
+      <c r="D34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!C25="","",_zhongleng_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="E34" s="102" t="str">
+      <c r="E34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!D25="","",_zhongleng_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="F34" s="102" t="str">
+      <c r="F34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!E25="","",_zhongleng_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="G34" s="102" t="str">
+      <c r="G34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!F25="","",_zhongleng_day_hour!F25/1000)</f>
         <v/>
       </c>
-      <c r="H34" s="102" t="str">
+      <c r="H34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!G25="","",_zhongleng_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="I34" s="102" t="str">
+      <c r="I34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!H25="","",_zhongleng_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="J34" s="102" t="str">
+      <c r="J34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!I25="","",_zhongleng_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="K34" s="102" t="str">
+      <c r="K34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!J25="","",_zhongleng_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="L34" s="102" t="str">
+      <c r="L34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!K25="","",_zhongleng_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="M34" s="102" t="str">
+      <c r="M34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!L25="","",_zhongleng_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="N34" s="102" t="str">
+      <c r="N34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!M25="","",_zhongleng_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="O34" s="102" t="str">
+      <c r="O34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!N25="","",_zhongleng_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="P34" s="102" t="str">
+      <c r="P34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!O25="","",_zhongleng_day_hour!O25/1000)</f>
         <v/>
       </c>
-      <c r="Q34" s="102" t="str">
+      <c r="Q34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!P25="","",_zhongleng_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="R34" s="102" t="str">
+      <c r="R34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!Q25="","",_zhongleng_day_hour!Q25/1000)</f>
         <v/>
       </c>
-      <c r="S34" s="102" t="str">
+      <c r="S34" s="65" t="str">
         <f>IF(_zhongleng_day_hour!R25="","",_zhongleng_day_hour!R25/1000)</f>
         <v/>
       </c>
-      <c r="T34" s="103" t="str">
+      <c r="T34" s="66" t="str">
         <f>IF(_zhongleng_day_hour!S25="","",_zhongleng_day_hour!S25/1000)</f>
         <v/>
       </c>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="93"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="112"/>
     </row>
-    <row ht="20" customHeight="1" r="35">
-      <c r="A35" s="104" t="s">
+    <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="105" t="str">
-        <f>IFERROR(AVERAGE(B11:B34),"")</f>
-        <v/>
-      </c>
-      <c r="C35" s="105" t="str">
-        <f>IFERROR(AVERAGE(C11:C34),"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="105" t="str">
-        <f>IFERROR(AVERAGE(D11:D34),"")</f>
-        <v/>
-      </c>
-      <c r="E35" s="105" t="str">
-        <f>IFERROR(AVERAGE(E11:E34),"")</f>
-        <v/>
-      </c>
-      <c r="F35" s="105" t="str">
-        <f>IFERROR(AVERAGE(F11:F34),"")</f>
-        <v/>
-      </c>
-      <c r="G35" s="105" t="str">
-        <f>IFERROR(AVERAGE(G11:G34),"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="105" t="str">
-        <f>IFERROR(AVERAGE(H11:H34),"")</f>
-        <v/>
-      </c>
-      <c r="I35" s="105" t="str">
-        <f>IFERROR(AVERAGE(I11:I34),"")</f>
-        <v/>
-      </c>
-      <c r="J35" s="105" t="str">
-        <f>IFERROR(AVERAGE(J11:J34),"")</f>
-        <v/>
-      </c>
-      <c r="K35" s="105" t="str">
-        <f>IFERROR(AVERAGE(K11:K34),"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="105" t="str">
-        <f>IFERROR(AVERAGE(L11:L34),"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="105" t="str">
-        <f>IFERROR(AVERAGE(M11:M34),"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="105" t="str">
-        <f>IFERROR(AVERAGE(N11:N34),"")</f>
-        <v/>
-      </c>
-      <c r="O35" s="105" t="str">
-        <f>IFERROR(AVERAGE(O11:O34),"")</f>
-        <v/>
-      </c>
-      <c r="P35" s="105" t="str">
-        <f>IFERROR(AVERAGE(P11:P34),"")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="105" t="str">
-        <f>IFERROR(AVERAGE(Q11:Q34),"")</f>
-        <v/>
-      </c>
-      <c r="R35" s="105" t="str">
-        <f>IFERROR(AVERAGE(R11:R34),"")</f>
-        <v/>
-      </c>
-      <c r="S35" s="105" t="str">
-        <f>IFERROR(AVERAGE(S11:S34),"")</f>
-        <v/>
-      </c>
-      <c r="T35" s="106" t="str">
-        <f>IFERROR(AVERAGE(T11:T34),"")</f>
-        <v/>
-      </c>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="93"/>
+      <c r="B35" s="68" t="str">
+        <f t="shared" ref="B35:T35" si="0">IFERROR(AVERAGE(B11:B34),"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="S35" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="T35" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="112"/>
     </row>
-    <row ht="107.5" customHeight="1" r="36">
-      <c r="A36" s="107" t="s">
+    <row r="36" spans="1:25" ht="107.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108" t="s">
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108" t="s">
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
+      <c r="R36" s="113"/>
+      <c r="S36" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="108"/>
-      <c r="U36" s="108"/>
-      <c r="V36" s="108"/>
-      <c r="W36" s="108"/>
-      <c r="X36" s="108"/>
-      <c r="Y36" s="109"/>
+      <c r="T36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="V36" s="113"/>
+      <c r="W36" s="113"/>
+      <c r="X36" s="113"/>
+      <c r="Y36" s="114"/>
     </row>
-    <row ht="26.25" customHeight="1" r="37">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111" t="s">
+    <row r="37" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111" t="s">
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111" t="s">
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="112"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="105"/>
+      <c r="X37" s="105"/>
+      <c r="Y37" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:Y35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="S36:Y36"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="R2:T2"/>
@@ -5882,374 +5243,364 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:Y35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="S36:Y36"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="S37:Y37"/>
   </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B11:B34">
-    <cfRule type="cellIs" priority="40" dxfId="0" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
       <formula>B$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B34">
-    <cfRule type="cellIs" priority="39" dxfId="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
       <formula>B$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" priority="36" dxfId="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" priority="35" dxfId="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" priority="34" dxfId="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" priority="33" dxfId="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E34">
-    <cfRule type="cellIs" priority="32" dxfId="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E34">
-    <cfRule type="cellIs" priority="31" dxfId="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F34">
-    <cfRule type="cellIs" priority="30" dxfId="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F34">
-    <cfRule type="cellIs" priority="29" dxfId="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G34">
-    <cfRule type="cellIs" priority="28" dxfId="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G34">
-    <cfRule type="cellIs" priority="27" dxfId="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H34">
-    <cfRule type="cellIs" priority="26" dxfId="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H34">
-    <cfRule type="cellIs" priority="25" dxfId="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I34">
-    <cfRule type="cellIs" priority="24" dxfId="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I34">
-    <cfRule type="cellIs" priority="23" dxfId="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" priority="22" dxfId="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" priority="21" dxfId="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" priority="20" dxfId="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" priority="19" dxfId="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" priority="18" dxfId="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" priority="17" dxfId="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" priority="16" dxfId="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" priority="15" dxfId="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" priority="14" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" priority="13" dxfId="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" priority="12" dxfId="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" priority="11" dxfId="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" priority="10" dxfId="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" priority="9" dxfId="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q34">
-    <cfRule type="cellIs" priority="8" dxfId="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q34">
-    <cfRule type="cellIs" priority="7" dxfId="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" priority="6" dxfId="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" priority="5" dxfId="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" priority="4" dxfId="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" priority="3" dxfId="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" priority="2" dxfId="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" priority="1" dxfId="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row ht="71.25" r="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="38" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A2" activeCellId="0" sqref="$A2:$XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>终冷洗苯</t>
   </si>
@@ -368,27 +368,6 @@
     <t>中班记事：</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                          交班：                              接班：</t>
-    </r>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -544,12 +523,126 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交班：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交班：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交班：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                              </t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +778,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1246,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1439,6 +1548,73 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1500,79 +1676,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1991,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2392,41 +2504,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="71" t="str">
+      <c r="C2" s="94" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
@@ -2439,110 +2551,110 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="74" t="s">
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="81" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="106"/>
     </row>
     <row r="4" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="110"/>
+      <c r="D4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="112"/>
+      <c r="F4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="113"/>
+      <c r="L4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91" t="s">
+      <c r="M4" s="113"/>
+      <c r="N4" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="94" t="s">
+      <c r="T4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="84"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="86"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="109"/>
     </row>
     <row r="5" spans="1:25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="80"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2555,10 +2667,10 @@
       <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
@@ -2571,29 +2683,29 @@
       <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="86"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
     </row>
     <row r="6" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
-      <c r="B6" s="95" t="s">
+      <c r="A6" s="103"/>
+      <c r="B6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
@@ -2606,14 +2718,14 @@
       <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="95" t="s">
+      <c r="K6" s="92"/>
+      <c r="L6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="96"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="7" t="s">
         <v>31</v>
       </c>
@@ -2635,10 +2747,10 @@
       <c r="T6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="98"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="12" t="s">
         <v>39</v>
       </c>
@@ -2710,10 +2822,10 @@
       <c r="T7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="99" t="s">
+      <c r="U7" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="99"/>
+      <c r="V7" s="85"/>
       <c r="W7" s="21" t="s">
         <v>39</v>
       </c>
@@ -2903,11 +3015,11 @@
       <c r="T10" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="101"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
     </row>
     <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="41">
@@ -2989,7 +3101,7 @@
         <f>IF(_zhongleng_day_hour!S2="","",_zhongleng_day_hour!S2/1000)</f>
         <v/>
       </c>
-      <c r="U11" s="102" t="s">
+      <c r="U11" s="88" t="s">
         <v>71</v>
       </c>
       <c r="V11" s="44" t="s">
@@ -3088,7 +3200,7 @@
         <f>IF(_zhongleng_day_hour!S3="","",_zhongleng_day_hour!S3/1000)</f>
         <v/>
       </c>
-      <c r="U12" s="102"/>
+      <c r="U12" s="88"/>
       <c r="V12" s="44" t="s">
         <v>73</v>
       </c>
@@ -3185,7 +3297,7 @@
         <f>IF(_zhongleng_day_hour!S4="","",_zhongleng_day_hour!S4/1000)</f>
         <v/>
       </c>
-      <c r="U13" s="102" t="s">
+      <c r="U13" s="88" t="s">
         <v>74</v>
       </c>
       <c r="V13" s="44" t="s">
@@ -3284,7 +3396,7 @@
         <f>IF(_zhongleng_day_hour!S5="","",_zhongleng_day_hour!S5/1000)</f>
         <v/>
       </c>
-      <c r="U14" s="102"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="44" t="s">
         <v>76</v>
       </c>
@@ -3381,7 +3493,7 @@
         <f>IF(_zhongleng_day_hour!S6="","",_zhongleng_day_hour!S6/1000)</f>
         <v/>
       </c>
-      <c r="U15" s="107" t="s">
+      <c r="U15" s="75" t="s">
         <v>77</v>
       </c>
       <c r="V15" s="44" t="s">
@@ -3480,7 +3592,7 @@
         <f>IF(_zhongleng_day_hour!S7="","",_zhongleng_day_hour!S7/1000)</f>
         <v/>
       </c>
-      <c r="U16" s="108"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="51" t="s">
         <v>76</v>
       </c>
@@ -3577,11 +3689,11 @@
         <f>IF(_zhongleng_day_hour!S8="","",_zhongleng_day_hour!S8/1000)</f>
         <v/>
       </c>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
-      <c r="W17" s="109"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="110"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="78"/>
     </row>
     <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="54">
@@ -3663,11 +3775,11 @@
         <f>IF(_zhongleng_day_hour!S9="","",_zhongleng_day_hour!S9/1000)</f>
         <v/>
       </c>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="112"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="80"/>
     </row>
     <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57">
@@ -3749,11 +3861,11 @@
         <f>IF(_zhongleng_day_hour!S10="","",_zhongleng_day_hour!S10/1000)</f>
         <v/>
       </c>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="112"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="80"/>
     </row>
     <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="41">
@@ -3835,11 +3947,11 @@
         <f>IF(_zhongleng_day_hour!S11="","",_zhongleng_day_hour!S11/1000)</f>
         <v/>
       </c>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="112"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="80"/>
     </row>
     <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="41">
@@ -3921,11 +4033,11 @@
         <f>IF(_zhongleng_day_hour!S12="","",_zhongleng_day_hour!S12/1000)</f>
         <v/>
       </c>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="111"/>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="112"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="80"/>
     </row>
     <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="41">
@@ -4007,11 +4119,11 @@
         <f>IF(_zhongleng_day_hour!S13="","",_zhongleng_day_hour!S13/1000)</f>
         <v/>
       </c>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="111"/>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="112"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="80"/>
     </row>
     <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41">
@@ -4093,11 +4205,11 @@
         <f>IF(_zhongleng_day_hour!S14="","",_zhongleng_day_hour!S14/1000)</f>
         <v/>
       </c>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="112"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="80"/>
     </row>
     <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41">
@@ -4179,11 +4291,11 @@
         <f>IF(_zhongleng_day_hour!S15="","",_zhongleng_day_hour!S15/1000)</f>
         <v/>
       </c>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111"/>
-      <c r="Y24" s="112"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="80"/>
     </row>
     <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41">
@@ -4265,11 +4377,11 @@
         <f>IF(_zhongleng_day_hour!S16="","",_zhongleng_day_hour!S16/1000)</f>
         <v/>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="112"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="80"/>
     </row>
     <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="60">
@@ -4351,11 +4463,11 @@
         <f>IF(_zhongleng_day_hour!S17="","",_zhongleng_day_hour!S17/1000)</f>
         <v/>
       </c>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="112"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="80"/>
     </row>
     <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57">
@@ -4437,11 +4549,11 @@
         <f>IF(_zhongleng_day_hour!S18="","",_zhongleng_day_hour!S18/1000)</f>
         <v/>
       </c>
-      <c r="U27" s="111"/>
-      <c r="V27" s="111"/>
-      <c r="W27" s="111"/>
-      <c r="X27" s="111"/>
-      <c r="Y27" s="112"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="80"/>
     </row>
     <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41">
@@ -4523,11 +4635,11 @@
         <f>IF(_zhongleng_day_hour!S19="","",_zhongleng_day_hour!S19/1000)</f>
         <v/>
       </c>
-      <c r="U28" s="111"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
-      <c r="X28" s="111"/>
-      <c r="Y28" s="112"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="80"/>
     </row>
     <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41">
@@ -4609,11 +4721,11 @@
         <f>IF(_zhongleng_day_hour!S20="","",_zhongleng_day_hour!S20/1000)</f>
         <v/>
       </c>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="112"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="80"/>
     </row>
     <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41">
@@ -4695,11 +4807,11 @@
         <f>IF(_zhongleng_day_hour!S21="","",_zhongleng_day_hour!S21/1000)</f>
         <v/>
       </c>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="112"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="80"/>
     </row>
     <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41">
@@ -4781,11 +4893,11 @@
         <f>IF(_zhongleng_day_hour!S22="","",_zhongleng_day_hour!S22/1000)</f>
         <v/>
       </c>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="112"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="80"/>
     </row>
     <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="41">
@@ -4867,11 +4979,11 @@
         <f>IF(_zhongleng_day_hour!S23="","",_zhongleng_day_hour!S23/1000)</f>
         <v/>
       </c>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="112"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="80"/>
     </row>
     <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="41">
@@ -4953,11 +5065,11 @@
         <f>IF(_zhongleng_day_hour!S24="","",_zhongleng_day_hour!S24/1000)</f>
         <v/>
       </c>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="112"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="80"/>
     </row>
     <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="41">
@@ -5039,11 +5151,11 @@
         <f>IF(_zhongleng_day_hour!S25="","",_zhongleng_day_hour!S25/1000)</f>
         <v/>
       </c>
-      <c r="U34" s="111"/>
-      <c r="V34" s="111"/>
-      <c r="W34" s="111"/>
-      <c r="X34" s="111"/>
-      <c r="Y34" s="112"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="80"/>
     </row>
     <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
@@ -5125,108 +5237,82 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="112"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="80"/>
     </row>
     <row r="36" spans="1:25" ht="107.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="103" t="s">
+      <c r="A36" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113" t="s">
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113" t="s">
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="114"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="82"/>
     </row>
     <row r="37" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="106"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="T37" s="73"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:R37"/>
-    <mergeCell ref="S37:Y37"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:Y35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="S36:Y36"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="R2:T2"/>
@@ -5243,6 +5329,32 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:R37"/>
+    <mergeCell ref="S37:Y37"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:Y35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="S36:Y36"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B11:B34">
@@ -5453,16 +5565,16 @@
   <sheetData>
     <row r="1" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>60</v>
@@ -5477,16 +5589,16 @@
         <v>63</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>64</v>
@@ -5553,23 +5665,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="115" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5704,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1">
         <v>12</v>

--- a/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-终冷洗苯报表（日）.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="6.终冷洗苯" sheetId="1" r:id="rId1"/>
-    <sheet name="_zhongleng_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
-    <sheet name="_analysis_day_shift" sheetId="4" r:id="rId4"/>
-    <sheet name="_dictionary" sheetId="5" r:id="rId5"/>
+    <sheet name="6.终冷洗苯" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_zhongleng_day_hour" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="_analysis_day_shift" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>终冷洗苯</t>
   </si>
@@ -26,7 +25,7 @@
     <t xml:space="preserve"> SGSSG-BSMCSA33-G008-01A</t>
   </si>
   <si>
-    <t>项目
+    <t xml:space="preserve">项目
 时间</t>
   </si>
   <si>
@@ -68,26 +67,23 @@
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>贫油流量m</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
+        <sz val="12"/>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -263,27 +259,26 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>塔前含苯量</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> g/m</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <sz val="12"/>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>3</t>
     </r>
@@ -291,27 +286,26 @@
   <si>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>塔后含苯量</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> g/m</t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <sz val="12"/>
         <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t>3</t>
     </r>
@@ -320,10 +314,10 @@
     <t>富油</t>
   </si>
   <si>
-    <t>含苯 ％</t>
-  </si>
-  <si>
-    <t>含水 ％</t>
+    <t xml:space="preserve">含苯 ％</t>
+  </si>
+  <si>
+    <t xml:space="preserve">含水 ％</t>
   </si>
   <si>
     <t>贫油</t>
@@ -334,26 +328,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="宋体"/>
         <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>记</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Times New Roman"/>
         <sz val="14"/>
-        <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
     </r>
     <r>
       <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t>事</t>
     </r>
@@ -366,162 +359,6 @@
   </si>
   <si>
     <t>中班记事：</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <r>
-      <t>MMJY/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/QMIR21PFY</t>
-    </r>
-  </si>
-  <si>
-    <t>MMJY/H2O/QMIR21PFY</t>
-  </si>
-  <si>
-    <r>
-      <t>MMJY/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2/QMIR21PFY</t>
-    </r>
-  </si>
-  <si>
-    <t>MMJY/H2O_2/QMIR21PFY</t>
-  </si>
-  <si>
-    <r>
-      <t>63202/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/1#-2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>焦炉苯塔前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/QMIR21MQJH</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>63202/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/1#-2#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>焦炉苯塔后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/QMIR21MQJH</t>
-    </r>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -530,36 +367,33 @@
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                        </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -568,36 +402,33 @@
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -606,193 +437,249 @@
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>交班：</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>/1#-2#</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>焦炉苯塔前</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>63202/</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>/1#-2#</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>焦炉苯塔后</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>/QMIR21MQJH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MMJY/</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>/QMIR21PFY</t>
+    </r>
+  </si>
+  <si>
+    <t>MMJY/H2O/QMIR21PFY</t>
+  </si>
+  <si>
+    <r>
+      <t>MMJY/</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>苯</t>
+    </r>
+    <r>
+      <rPr>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+        <sz val="11"/>
+      </rPr>
+      <t>_2/QMIR21PFY</t>
+    </r>
+  </si>
+  <si>
+    <t>MMJY/H2O_2/QMIR21PFY</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color indexed="2"/>
       <sz val="12"/>
-      <color indexed="2"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
       <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <name val="Times New Roman"/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
+      <name val="宋体"/>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <color theme="1"/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -800,7 +687,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1352,337 +1239,327 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="117">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="113">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="2" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="8" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="2" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="2" borderId="10" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="11" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="12" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="13" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="9" fillId="2" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="9" fillId="2" borderId="16" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="15" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="18" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="2" borderId="19" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="20" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="21" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="21" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="2" borderId="22" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="22" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="23" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="12" fillId="2" borderId="26" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="13" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="2" borderId="27" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="13" fillId="2" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="2" borderId="17" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="2" borderId="28" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="2" borderId="29" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="13" fillId="2" borderId="30" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="31" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="32" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="33" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="14" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="34" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="35" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="36" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="11" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="25" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="9" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="13" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="9" fillId="0" borderId="36" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="9" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="13" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="12" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="18" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="37" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="38" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="19" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="20" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="39" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="30" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="40" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="5" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="41" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="42" numFmtId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="16" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="43" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="6" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="7" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="9" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="13" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="19" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="21" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="0" borderId="23" numFmtId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="0" borderId="40" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="19" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="21" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="23" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1691,6 +1568,11 @@
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="38">
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -1876,23 +1758,296 @@
         <color rgb="FF00B050"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color indexed="2"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2095,3221 +2250,3220 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="B11" xSplit="1" ySplit="10"/>
+      <selection activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
-    <col min="7" max="11" width="9.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="2" customWidth="1"/>
-    <col min="13" max="17" width="9.25" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.25" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.375" style="1" customWidth="1"/>
-    <col min="23" max="25" width="9.625" style="1" customWidth="1"/>
-    <col min="26" max="252" width="8.625" style="1"/>
-    <col min="253" max="272" width="9.25" style="1" customWidth="1"/>
-    <col min="273" max="273" width="3" style="1" customWidth="1"/>
-    <col min="274" max="274" width="8" style="1" customWidth="1"/>
-    <col min="275" max="275" width="7.875" style="1" customWidth="1"/>
-    <col min="276" max="276" width="29.875" style="1" customWidth="1"/>
-    <col min="277" max="508" width="8.625" style="1"/>
-    <col min="509" max="528" width="9.25" style="1" customWidth="1"/>
-    <col min="529" max="529" width="3" style="1" customWidth="1"/>
-    <col min="530" max="530" width="8" style="1" customWidth="1"/>
-    <col min="531" max="531" width="7.875" style="1" customWidth="1"/>
-    <col min="532" max="532" width="29.875" style="1" customWidth="1"/>
-    <col min="533" max="764" width="8.625" style="1"/>
-    <col min="765" max="784" width="9.25" style="1" customWidth="1"/>
-    <col min="785" max="785" width="3" style="1" customWidth="1"/>
-    <col min="786" max="786" width="8" style="1" customWidth="1"/>
-    <col min="787" max="787" width="7.875" style="1" customWidth="1"/>
-    <col min="788" max="788" width="29.875" style="1" customWidth="1"/>
-    <col min="789" max="1020" width="8.625" style="1"/>
-    <col min="1021" max="1040" width="9.25" style="1" customWidth="1"/>
-    <col min="1041" max="1041" width="3" style="1" customWidth="1"/>
-    <col min="1042" max="1042" width="8" style="1" customWidth="1"/>
-    <col min="1043" max="1043" width="7.875" style="1" customWidth="1"/>
-    <col min="1044" max="1044" width="29.875" style="1" customWidth="1"/>
-    <col min="1045" max="1276" width="8.625" style="1"/>
-    <col min="1277" max="1296" width="9.25" style="1" customWidth="1"/>
-    <col min="1297" max="1297" width="3" style="1" customWidth="1"/>
-    <col min="1298" max="1298" width="8" style="1" customWidth="1"/>
-    <col min="1299" max="1299" width="7.875" style="1" customWidth="1"/>
-    <col min="1300" max="1300" width="29.875" style="1" customWidth="1"/>
-    <col min="1301" max="1532" width="8.625" style="1"/>
-    <col min="1533" max="1552" width="9.25" style="1" customWidth="1"/>
-    <col min="1553" max="1553" width="3" style="1" customWidth="1"/>
-    <col min="1554" max="1554" width="8" style="1" customWidth="1"/>
-    <col min="1555" max="1555" width="7.875" style="1" customWidth="1"/>
-    <col min="1556" max="1556" width="29.875" style="1" customWidth="1"/>
-    <col min="1557" max="1788" width="8.625" style="1"/>
-    <col min="1789" max="1808" width="9.25" style="1" customWidth="1"/>
-    <col min="1809" max="1809" width="3" style="1" customWidth="1"/>
-    <col min="1810" max="1810" width="8" style="1" customWidth="1"/>
-    <col min="1811" max="1811" width="7.875" style="1" customWidth="1"/>
-    <col min="1812" max="1812" width="29.875" style="1" customWidth="1"/>
-    <col min="1813" max="2044" width="8.625" style="1"/>
-    <col min="2045" max="2064" width="9.25" style="1" customWidth="1"/>
-    <col min="2065" max="2065" width="3" style="1" customWidth="1"/>
-    <col min="2066" max="2066" width="8" style="1" customWidth="1"/>
-    <col min="2067" max="2067" width="7.875" style="1" customWidth="1"/>
-    <col min="2068" max="2068" width="29.875" style="1" customWidth="1"/>
-    <col min="2069" max="2300" width="8.625" style="1"/>
-    <col min="2301" max="2320" width="9.25" style="1" customWidth="1"/>
-    <col min="2321" max="2321" width="3" style="1" customWidth="1"/>
-    <col min="2322" max="2322" width="8" style="1" customWidth="1"/>
-    <col min="2323" max="2323" width="7.875" style="1" customWidth="1"/>
-    <col min="2324" max="2324" width="29.875" style="1" customWidth="1"/>
-    <col min="2325" max="2556" width="8.625" style="1"/>
-    <col min="2557" max="2576" width="9.25" style="1" customWidth="1"/>
-    <col min="2577" max="2577" width="3" style="1" customWidth="1"/>
-    <col min="2578" max="2578" width="8" style="1" customWidth="1"/>
-    <col min="2579" max="2579" width="7.875" style="1" customWidth="1"/>
-    <col min="2580" max="2580" width="29.875" style="1" customWidth="1"/>
-    <col min="2581" max="2812" width="8.625" style="1"/>
-    <col min="2813" max="2832" width="9.25" style="1" customWidth="1"/>
-    <col min="2833" max="2833" width="3" style="1" customWidth="1"/>
-    <col min="2834" max="2834" width="8" style="1" customWidth="1"/>
-    <col min="2835" max="2835" width="7.875" style="1" customWidth="1"/>
-    <col min="2836" max="2836" width="29.875" style="1" customWidth="1"/>
-    <col min="2837" max="3068" width="8.625" style="1"/>
-    <col min="3069" max="3088" width="9.25" style="1" customWidth="1"/>
-    <col min="3089" max="3089" width="3" style="1" customWidth="1"/>
-    <col min="3090" max="3090" width="8" style="1" customWidth="1"/>
-    <col min="3091" max="3091" width="7.875" style="1" customWidth="1"/>
-    <col min="3092" max="3092" width="29.875" style="1" customWidth="1"/>
-    <col min="3093" max="3324" width="8.625" style="1"/>
-    <col min="3325" max="3344" width="9.25" style="1" customWidth="1"/>
-    <col min="3345" max="3345" width="3" style="1" customWidth="1"/>
-    <col min="3346" max="3346" width="8" style="1" customWidth="1"/>
-    <col min="3347" max="3347" width="7.875" style="1" customWidth="1"/>
-    <col min="3348" max="3348" width="29.875" style="1" customWidth="1"/>
-    <col min="3349" max="3580" width="8.625" style="1"/>
-    <col min="3581" max="3600" width="9.25" style="1" customWidth="1"/>
-    <col min="3601" max="3601" width="3" style="1" customWidth="1"/>
-    <col min="3602" max="3602" width="8" style="1" customWidth="1"/>
-    <col min="3603" max="3603" width="7.875" style="1" customWidth="1"/>
-    <col min="3604" max="3604" width="29.875" style="1" customWidth="1"/>
-    <col min="3605" max="3836" width="8.625" style="1"/>
-    <col min="3837" max="3856" width="9.25" style="1" customWidth="1"/>
-    <col min="3857" max="3857" width="3" style="1" customWidth="1"/>
-    <col min="3858" max="3858" width="8" style="1" customWidth="1"/>
-    <col min="3859" max="3859" width="7.875" style="1" customWidth="1"/>
-    <col min="3860" max="3860" width="29.875" style="1" customWidth="1"/>
-    <col min="3861" max="4092" width="8.625" style="1"/>
-    <col min="4093" max="4112" width="9.25" style="1" customWidth="1"/>
-    <col min="4113" max="4113" width="3" style="1" customWidth="1"/>
-    <col min="4114" max="4114" width="8" style="1" customWidth="1"/>
-    <col min="4115" max="4115" width="7.875" style="1" customWidth="1"/>
-    <col min="4116" max="4116" width="29.875" style="1" customWidth="1"/>
-    <col min="4117" max="4348" width="8.625" style="1"/>
-    <col min="4349" max="4368" width="9.25" style="1" customWidth="1"/>
-    <col min="4369" max="4369" width="3" style="1" customWidth="1"/>
-    <col min="4370" max="4370" width="8" style="1" customWidth="1"/>
-    <col min="4371" max="4371" width="7.875" style="1" customWidth="1"/>
-    <col min="4372" max="4372" width="29.875" style="1" customWidth="1"/>
-    <col min="4373" max="4604" width="8.625" style="1"/>
-    <col min="4605" max="4624" width="9.25" style="1" customWidth="1"/>
-    <col min="4625" max="4625" width="3" style="1" customWidth="1"/>
-    <col min="4626" max="4626" width="8" style="1" customWidth="1"/>
-    <col min="4627" max="4627" width="7.875" style="1" customWidth="1"/>
-    <col min="4628" max="4628" width="29.875" style="1" customWidth="1"/>
-    <col min="4629" max="4860" width="8.625" style="1"/>
-    <col min="4861" max="4880" width="9.25" style="1" customWidth="1"/>
-    <col min="4881" max="4881" width="3" style="1" customWidth="1"/>
-    <col min="4882" max="4882" width="8" style="1" customWidth="1"/>
-    <col min="4883" max="4883" width="7.875" style="1" customWidth="1"/>
-    <col min="4884" max="4884" width="29.875" style="1" customWidth="1"/>
-    <col min="4885" max="5116" width="8.625" style="1"/>
-    <col min="5117" max="5136" width="9.25" style="1" customWidth="1"/>
-    <col min="5137" max="5137" width="3" style="1" customWidth="1"/>
-    <col min="5138" max="5138" width="8" style="1" customWidth="1"/>
-    <col min="5139" max="5139" width="7.875" style="1" customWidth="1"/>
-    <col min="5140" max="5140" width="29.875" style="1" customWidth="1"/>
-    <col min="5141" max="5372" width="8.625" style="1"/>
-    <col min="5373" max="5392" width="9.25" style="1" customWidth="1"/>
-    <col min="5393" max="5393" width="3" style="1" customWidth="1"/>
-    <col min="5394" max="5394" width="8" style="1" customWidth="1"/>
-    <col min="5395" max="5395" width="7.875" style="1" customWidth="1"/>
-    <col min="5396" max="5396" width="29.875" style="1" customWidth="1"/>
-    <col min="5397" max="5628" width="8.625" style="1"/>
-    <col min="5629" max="5648" width="9.25" style="1" customWidth="1"/>
-    <col min="5649" max="5649" width="3" style="1" customWidth="1"/>
-    <col min="5650" max="5650" width="8" style="1" customWidth="1"/>
-    <col min="5651" max="5651" width="7.875" style="1" customWidth="1"/>
-    <col min="5652" max="5652" width="29.875" style="1" customWidth="1"/>
-    <col min="5653" max="5884" width="8.625" style="1"/>
-    <col min="5885" max="5904" width="9.25" style="1" customWidth="1"/>
-    <col min="5905" max="5905" width="3" style="1" customWidth="1"/>
-    <col min="5906" max="5906" width="8" style="1" customWidth="1"/>
-    <col min="5907" max="5907" width="7.875" style="1" customWidth="1"/>
-    <col min="5908" max="5908" width="29.875" style="1" customWidth="1"/>
-    <col min="5909" max="6140" width="8.625" style="1"/>
-    <col min="6141" max="6160" width="9.25" style="1" customWidth="1"/>
-    <col min="6161" max="6161" width="3" style="1" customWidth="1"/>
-    <col min="6162" max="6162" width="8" style="1" customWidth="1"/>
-    <col min="6163" max="6163" width="7.875" style="1" customWidth="1"/>
-    <col min="6164" max="6164" width="29.875" style="1" customWidth="1"/>
-    <col min="6165" max="6396" width="8.625" style="1"/>
-    <col min="6397" max="6416" width="9.25" style="1" customWidth="1"/>
-    <col min="6417" max="6417" width="3" style="1" customWidth="1"/>
-    <col min="6418" max="6418" width="8" style="1" customWidth="1"/>
-    <col min="6419" max="6419" width="7.875" style="1" customWidth="1"/>
-    <col min="6420" max="6420" width="29.875" style="1" customWidth="1"/>
-    <col min="6421" max="6652" width="8.625" style="1"/>
-    <col min="6653" max="6672" width="9.25" style="1" customWidth="1"/>
-    <col min="6673" max="6673" width="3" style="1" customWidth="1"/>
-    <col min="6674" max="6674" width="8" style="1" customWidth="1"/>
-    <col min="6675" max="6675" width="7.875" style="1" customWidth="1"/>
-    <col min="6676" max="6676" width="29.875" style="1" customWidth="1"/>
-    <col min="6677" max="6908" width="8.625" style="1"/>
-    <col min="6909" max="6928" width="9.25" style="1" customWidth="1"/>
-    <col min="6929" max="6929" width="3" style="1" customWidth="1"/>
-    <col min="6930" max="6930" width="8" style="1" customWidth="1"/>
-    <col min="6931" max="6931" width="7.875" style="1" customWidth="1"/>
-    <col min="6932" max="6932" width="29.875" style="1" customWidth="1"/>
-    <col min="6933" max="7164" width="8.625" style="1"/>
-    <col min="7165" max="7184" width="9.25" style="1" customWidth="1"/>
-    <col min="7185" max="7185" width="3" style="1" customWidth="1"/>
-    <col min="7186" max="7186" width="8" style="1" customWidth="1"/>
-    <col min="7187" max="7187" width="7.875" style="1" customWidth="1"/>
-    <col min="7188" max="7188" width="29.875" style="1" customWidth="1"/>
-    <col min="7189" max="7420" width="8.625" style="1"/>
-    <col min="7421" max="7440" width="9.25" style="1" customWidth="1"/>
-    <col min="7441" max="7441" width="3" style="1" customWidth="1"/>
-    <col min="7442" max="7442" width="8" style="1" customWidth="1"/>
-    <col min="7443" max="7443" width="7.875" style="1" customWidth="1"/>
-    <col min="7444" max="7444" width="29.875" style="1" customWidth="1"/>
-    <col min="7445" max="7676" width="8.625" style="1"/>
-    <col min="7677" max="7696" width="9.25" style="1" customWidth="1"/>
-    <col min="7697" max="7697" width="3" style="1" customWidth="1"/>
-    <col min="7698" max="7698" width="8" style="1" customWidth="1"/>
-    <col min="7699" max="7699" width="7.875" style="1" customWidth="1"/>
-    <col min="7700" max="7700" width="29.875" style="1" customWidth="1"/>
-    <col min="7701" max="7932" width="8.625" style="1"/>
-    <col min="7933" max="7952" width="9.25" style="1" customWidth="1"/>
-    <col min="7953" max="7953" width="3" style="1" customWidth="1"/>
-    <col min="7954" max="7954" width="8" style="1" customWidth="1"/>
-    <col min="7955" max="7955" width="7.875" style="1" customWidth="1"/>
-    <col min="7956" max="7956" width="29.875" style="1" customWidth="1"/>
-    <col min="7957" max="8188" width="8.625" style="1"/>
-    <col min="8189" max="8208" width="9.25" style="1" customWidth="1"/>
-    <col min="8209" max="8209" width="3" style="1" customWidth="1"/>
-    <col min="8210" max="8210" width="8" style="1" customWidth="1"/>
-    <col min="8211" max="8211" width="7.875" style="1" customWidth="1"/>
-    <col min="8212" max="8212" width="29.875" style="1" customWidth="1"/>
-    <col min="8213" max="8444" width="8.625" style="1"/>
-    <col min="8445" max="8464" width="9.25" style="1" customWidth="1"/>
-    <col min="8465" max="8465" width="3" style="1" customWidth="1"/>
-    <col min="8466" max="8466" width="8" style="1" customWidth="1"/>
-    <col min="8467" max="8467" width="7.875" style="1" customWidth="1"/>
-    <col min="8468" max="8468" width="29.875" style="1" customWidth="1"/>
-    <col min="8469" max="8700" width="8.625" style="1"/>
-    <col min="8701" max="8720" width="9.25" style="1" customWidth="1"/>
-    <col min="8721" max="8721" width="3" style="1" customWidth="1"/>
-    <col min="8722" max="8722" width="8" style="1" customWidth="1"/>
-    <col min="8723" max="8723" width="7.875" style="1" customWidth="1"/>
-    <col min="8724" max="8724" width="29.875" style="1" customWidth="1"/>
-    <col min="8725" max="8956" width="8.625" style="1"/>
-    <col min="8957" max="8976" width="9.25" style="1" customWidth="1"/>
-    <col min="8977" max="8977" width="3" style="1" customWidth="1"/>
-    <col min="8978" max="8978" width="8" style="1" customWidth="1"/>
-    <col min="8979" max="8979" width="7.875" style="1" customWidth="1"/>
-    <col min="8980" max="8980" width="29.875" style="1" customWidth="1"/>
-    <col min="8981" max="9212" width="8.625" style="1"/>
-    <col min="9213" max="9232" width="9.25" style="1" customWidth="1"/>
-    <col min="9233" max="9233" width="3" style="1" customWidth="1"/>
-    <col min="9234" max="9234" width="8" style="1" customWidth="1"/>
-    <col min="9235" max="9235" width="7.875" style="1" customWidth="1"/>
-    <col min="9236" max="9236" width="29.875" style="1" customWidth="1"/>
-    <col min="9237" max="9468" width="8.625" style="1"/>
-    <col min="9469" max="9488" width="9.25" style="1" customWidth="1"/>
-    <col min="9489" max="9489" width="3" style="1" customWidth="1"/>
-    <col min="9490" max="9490" width="8" style="1" customWidth="1"/>
-    <col min="9491" max="9491" width="7.875" style="1" customWidth="1"/>
-    <col min="9492" max="9492" width="29.875" style="1" customWidth="1"/>
-    <col min="9493" max="9724" width="8.625" style="1"/>
-    <col min="9725" max="9744" width="9.25" style="1" customWidth="1"/>
-    <col min="9745" max="9745" width="3" style="1" customWidth="1"/>
-    <col min="9746" max="9746" width="8" style="1" customWidth="1"/>
-    <col min="9747" max="9747" width="7.875" style="1" customWidth="1"/>
-    <col min="9748" max="9748" width="29.875" style="1" customWidth="1"/>
-    <col min="9749" max="9980" width="8.625" style="1"/>
-    <col min="9981" max="10000" width="9.25" style="1" customWidth="1"/>
-    <col min="10001" max="10001" width="3" style="1" customWidth="1"/>
-    <col min="10002" max="10002" width="8" style="1" customWidth="1"/>
-    <col min="10003" max="10003" width="7.875" style="1" customWidth="1"/>
-    <col min="10004" max="10004" width="29.875" style="1" customWidth="1"/>
-    <col min="10005" max="10236" width="8.625" style="1"/>
-    <col min="10237" max="10256" width="9.25" style="1" customWidth="1"/>
-    <col min="10257" max="10257" width="3" style="1" customWidth="1"/>
-    <col min="10258" max="10258" width="8" style="1" customWidth="1"/>
-    <col min="10259" max="10259" width="7.875" style="1" customWidth="1"/>
-    <col min="10260" max="10260" width="29.875" style="1" customWidth="1"/>
-    <col min="10261" max="10492" width="8.625" style="1"/>
-    <col min="10493" max="10512" width="9.25" style="1" customWidth="1"/>
-    <col min="10513" max="10513" width="3" style="1" customWidth="1"/>
-    <col min="10514" max="10514" width="8" style="1" customWidth="1"/>
-    <col min="10515" max="10515" width="7.875" style="1" customWidth="1"/>
-    <col min="10516" max="10516" width="29.875" style="1" customWidth="1"/>
-    <col min="10517" max="10748" width="8.625" style="1"/>
-    <col min="10749" max="10768" width="9.25" style="1" customWidth="1"/>
-    <col min="10769" max="10769" width="3" style="1" customWidth="1"/>
-    <col min="10770" max="10770" width="8" style="1" customWidth="1"/>
-    <col min="10771" max="10771" width="7.875" style="1" customWidth="1"/>
-    <col min="10772" max="10772" width="29.875" style="1" customWidth="1"/>
-    <col min="10773" max="11004" width="8.625" style="1"/>
-    <col min="11005" max="11024" width="9.25" style="1" customWidth="1"/>
-    <col min="11025" max="11025" width="3" style="1" customWidth="1"/>
-    <col min="11026" max="11026" width="8" style="1" customWidth="1"/>
-    <col min="11027" max="11027" width="7.875" style="1" customWidth="1"/>
-    <col min="11028" max="11028" width="29.875" style="1" customWidth="1"/>
-    <col min="11029" max="11260" width="8.625" style="1"/>
-    <col min="11261" max="11280" width="9.25" style="1" customWidth="1"/>
-    <col min="11281" max="11281" width="3" style="1" customWidth="1"/>
-    <col min="11282" max="11282" width="8" style="1" customWidth="1"/>
-    <col min="11283" max="11283" width="7.875" style="1" customWidth="1"/>
-    <col min="11284" max="11284" width="29.875" style="1" customWidth="1"/>
-    <col min="11285" max="11516" width="8.625" style="1"/>
-    <col min="11517" max="11536" width="9.25" style="1" customWidth="1"/>
-    <col min="11537" max="11537" width="3" style="1" customWidth="1"/>
-    <col min="11538" max="11538" width="8" style="1" customWidth="1"/>
-    <col min="11539" max="11539" width="7.875" style="1" customWidth="1"/>
-    <col min="11540" max="11540" width="29.875" style="1" customWidth="1"/>
-    <col min="11541" max="11772" width="8.625" style="1"/>
-    <col min="11773" max="11792" width="9.25" style="1" customWidth="1"/>
-    <col min="11793" max="11793" width="3" style="1" customWidth="1"/>
-    <col min="11794" max="11794" width="8" style="1" customWidth="1"/>
-    <col min="11795" max="11795" width="7.875" style="1" customWidth="1"/>
-    <col min="11796" max="11796" width="29.875" style="1" customWidth="1"/>
-    <col min="11797" max="12028" width="8.625" style="1"/>
-    <col min="12029" max="12048" width="9.25" style="1" customWidth="1"/>
-    <col min="12049" max="12049" width="3" style="1" customWidth="1"/>
-    <col min="12050" max="12050" width="8" style="1" customWidth="1"/>
-    <col min="12051" max="12051" width="7.875" style="1" customWidth="1"/>
-    <col min="12052" max="12052" width="29.875" style="1" customWidth="1"/>
-    <col min="12053" max="12284" width="8.625" style="1"/>
-    <col min="12285" max="12304" width="9.25" style="1" customWidth="1"/>
-    <col min="12305" max="12305" width="3" style="1" customWidth="1"/>
-    <col min="12306" max="12306" width="8" style="1" customWidth="1"/>
-    <col min="12307" max="12307" width="7.875" style="1" customWidth="1"/>
-    <col min="12308" max="12308" width="29.875" style="1" customWidth="1"/>
-    <col min="12309" max="12540" width="8.625" style="1"/>
-    <col min="12541" max="12560" width="9.25" style="1" customWidth="1"/>
-    <col min="12561" max="12561" width="3" style="1" customWidth="1"/>
-    <col min="12562" max="12562" width="8" style="1" customWidth="1"/>
-    <col min="12563" max="12563" width="7.875" style="1" customWidth="1"/>
-    <col min="12564" max="12564" width="29.875" style="1" customWidth="1"/>
-    <col min="12565" max="12796" width="8.625" style="1"/>
-    <col min="12797" max="12816" width="9.25" style="1" customWidth="1"/>
-    <col min="12817" max="12817" width="3" style="1" customWidth="1"/>
-    <col min="12818" max="12818" width="8" style="1" customWidth="1"/>
-    <col min="12819" max="12819" width="7.875" style="1" customWidth="1"/>
-    <col min="12820" max="12820" width="29.875" style="1" customWidth="1"/>
-    <col min="12821" max="13052" width="8.625" style="1"/>
-    <col min="13053" max="13072" width="9.25" style="1" customWidth="1"/>
-    <col min="13073" max="13073" width="3" style="1" customWidth="1"/>
-    <col min="13074" max="13074" width="8" style="1" customWidth="1"/>
-    <col min="13075" max="13075" width="7.875" style="1" customWidth="1"/>
-    <col min="13076" max="13076" width="29.875" style="1" customWidth="1"/>
-    <col min="13077" max="13308" width="8.625" style="1"/>
-    <col min="13309" max="13328" width="9.25" style="1" customWidth="1"/>
-    <col min="13329" max="13329" width="3" style="1" customWidth="1"/>
-    <col min="13330" max="13330" width="8" style="1" customWidth="1"/>
-    <col min="13331" max="13331" width="7.875" style="1" customWidth="1"/>
-    <col min="13332" max="13332" width="29.875" style="1" customWidth="1"/>
-    <col min="13333" max="13564" width="8.625" style="1"/>
-    <col min="13565" max="13584" width="9.25" style="1" customWidth="1"/>
-    <col min="13585" max="13585" width="3" style="1" customWidth="1"/>
-    <col min="13586" max="13586" width="8" style="1" customWidth="1"/>
-    <col min="13587" max="13587" width="7.875" style="1" customWidth="1"/>
-    <col min="13588" max="13588" width="29.875" style="1" customWidth="1"/>
-    <col min="13589" max="13820" width="8.625" style="1"/>
-    <col min="13821" max="13840" width="9.25" style="1" customWidth="1"/>
-    <col min="13841" max="13841" width="3" style="1" customWidth="1"/>
-    <col min="13842" max="13842" width="8" style="1" customWidth="1"/>
-    <col min="13843" max="13843" width="7.875" style="1" customWidth="1"/>
-    <col min="13844" max="13844" width="29.875" style="1" customWidth="1"/>
-    <col min="13845" max="14076" width="8.625" style="1"/>
-    <col min="14077" max="14096" width="9.25" style="1" customWidth="1"/>
-    <col min="14097" max="14097" width="3" style="1" customWidth="1"/>
-    <col min="14098" max="14098" width="8" style="1" customWidth="1"/>
-    <col min="14099" max="14099" width="7.875" style="1" customWidth="1"/>
-    <col min="14100" max="14100" width="29.875" style="1" customWidth="1"/>
-    <col min="14101" max="14332" width="8.625" style="1"/>
-    <col min="14333" max="14352" width="9.25" style="1" customWidth="1"/>
-    <col min="14353" max="14353" width="3" style="1" customWidth="1"/>
-    <col min="14354" max="14354" width="8" style="1" customWidth="1"/>
-    <col min="14355" max="14355" width="7.875" style="1" customWidth="1"/>
-    <col min="14356" max="14356" width="29.875" style="1" customWidth="1"/>
-    <col min="14357" max="14588" width="8.625" style="1"/>
-    <col min="14589" max="14608" width="9.25" style="1" customWidth="1"/>
-    <col min="14609" max="14609" width="3" style="1" customWidth="1"/>
-    <col min="14610" max="14610" width="8" style="1" customWidth="1"/>
-    <col min="14611" max="14611" width="7.875" style="1" customWidth="1"/>
-    <col min="14612" max="14612" width="29.875" style="1" customWidth="1"/>
-    <col min="14613" max="14844" width="8.625" style="1"/>
-    <col min="14845" max="14864" width="9.25" style="1" customWidth="1"/>
-    <col min="14865" max="14865" width="3" style="1" customWidth="1"/>
-    <col min="14866" max="14866" width="8" style="1" customWidth="1"/>
-    <col min="14867" max="14867" width="7.875" style="1" customWidth="1"/>
-    <col min="14868" max="14868" width="29.875" style="1" customWidth="1"/>
-    <col min="14869" max="15100" width="8.625" style="1"/>
-    <col min="15101" max="15120" width="9.25" style="1" customWidth="1"/>
-    <col min="15121" max="15121" width="3" style="1" customWidth="1"/>
-    <col min="15122" max="15122" width="8" style="1" customWidth="1"/>
-    <col min="15123" max="15123" width="7.875" style="1" customWidth="1"/>
-    <col min="15124" max="15124" width="29.875" style="1" customWidth="1"/>
-    <col min="15125" max="15356" width="8.625" style="1"/>
-    <col min="15357" max="15376" width="9.25" style="1" customWidth="1"/>
-    <col min="15377" max="15377" width="3" style="1" customWidth="1"/>
-    <col min="15378" max="15378" width="8" style="1" customWidth="1"/>
-    <col min="15379" max="15379" width="7.875" style="1" customWidth="1"/>
-    <col min="15380" max="15380" width="29.875" style="1" customWidth="1"/>
-    <col min="15381" max="15612" width="8.625" style="1"/>
-    <col min="15613" max="15632" width="9.25" style="1" customWidth="1"/>
-    <col min="15633" max="15633" width="3" style="1" customWidth="1"/>
-    <col min="15634" max="15634" width="8" style="1" customWidth="1"/>
-    <col min="15635" max="15635" width="7.875" style="1" customWidth="1"/>
-    <col min="15636" max="15636" width="29.875" style="1" customWidth="1"/>
-    <col min="15637" max="15868" width="8.625" style="1"/>
-    <col min="15869" max="15888" width="9.25" style="1" customWidth="1"/>
-    <col min="15889" max="15889" width="3" style="1" customWidth="1"/>
-    <col min="15890" max="15890" width="8" style="1" customWidth="1"/>
-    <col min="15891" max="15891" width="7.875" style="1" customWidth="1"/>
-    <col min="15892" max="15892" width="29.875" style="1" customWidth="1"/>
-    <col min="15893" max="16124" width="8.625" style="1"/>
-    <col min="16125" max="16144" width="9.25" style="1" customWidth="1"/>
-    <col min="16145" max="16145" width="3" style="1" customWidth="1"/>
-    <col min="16146" max="16146" width="8" style="1" customWidth="1"/>
-    <col min="16147" max="16147" width="7.875" style="1" customWidth="1"/>
-    <col min="16148" max="16148" width="29.875" style="1" customWidth="1"/>
-    <col min="16149" max="16377" width="8.625" style="1"/>
-    <col min="16378" max="16384" width="8.625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="3" style="1" width="9.25"/>
+    <col customWidth="1" min="4" max="4" style="2" width="9.25"/>
+    <col customWidth="1" min="5" max="5" style="1" width="9.25"/>
+    <col customWidth="1" min="6" max="6" style="2" width="9.25"/>
+    <col customWidth="1" min="7" max="11" style="1" width="9.25"/>
+    <col customWidth="1" min="12" max="12" style="2" width="9.25"/>
+    <col customWidth="1" min="13" max="17" style="1" width="9.25"/>
+    <col customWidth="1" min="18" max="19" style="2" width="9.25"/>
+    <col customWidth="1" min="20" max="20" style="1" width="9.25"/>
+    <col customWidth="1" min="21" max="21" style="1" width="6.375"/>
+    <col customWidth="1" min="22" max="22" style="1" width="18.375"/>
+    <col customWidth="1" min="23" max="25" style="1" width="9.625"/>
+    <col min="26" max="252" style="1" width="8.625"/>
+    <col customWidth="1" min="253" max="272" style="1" width="9.25"/>
+    <col customWidth="1" min="273" max="273" style="1" width="3"/>
+    <col customWidth="1" min="274" max="274" style="1" width="8"/>
+    <col customWidth="1" min="275" max="275" style="1" width="7.875"/>
+    <col customWidth="1" min="276" max="276" style="1" width="29.875"/>
+    <col min="277" max="508" style="1" width="8.625"/>
+    <col customWidth="1" min="509" max="528" style="1" width="9.25"/>
+    <col customWidth="1" min="529" max="529" style="1" width="3"/>
+    <col customWidth="1" min="530" max="530" style="1" width="8"/>
+    <col customWidth="1" min="531" max="531" style="1" width="7.875"/>
+    <col customWidth="1" min="532" max="532" style="1" width="29.875"/>
+    <col min="533" max="764" style="1" width="8.625"/>
+    <col customWidth="1" min="765" max="784" style="1" width="9.25"/>
+    <col customWidth="1" min="785" max="785" style="1" width="3"/>
+    <col customWidth="1" min="786" max="786" style="1" width="8"/>
+    <col customWidth="1" min="787" max="787" style="1" width="7.875"/>
+    <col customWidth="1" min="788" max="788" style="1" width="29.875"/>
+    <col min="789" max="1020" style="1" width="8.625"/>
+    <col customWidth="1" min="1021" max="1040" style="1" width="9.25"/>
+    <col customWidth="1" min="1041" max="1041" style="1" width="3"/>
+    <col customWidth="1" min="1042" max="1042" style="1" width="8"/>
+    <col customWidth="1" min="1043" max="1043" style="1" width="7.875"/>
+    <col customWidth="1" min="1044" max="1044" style="1" width="29.875"/>
+    <col min="1045" max="1276" style="1" width="8.625"/>
+    <col customWidth="1" min="1277" max="1296" style="1" width="9.25"/>
+    <col customWidth="1" min="1297" max="1297" style="1" width="3"/>
+    <col customWidth="1" min="1298" max="1298" style="1" width="8"/>
+    <col customWidth="1" min="1299" max="1299" style="1" width="7.875"/>
+    <col customWidth="1" min="1300" max="1300" style="1" width="29.875"/>
+    <col min="1301" max="1532" style="1" width="8.625"/>
+    <col customWidth="1" min="1533" max="1552" style="1" width="9.25"/>
+    <col customWidth="1" min="1553" max="1553" style="1" width="3"/>
+    <col customWidth="1" min="1554" max="1554" style="1" width="8"/>
+    <col customWidth="1" min="1555" max="1555" style="1" width="7.875"/>
+    <col customWidth="1" min="1556" max="1556" style="1" width="29.875"/>
+    <col min="1557" max="1788" style="1" width="8.625"/>
+    <col customWidth="1" min="1789" max="1808" style="1" width="9.25"/>
+    <col customWidth="1" min="1809" max="1809" style="1" width="3"/>
+    <col customWidth="1" min="1810" max="1810" style="1" width="8"/>
+    <col customWidth="1" min="1811" max="1811" style="1" width="7.875"/>
+    <col customWidth="1" min="1812" max="1812" style="1" width="29.875"/>
+    <col min="1813" max="2044" style="1" width="8.625"/>
+    <col customWidth="1" min="2045" max="2064" style="1" width="9.25"/>
+    <col customWidth="1" min="2065" max="2065" style="1" width="3"/>
+    <col customWidth="1" min="2066" max="2066" style="1" width="8"/>
+    <col customWidth="1" min="2067" max="2067" style="1" width="7.875"/>
+    <col customWidth="1" min="2068" max="2068" style="1" width="29.875"/>
+    <col min="2069" max="2300" style="1" width="8.625"/>
+    <col customWidth="1" min="2301" max="2320" style="1" width="9.25"/>
+    <col customWidth="1" min="2321" max="2321" style="1" width="3"/>
+    <col customWidth="1" min="2322" max="2322" style="1" width="8"/>
+    <col customWidth="1" min="2323" max="2323" style="1" width="7.875"/>
+    <col customWidth="1" min="2324" max="2324" style="1" width="29.875"/>
+    <col min="2325" max="2556" style="1" width="8.625"/>
+    <col customWidth="1" min="2557" max="2576" style="1" width="9.25"/>
+    <col customWidth="1" min="2577" max="2577" style="1" width="3"/>
+    <col customWidth="1" min="2578" max="2578" style="1" width="8"/>
+    <col customWidth="1" min="2579" max="2579" style="1" width="7.875"/>
+    <col customWidth="1" min="2580" max="2580" style="1" width="29.875"/>
+    <col min="2581" max="2812" style="1" width="8.625"/>
+    <col customWidth="1" min="2813" max="2832" style="1" width="9.25"/>
+    <col customWidth="1" min="2833" max="2833" style="1" width="3"/>
+    <col customWidth="1" min="2834" max="2834" style="1" width="8"/>
+    <col customWidth="1" min="2835" max="2835" style="1" width="7.875"/>
+    <col customWidth="1" min="2836" max="2836" style="1" width="29.875"/>
+    <col min="2837" max="3068" style="1" width="8.625"/>
+    <col customWidth="1" min="3069" max="3088" style="1" width="9.25"/>
+    <col customWidth="1" min="3089" max="3089" style="1" width="3"/>
+    <col customWidth="1" min="3090" max="3090" style="1" width="8"/>
+    <col customWidth="1" min="3091" max="3091" style="1" width="7.875"/>
+    <col customWidth="1" min="3092" max="3092" style="1" width="29.875"/>
+    <col min="3093" max="3324" style="1" width="8.625"/>
+    <col customWidth="1" min="3325" max="3344" style="1" width="9.25"/>
+    <col customWidth="1" min="3345" max="3345" style="1" width="3"/>
+    <col customWidth="1" min="3346" max="3346" style="1" width="8"/>
+    <col customWidth="1" min="3347" max="3347" style="1" width="7.875"/>
+    <col customWidth="1" min="3348" max="3348" style="1" width="29.875"/>
+    <col min="3349" max="3580" style="1" width="8.625"/>
+    <col customWidth="1" min="3581" max="3600" style="1" width="9.25"/>
+    <col customWidth="1" min="3601" max="3601" style="1" width="3"/>
+    <col customWidth="1" min="3602" max="3602" style="1" width="8"/>
+    <col customWidth="1" min="3603" max="3603" style="1" width="7.875"/>
+    <col customWidth="1" min="3604" max="3604" style="1" width="29.875"/>
+    <col min="3605" max="3836" style="1" width="8.625"/>
+    <col customWidth="1" min="3837" max="3856" style="1" width="9.25"/>
+    <col customWidth="1" min="3857" max="3857" style="1" width="3"/>
+    <col customWidth="1" min="3858" max="3858" style="1" width="8"/>
+    <col customWidth="1" min="3859" max="3859" style="1" width="7.875"/>
+    <col customWidth="1" min="3860" max="3860" style="1" width="29.875"/>
+    <col min="3861" max="4092" style="1" width="8.625"/>
+    <col customWidth="1" min="4093" max="4112" style="1" width="9.25"/>
+    <col customWidth="1" min="4113" max="4113" style="1" width="3"/>
+    <col customWidth="1" min="4114" max="4114" style="1" width="8"/>
+    <col customWidth="1" min="4115" max="4115" style="1" width="7.875"/>
+    <col customWidth="1" min="4116" max="4116" style="1" width="29.875"/>
+    <col min="4117" max="4348" style="1" width="8.625"/>
+    <col customWidth="1" min="4349" max="4368" style="1" width="9.25"/>
+    <col customWidth="1" min="4369" max="4369" style="1" width="3"/>
+    <col customWidth="1" min="4370" max="4370" style="1" width="8"/>
+    <col customWidth="1" min="4371" max="4371" style="1" width="7.875"/>
+    <col customWidth="1" min="4372" max="4372" style="1" width="29.875"/>
+    <col min="4373" max="4604" style="1" width="8.625"/>
+    <col customWidth="1" min="4605" max="4624" style="1" width="9.25"/>
+    <col customWidth="1" min="4625" max="4625" style="1" width="3"/>
+    <col customWidth="1" min="4626" max="4626" style="1" width="8"/>
+    <col customWidth="1" min="4627" max="4627" style="1" width="7.875"/>
+    <col customWidth="1" min="4628" max="4628" style="1" width="29.875"/>
+    <col min="4629" max="4860" style="1" width="8.625"/>
+    <col customWidth="1" min="4861" max="4880" style="1" width="9.25"/>
+    <col customWidth="1" min="4881" max="4881" style="1" width="3"/>
+    <col customWidth="1" min="4882" max="4882" style="1" width="8"/>
+    <col customWidth="1" min="4883" max="4883" style="1" width="7.875"/>
+    <col customWidth="1" min="4884" max="4884" style="1" width="29.875"/>
+    <col min="4885" max="5116" style="1" width="8.625"/>
+    <col customWidth="1" min="5117" max="5136" style="1" width="9.25"/>
+    <col customWidth="1" min="5137" max="5137" style="1" width="3"/>
+    <col customWidth="1" min="5138" max="5138" style="1" width="8"/>
+    <col customWidth="1" min="5139" max="5139" style="1" width="7.875"/>
+    <col customWidth="1" min="5140" max="5140" style="1" width="29.875"/>
+    <col min="5141" max="5372" style="1" width="8.625"/>
+    <col customWidth="1" min="5373" max="5392" style="1" width="9.25"/>
+    <col customWidth="1" min="5393" max="5393" style="1" width="3"/>
+    <col customWidth="1" min="5394" max="5394" style="1" width="8"/>
+    <col customWidth="1" min="5395" max="5395" style="1" width="7.875"/>
+    <col customWidth="1" min="5396" max="5396" style="1" width="29.875"/>
+    <col min="5397" max="5628" style="1" width="8.625"/>
+    <col customWidth="1" min="5629" max="5648" style="1" width="9.25"/>
+    <col customWidth="1" min="5649" max="5649" style="1" width="3"/>
+    <col customWidth="1" min="5650" max="5650" style="1" width="8"/>
+    <col customWidth="1" min="5651" max="5651" style="1" width="7.875"/>
+    <col customWidth="1" min="5652" max="5652" style="1" width="29.875"/>
+    <col min="5653" max="5884" style="1" width="8.625"/>
+    <col customWidth="1" min="5885" max="5904" style="1" width="9.25"/>
+    <col customWidth="1" min="5905" max="5905" style="1" width="3"/>
+    <col customWidth="1" min="5906" max="5906" style="1" width="8"/>
+    <col customWidth="1" min="5907" max="5907" style="1" width="7.875"/>
+    <col customWidth="1" min="5908" max="5908" style="1" width="29.875"/>
+    <col min="5909" max="6140" style="1" width="8.625"/>
+    <col customWidth="1" min="6141" max="6160" style="1" width="9.25"/>
+    <col customWidth="1" min="6161" max="6161" style="1" width="3"/>
+    <col customWidth="1" min="6162" max="6162" style="1" width="8"/>
+    <col customWidth="1" min="6163" max="6163" style="1" width="7.875"/>
+    <col customWidth="1" min="6164" max="6164" style="1" width="29.875"/>
+    <col min="6165" max="6396" style="1" width="8.625"/>
+    <col customWidth="1" min="6397" max="6416" style="1" width="9.25"/>
+    <col customWidth="1" min="6417" max="6417" style="1" width="3"/>
+    <col customWidth="1" min="6418" max="6418" style="1" width="8"/>
+    <col customWidth="1" min="6419" max="6419" style="1" width="7.875"/>
+    <col customWidth="1" min="6420" max="6420" style="1" width="29.875"/>
+    <col min="6421" max="6652" style="1" width="8.625"/>
+    <col customWidth="1" min="6653" max="6672" style="1" width="9.25"/>
+    <col customWidth="1" min="6673" max="6673" style="1" width="3"/>
+    <col customWidth="1" min="6674" max="6674" style="1" width="8"/>
+    <col customWidth="1" min="6675" max="6675" style="1" width="7.875"/>
+    <col customWidth="1" min="6676" max="6676" style="1" width="29.875"/>
+    <col min="6677" max="6908" style="1" width="8.625"/>
+    <col customWidth="1" min="6909" max="6928" style="1" width="9.25"/>
+    <col customWidth="1" min="6929" max="6929" style="1" width="3"/>
+    <col customWidth="1" min="6930" max="6930" style="1" width="8"/>
+    <col customWidth="1" min="6931" max="6931" style="1" width="7.875"/>
+    <col customWidth="1" min="6932" max="6932" style="1" width="29.875"/>
+    <col min="6933" max="7164" style="1" width="8.625"/>
+    <col customWidth="1" min="7165" max="7184" style="1" width="9.25"/>
+    <col customWidth="1" min="7185" max="7185" style="1" width="3"/>
+    <col customWidth="1" min="7186" max="7186" style="1" width="8"/>
+    <col customWidth="1" min="7187" max="7187" style="1" width="7.875"/>
+    <col customWidth="1" min="7188" max="7188" style="1" width="29.875"/>
+    <col min="7189" max="7420" style="1" width="8.625"/>
+    <col customWidth="1" min="7421" max="7440" style="1" width="9.25"/>
+    <col customWidth="1" min="7441" max="7441" style="1" width="3"/>
+    <col customWidth="1" min="7442" max="7442" style="1" width="8"/>
+    <col customWidth="1" min="7443" max="7443" style="1" width="7.875"/>
+    <col customWidth="1" min="7444" max="7444" style="1" width="29.875"/>
+    <col min="7445" max="7676" style="1" width="8.625"/>
+    <col customWidth="1" min="7677" max="7696" style="1" width="9.25"/>
+    <col customWidth="1" min="7697" max="7697" style="1" width="3"/>
+    <col customWidth="1" min="7698" max="7698" style="1" width="8"/>
+    <col customWidth="1" min="7699" max="7699" style="1" width="7.875"/>
+    <col customWidth="1" min="7700" max="7700" style="1" width="29.875"/>
+    <col min="7701" max="7932" style="1" width="8.625"/>
+    <col customWidth="1" min="7933" max="7952" style="1" width="9.25"/>
+    <col customWidth="1" min="7953" max="7953" style="1" width="3"/>
+    <col customWidth="1" min="7954" max="7954" style="1" width="8"/>
+    <col customWidth="1" min="7955" max="7955" style="1" width="7.875"/>
+    <col customWidth="1" min="7956" max="7956" style="1" width="29.875"/>
+    <col min="7957" max="8188" style="1" width="8.625"/>
+    <col customWidth="1" min="8189" max="8208" style="1" width="9.25"/>
+    <col customWidth="1" min="8209" max="8209" style="1" width="3"/>
+    <col customWidth="1" min="8210" max="8210" style="1" width="8"/>
+    <col customWidth="1" min="8211" max="8211" style="1" width="7.875"/>
+    <col customWidth="1" min="8212" max="8212" style="1" width="29.875"/>
+    <col min="8213" max="8444" style="1" width="8.625"/>
+    <col customWidth="1" min="8445" max="8464" style="1" width="9.25"/>
+    <col customWidth="1" min="8465" max="8465" style="1" width="3"/>
+    <col customWidth="1" min="8466" max="8466" style="1" width="8"/>
+    <col customWidth="1" min="8467" max="8467" style="1" width="7.875"/>
+    <col customWidth="1" min="8468" max="8468" style="1" width="29.875"/>
+    <col min="8469" max="8700" style="1" width="8.625"/>
+    <col customWidth="1" min="8701" max="8720" style="1" width="9.25"/>
+    <col customWidth="1" min="8721" max="8721" style="1" width="3"/>
+    <col customWidth="1" min="8722" max="8722" style="1" width="8"/>
+    <col customWidth="1" min="8723" max="8723" style="1" width="7.875"/>
+    <col customWidth="1" min="8724" max="8724" style="1" width="29.875"/>
+    <col min="8725" max="8956" style="1" width="8.625"/>
+    <col customWidth="1" min="8957" max="8976" style="1" width="9.25"/>
+    <col customWidth="1" min="8977" max="8977" style="1" width="3"/>
+    <col customWidth="1" min="8978" max="8978" style="1" width="8"/>
+    <col customWidth="1" min="8979" max="8979" style="1" width="7.875"/>
+    <col customWidth="1" min="8980" max="8980" style="1" width="29.875"/>
+    <col min="8981" max="9212" style="1" width="8.625"/>
+    <col customWidth="1" min="9213" max="9232" style="1" width="9.25"/>
+    <col customWidth="1" min="9233" max="9233" style="1" width="3"/>
+    <col customWidth="1" min="9234" max="9234" style="1" width="8"/>
+    <col customWidth="1" min="9235" max="9235" style="1" width="7.875"/>
+    <col customWidth="1" min="9236" max="9236" style="1" width="29.875"/>
+    <col min="9237" max="9468" style="1" width="8.625"/>
+    <col customWidth="1" min="9469" max="9488" style="1" width="9.25"/>
+    <col customWidth="1" min="9489" max="9489" style="1" width="3"/>
+    <col customWidth="1" min="9490" max="9490" style="1" width="8"/>
+    <col customWidth="1" min="9491" max="9491" style="1" width="7.875"/>
+    <col customWidth="1" min="9492" max="9492" style="1" width="29.875"/>
+    <col min="9493" max="9724" style="1" width="8.625"/>
+    <col customWidth="1" min="9725" max="9744" style="1" width="9.25"/>
+    <col customWidth="1" min="9745" max="9745" style="1" width="3"/>
+    <col customWidth="1" min="9746" max="9746" style="1" width="8"/>
+    <col customWidth="1" min="9747" max="9747" style="1" width="7.875"/>
+    <col customWidth="1" min="9748" max="9748" style="1" width="29.875"/>
+    <col min="9749" max="9980" style="1" width="8.625"/>
+    <col customWidth="1" min="9981" max="10000" style="1" width="9.25"/>
+    <col customWidth="1" min="10001" max="10001" style="1" width="3"/>
+    <col customWidth="1" min="10002" max="10002" style="1" width="8"/>
+    <col customWidth="1" min="10003" max="10003" style="1" width="7.875"/>
+    <col customWidth="1" min="10004" max="10004" style="1" width="29.875"/>
+    <col min="10005" max="10236" style="1" width="8.625"/>
+    <col customWidth="1" min="10237" max="10256" style="1" width="9.25"/>
+    <col customWidth="1" min="10257" max="10257" style="1" width="3"/>
+    <col customWidth="1" min="10258" max="10258" style="1" width="8"/>
+    <col customWidth="1" min="10259" max="10259" style="1" width="7.875"/>
+    <col customWidth="1" min="10260" max="10260" style="1" width="29.875"/>
+    <col min="10261" max="10492" style="1" width="8.625"/>
+    <col customWidth="1" min="10493" max="10512" style="1" width="9.25"/>
+    <col customWidth="1" min="10513" max="10513" style="1" width="3"/>
+    <col customWidth="1" min="10514" max="10514" style="1" width="8"/>
+    <col customWidth="1" min="10515" max="10515" style="1" width="7.875"/>
+    <col customWidth="1" min="10516" max="10516" style="1" width="29.875"/>
+    <col min="10517" max="10748" style="1" width="8.625"/>
+    <col customWidth="1" min="10749" max="10768" style="1" width="9.25"/>
+    <col customWidth="1" min="10769" max="10769" style="1" width="3"/>
+    <col customWidth="1" min="10770" max="10770" style="1" width="8"/>
+    <col customWidth="1" min="10771" max="10771" style="1" width="7.875"/>
+    <col customWidth="1" min="10772" max="10772" style="1" width="29.875"/>
+    <col min="10773" max="11004" style="1" width="8.625"/>
+    <col customWidth="1" min="11005" max="11024" style="1" width="9.25"/>
+    <col customWidth="1" min="11025" max="11025" style="1" width="3"/>
+    <col customWidth="1" min="11026" max="11026" style="1" width="8"/>
+    <col customWidth="1" min="11027" max="11027" style="1" width="7.875"/>
+    <col customWidth="1" min="11028" max="11028" style="1" width="29.875"/>
+    <col min="11029" max="11260" style="1" width="8.625"/>
+    <col customWidth="1" min="11261" max="11280" style="1" width="9.25"/>
+    <col customWidth="1" min="11281" max="11281" style="1" width="3"/>
+    <col customWidth="1" min="11282" max="11282" style="1" width="8"/>
+    <col customWidth="1" min="11283" max="11283" style="1" width="7.875"/>
+    <col customWidth="1" min="11284" max="11284" style="1" width="29.875"/>
+    <col min="11285" max="11516" style="1" width="8.625"/>
+    <col customWidth="1" min="11517" max="11536" style="1" width="9.25"/>
+    <col customWidth="1" min="11537" max="11537" style="1" width="3"/>
+    <col customWidth="1" min="11538" max="11538" style="1" width="8"/>
+    <col customWidth="1" min="11539" max="11539" style="1" width="7.875"/>
+    <col customWidth="1" min="11540" max="11540" style="1" width="29.875"/>
+    <col min="11541" max="11772" style="1" width="8.625"/>
+    <col customWidth="1" min="11773" max="11792" style="1" width="9.25"/>
+    <col customWidth="1" min="11793" max="11793" style="1" width="3"/>
+    <col customWidth="1" min="11794" max="11794" style="1" width="8"/>
+    <col customWidth="1" min="11795" max="11795" style="1" width="7.875"/>
+    <col customWidth="1" min="11796" max="11796" style="1" width="29.875"/>
+    <col min="11797" max="12028" style="1" width="8.625"/>
+    <col customWidth="1" min="12029" max="12048" style="1" width="9.25"/>
+    <col customWidth="1" min="12049" max="12049" style="1" width="3"/>
+    <col customWidth="1" min="12050" max="12050" style="1" width="8"/>
+    <col customWidth="1" min="12051" max="12051" style="1" width="7.875"/>
+    <col customWidth="1" min="12052" max="12052" style="1" width="29.875"/>
+    <col min="12053" max="12284" style="1" width="8.625"/>
+    <col customWidth="1" min="12285" max="12304" style="1" width="9.25"/>
+    <col customWidth="1" min="12305" max="12305" style="1" width="3"/>
+    <col customWidth="1" min="12306" max="12306" style="1" width="8"/>
+    <col customWidth="1" min="12307" max="12307" style="1" width="7.875"/>
+    <col customWidth="1" min="12308" max="12308" style="1" width="29.875"/>
+    <col min="12309" max="12540" style="1" width="8.625"/>
+    <col customWidth="1" min="12541" max="12560" style="1" width="9.25"/>
+    <col customWidth="1" min="12561" max="12561" style="1" width="3"/>
+    <col customWidth="1" min="12562" max="12562" style="1" width="8"/>
+    <col customWidth="1" min="12563" max="12563" style="1" width="7.875"/>
+    <col customWidth="1" min="12564" max="12564" style="1" width="29.875"/>
+    <col min="12565" max="12796" style="1" width="8.625"/>
+    <col customWidth="1" min="12797" max="12816" style="1" width="9.25"/>
+    <col customWidth="1" min="12817" max="12817" style="1" width="3"/>
+    <col customWidth="1" min="12818" max="12818" style="1" width="8"/>
+    <col customWidth="1" min="12819" max="12819" style="1" width="7.875"/>
+    <col customWidth="1" min="12820" max="12820" style="1" width="29.875"/>
+    <col min="12821" max="13052" style="1" width="8.625"/>
+    <col customWidth="1" min="13053" max="13072" style="1" width="9.25"/>
+    <col customWidth="1" min="13073" max="13073" style="1" width="3"/>
+    <col customWidth="1" min="13074" max="13074" style="1" width="8"/>
+    <col customWidth="1" min="13075" max="13075" style="1" width="7.875"/>
+    <col customWidth="1" min="13076" max="13076" style="1" width="29.875"/>
+    <col min="13077" max="13308" style="1" width="8.625"/>
+    <col customWidth="1" min="13309" max="13328" style="1" width="9.25"/>
+    <col customWidth="1" min="13329" max="13329" style="1" width="3"/>
+    <col customWidth="1" min="13330" max="13330" style="1" width="8"/>
+    <col customWidth="1" min="13331" max="13331" style="1" width="7.875"/>
+    <col customWidth="1" min="13332" max="13332" style="1" width="29.875"/>
+    <col min="13333" max="13564" style="1" width="8.625"/>
+    <col customWidth="1" min="13565" max="13584" style="1" width="9.25"/>
+    <col customWidth="1" min="13585" max="13585" style="1" width="3"/>
+    <col customWidth="1" min="13586" max="13586" style="1" width="8"/>
+    <col customWidth="1" min="13587" max="13587" style="1" width="7.875"/>
+    <col customWidth="1" min="13588" max="13588" style="1" width="29.875"/>
+    <col min="13589" max="13820" style="1" width="8.625"/>
+    <col customWidth="1" min="13821" max="13840" style="1" width="9.25"/>
+    <col customWidth="1" min="13841" max="13841" style="1" width="3"/>
+    <col customWidth="1" min="13842" max="13842" style="1" width="8"/>
+    <col customWidth="1" min="13843" max="13843" style="1" width="7.875"/>
+    <col customWidth="1" min="13844" max="13844" style="1" width="29.875"/>
+    <col min="13845" max="14076" style="1" width="8.625"/>
+    <col customWidth="1" min="14077" max="14096" style="1" width="9.25"/>
+    <col customWidth="1" min="14097" max="14097" style="1" width="3"/>
+    <col customWidth="1" min="14098" max="14098" style="1" width="8"/>
+    <col customWidth="1" min="14099" max="14099" style="1" width="7.875"/>
+    <col customWidth="1" min="14100" max="14100" style="1" width="29.875"/>
+    <col min="14101" max="14332" style="1" width="8.625"/>
+    <col customWidth="1" min="14333" max="14352" style="1" width="9.25"/>
+    <col customWidth="1" min="14353" max="14353" style="1" width="3"/>
+    <col customWidth="1" min="14354" max="14354" style="1" width="8"/>
+    <col customWidth="1" min="14355" max="14355" style="1" width="7.875"/>
+    <col customWidth="1" min="14356" max="14356" style="1" width="29.875"/>
+    <col min="14357" max="14588" style="1" width="8.625"/>
+    <col customWidth="1" min="14589" max="14608" style="1" width="9.25"/>
+    <col customWidth="1" min="14609" max="14609" style="1" width="3"/>
+    <col customWidth="1" min="14610" max="14610" style="1" width="8"/>
+    <col customWidth="1" min="14611" max="14611" style="1" width="7.875"/>
+    <col customWidth="1" min="14612" max="14612" style="1" width="29.875"/>
+    <col min="14613" max="14844" style="1" width="8.625"/>
+    <col customWidth="1" min="14845" max="14864" style="1" width="9.25"/>
+    <col customWidth="1" min="14865" max="14865" style="1" width="3"/>
+    <col customWidth="1" min="14866" max="14866" style="1" width="8"/>
+    <col customWidth="1" min="14867" max="14867" style="1" width="7.875"/>
+    <col customWidth="1" min="14868" max="14868" style="1" width="29.875"/>
+    <col min="14869" max="15100" style="1" width="8.625"/>
+    <col customWidth="1" min="15101" max="15120" style="1" width="9.25"/>
+    <col customWidth="1" min="15121" max="15121" style="1" width="3"/>
+    <col customWidth="1" min="15122" max="15122" style="1" width="8"/>
+    <col customWidth="1" min="15123" max="15123" style="1" width="7.875"/>
+    <col customWidth="1" min="15124" max="15124" style="1" width="29.875"/>
+    <col min="15125" max="15356" style="1" width="8.625"/>
+    <col customWidth="1" min="15357" max="15376" style="1" width="9.25"/>
+    <col customWidth="1" min="15377" max="15377" style="1" width="3"/>
+    <col customWidth="1" min="15378" max="15378" style="1" width="8"/>
+    <col customWidth="1" min="15379" max="15379" style="1" width="7.875"/>
+    <col customWidth="1" min="15380" max="15380" style="1" width="29.875"/>
+    <col min="15381" max="15612" style="1" width="8.625"/>
+    <col customWidth="1" min="15613" max="15632" style="1" width="9.25"/>
+    <col customWidth="1" min="15633" max="15633" style="1" width="3"/>
+    <col customWidth="1" min="15634" max="15634" style="1" width="8"/>
+    <col customWidth="1" min="15635" max="15635" style="1" width="7.875"/>
+    <col customWidth="1" min="15636" max="15636" style="1" width="29.875"/>
+    <col min="15637" max="15868" style="1" width="8.625"/>
+    <col customWidth="1" min="15869" max="15888" style="1" width="9.25"/>
+    <col customWidth="1" min="15889" max="15889" style="1" width="3"/>
+    <col customWidth="1" min="15890" max="15890" style="1" width="8"/>
+    <col customWidth="1" min="15891" max="15891" style="1" width="7.875"/>
+    <col customWidth="1" min="15892" max="15892" style="1" width="29.875"/>
+    <col min="15893" max="16124" style="1" width="8.625"/>
+    <col customWidth="1" min="16125" max="16144" style="1" width="9.25"/>
+    <col customWidth="1" min="16145" max="16145" style="1" width="3"/>
+    <col customWidth="1" min="16146" max="16146" style="1" width="8"/>
+    <col customWidth="1" min="16147" max="16147" style="1" width="7.875"/>
+    <col customWidth="1" min="16148" max="16148" style="1" width="29.875"/>
+    <col min="16149" max="16377" style="1" width="8.625"/>
+    <col customWidth="1" min="16378" max="16384" style="1" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+    <row ht="33.75" customHeight="1" r="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="94" t="str">
+    <row ht="22.5" customHeight="1" r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="95" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+    <row ht="18" customHeight="1" r="3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="97" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="100" t="s">
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="100"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="104" t="s">
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="106"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
     </row>
-    <row r="4" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="110" t="s">
+    <row ht="26.25" customHeight="1" r="4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="111" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="89" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="107"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="109"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="30"/>
     </row>
-    <row r="5" spans="1:25" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="8" t="s">
+    <row ht="33.950000000000003" customHeight="1" r="5">
+      <c r="A5" s="20"/>
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="8" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="30"/>
     </row>
-    <row r="6" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="103"/>
-      <c r="B6" s="91" t="s">
+    <row ht="24.75" customHeight="1" hidden="1" r="6">
+      <c r="A6" s="20"/>
+      <c r="B6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="91" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="7" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="91" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="92"/>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="33"/>
+      <c r="N6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="83" t="s">
+      <c r="U6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="84"/>
-      <c r="W6" s="12" t="s">
+      <c r="V6" s="38"/>
+      <c r="W6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+    <row ht="24.75" customHeight="1" r="7">
+      <c r="A7" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="44">
         <v>1.5</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="85"/>
-      <c r="W7" s="21" t="s">
+      <c r="V7" s="48"/>
+      <c r="W7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row ht="24.75" customHeight="1" hidden="1" r="8">
+      <c r="A8" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="52">
         <v>80</v>
       </c>
-      <c r="C8" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="53">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D8" s="54">
         <v>80</v>
       </c>
-      <c r="E8" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="F8" s="27">
+      <c r="E8" s="53">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="F8" s="55">
         <v>30</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="55">
         <v>1.8</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="55">
         <v>1.5</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="55">
         <v>28</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="54">
         <v>70</v>
       </c>
-      <c r="K8" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="26">
+      <c r="K8" s="53">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="L8" s="54">
         <v>70</v>
       </c>
-      <c r="M8" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="N8" s="27">
+      <c r="M8" s="53">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="N8" s="55">
         <v>110</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="55">
         <v>29</v>
       </c>
-      <c r="P8" s="27">
+      <c r="P8" s="55">
         <v>1.3</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="56">
         <v>1.5</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="55">
         <v>1.2</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8" s="55">
         <v>1.2</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="57">
         <v>4</v>
       </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="32"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="60"/>
     </row>
-    <row r="9" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row ht="24.75" customHeight="1" hidden="1" r="9">
+      <c r="A9" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="52">
         <v>-9999</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="52">
         <v>-9999</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="52">
         <v>-9999</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="52">
         <v>-9999</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="52">
         <v>-9999</v>
       </c>
-      <c r="G9" s="27">
-        <v>0.8</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="G9" s="55">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="H9" s="52">
         <v>-9999</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="55">
         <v>24</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="52">
         <v>-9999</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="52">
         <v>-9999</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="52">
         <v>-9999</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="52">
         <v>-9999</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="55">
         <v>80</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="55">
         <v>25</v>
       </c>
-      <c r="P9" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="24">
+      <c r="P9" s="55">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="Q9" s="52">
         <v>-9999</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="52">
         <v>-9999</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="52">
         <v>-9999</v>
       </c>
-      <c r="T9" s="33">
+      <c r="T9" s="61">
         <v>-9999</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="32"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
     </row>
-    <row r="10" spans="1:25" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row ht="24.75" customHeight="1" hidden="1" r="10">
+      <c r="A10" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="38" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="38" t="s">
+      <c r="J10" s="65"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="Q10" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="70"/>
     </row>
-    <row r="11" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="11">
+      <c r="A11" s="71">
         <v>0</v>
       </c>
-      <c r="B11" s="42" t="str">
+      <c r="B11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A2="","",_zhongleng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B2="","",_zhongleng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D11" s="42" t="str">
+      <c r="D11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C2="","",_zhongleng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D2="","",_zhongleng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F11" s="42" t="str">
+      <c r="F11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E2="","",_zhongleng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G11" s="42" t="str">
+      <c r="G11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F2="","",_zhongleng_day_hour!F2/1000)</f>
         <v/>
       </c>
-      <c r="H11" s="42" t="str">
+      <c r="H11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G2="","",_zhongleng_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="I11" s="42" t="str">
+      <c r="I11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H2="","",_zhongleng_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I2="","",_zhongleng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K11" s="42" t="str">
+      <c r="K11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J2="","",_zhongleng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K2="","",_zhongleng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M11" s="42" t="str">
+      <c r="M11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L2="","",_zhongleng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N11" s="42" t="str">
+      <c r="N11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M2="","",_zhongleng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O11" s="42" t="str">
+      <c r="O11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N2="","",_zhongleng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P11" s="42" t="str">
+      <c r="P11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O2="","",_zhongleng_day_hour!O2/1000)</f>
         <v/>
       </c>
-      <c r="Q11" s="42" t="str">
+      <c r="Q11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P2="","",_zhongleng_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="R11" s="42" t="str">
+      <c r="R11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q2="","",_zhongleng_day_hour!Q2/1000)</f>
         <v/>
       </c>
-      <c r="S11" s="42" t="str">
+      <c r="S11" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R2="","",_zhongleng_day_hour!R2/1000)</f>
         <v/>
       </c>
-      <c r="T11" s="43" t="str">
+      <c r="T11" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S2="","",_zhongleng_day_hour!S2/1000)</f>
         <v/>
       </c>
-      <c r="U11" s="88" t="s">
+      <c r="U11" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="44" t="s">
+      <c r="V11" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="45" t="str">
+      <c r="W11" s="76" t="str">
         <f>IF(_analysis_day_shift!A2="","",_analysis_day_shift!A2)</f>
         <v/>
       </c>
-      <c r="X11" s="45" t="str">
+      <c r="X11" s="76" t="str">
         <f>IF(_analysis_day_shift!A3="","",_analysis_day_shift!A3)</f>
         <v/>
       </c>
-      <c r="Y11" s="46" t="str">
+      <c r="Y11" s="77" t="str">
         <f>IF(_analysis_day_shift!A4="","",_analysis_day_shift!A4)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B12" s="42" t="str">
+    <row ht="20.100000000000001" customHeight="1" r="12">
+      <c r="A12" s="71">
+        <v>0.041666666666666699</v>
+      </c>
+      <c r="B12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A3="","",_zhongleng_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B3="","",_zhongleng_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="D12" s="42" t="str">
+      <c r="D12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C3="","",_zhongleng_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D3="","",_zhongleng_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="F12" s="42" t="str">
+      <c r="F12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E3="","",_zhongleng_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="G12" s="42" t="str">
+      <c r="G12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F3="","",_zhongleng_day_hour!F3/1000)</f>
         <v/>
       </c>
-      <c r="H12" s="42" t="str">
+      <c r="H12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G3="","",_zhongleng_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="I12" s="42" t="str">
+      <c r="I12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H3="","",_zhongleng_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I3="","",_zhongleng_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="K12" s="42" t="str">
+      <c r="K12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J3="","",_zhongleng_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="L12" s="42" t="str">
+      <c r="L12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K3="","",_zhongleng_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L3="","",_zhongleng_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="N12" s="42" t="str">
+      <c r="N12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M3="","",_zhongleng_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="O12" s="42" t="str">
+      <c r="O12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N3="","",_zhongleng_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="P12" s="42" t="str">
+      <c r="P12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O3="","",_zhongleng_day_hour!O3/1000)</f>
         <v/>
       </c>
-      <c r="Q12" s="42" t="str">
+      <c r="Q12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P3="","",_zhongleng_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="R12" s="42" t="str">
+      <c r="R12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q3="","",_zhongleng_day_hour!Q3/1000)</f>
         <v/>
       </c>
-      <c r="S12" s="42" t="str">
+      <c r="S12" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R3="","",_zhongleng_day_hour!R3/1000)</f>
         <v/>
       </c>
-      <c r="T12" s="43" t="str">
+      <c r="T12" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S3="","",_zhongleng_day_hour!S3/1000)</f>
         <v/>
       </c>
-      <c r="U12" s="88"/>
-      <c r="V12" s="44" t="s">
+      <c r="U12" s="74"/>
+      <c r="V12" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="W12" s="45" t="str">
+      <c r="W12" s="76" t="str">
         <f>IF(_analysis_day_shift!B2="","",_analysis_day_shift!B2)</f>
         <v/>
       </c>
-      <c r="X12" s="45" t="str">
+      <c r="X12" s="76" t="str">
         <f>IF(_analysis_day_shift!B3="","",_analysis_day_shift!B3)</f>
         <v/>
       </c>
-      <c r="Y12" s="46" t="str">
+      <c r="Y12" s="77" t="str">
         <f>IF(_analysis_day_shift!B4="","",_analysis_day_shift!B4)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="41">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B13" s="42" t="str">
+    <row ht="20.100000000000001" customHeight="1" r="13">
+      <c r="A13" s="71">
+        <v>0.083333333333333301</v>
+      </c>
+      <c r="B13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A4="","",_zhongleng_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B4="","",_zhongleng_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="D13" s="42" t="str">
+      <c r="D13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C4="","",_zhongleng_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D4="","",_zhongleng_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="F13" s="42" t="str">
+      <c r="F13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E4="","",_zhongleng_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="G13" s="42" t="str">
+      <c r="G13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F4="","",_zhongleng_day_hour!F4/1000)</f>
         <v/>
       </c>
-      <c r="H13" s="42" t="str">
+      <c r="H13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G4="","",_zhongleng_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="I13" s="42" t="str">
+      <c r="I13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H4="","",_zhongleng_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="J13" s="42" t="str">
+      <c r="J13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I4="","",_zhongleng_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="K13" s="42" t="str">
+      <c r="K13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J4="","",_zhongleng_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="L13" s="42" t="str">
+      <c r="L13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K4="","",_zhongleng_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="M13" s="42" t="str">
+      <c r="M13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L4="","",_zhongleng_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="N13" s="42" t="str">
+      <c r="N13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M4="","",_zhongleng_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="O13" s="42" t="str">
+      <c r="O13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N4="","",_zhongleng_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="P13" s="42" t="str">
+      <c r="P13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O4="","",_zhongleng_day_hour!O4/1000)</f>
         <v/>
       </c>
-      <c r="Q13" s="42" t="str">
+      <c r="Q13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P4="","",_zhongleng_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="R13" s="42" t="str">
+      <c r="R13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q4="","",_zhongleng_day_hour!Q4/1000)</f>
         <v/>
       </c>
-      <c r="S13" s="42" t="str">
+      <c r="S13" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R4="","",_zhongleng_day_hour!R4/1000)</f>
         <v/>
       </c>
-      <c r="T13" s="43" t="str">
+      <c r="T13" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S4="","",_zhongleng_day_hour!S4/1000)</f>
         <v/>
       </c>
-      <c r="U13" s="88" t="s">
+      <c r="U13" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="V13" s="44" t="s">
+      <c r="V13" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="W13" s="45" t="str">
+      <c r="W13" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!C2)</f>
         <v/>
       </c>
-      <c r="X13" s="45" t="str">
+      <c r="X13" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!C3)</f>
         <v/>
       </c>
-      <c r="Y13" s="46" t="str">
+      <c r="Y13" s="77" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!C4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:25" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="48">
+    <row customFormat="1" ht="20.100000000000001" customHeight="1" r="14" s="78">
+      <c r="A14" s="79">
         <v>0.125</v>
       </c>
-      <c r="B14" s="49" t="str">
+      <c r="B14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!A5="","",_zhongleng_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="C14" s="49" t="str">
+      <c r="C14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!B5="","",_zhongleng_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!C5="","",_zhongleng_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="E14" s="49" t="str">
+      <c r="E14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!D5="","",_zhongleng_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="F14" s="49" t="str">
+      <c r="F14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!E5="","",_zhongleng_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="G14" s="49" t="str">
+      <c r="G14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!F5="","",_zhongleng_day_hour!F5/1000)</f>
         <v/>
       </c>
-      <c r="H14" s="49" t="str">
+      <c r="H14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!G5="","",_zhongleng_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="I14" s="49" t="str">
+      <c r="I14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!H5="","",_zhongleng_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="J14" s="49" t="str">
+      <c r="J14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!I5="","",_zhongleng_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="K14" s="49" t="str">
+      <c r="K14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!J5="","",_zhongleng_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="L14" s="49" t="str">
+      <c r="L14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!K5="","",_zhongleng_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="M14" s="49" t="str">
+      <c r="M14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!L5="","",_zhongleng_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="N14" s="49" t="str">
+      <c r="N14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!M5="","",_zhongleng_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="O14" s="49" t="str">
+      <c r="O14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!N5="","",_zhongleng_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="P14" s="49" t="str">
+      <c r="P14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!O5="","",_zhongleng_day_hour!O5/1000)</f>
         <v/>
       </c>
-      <c r="Q14" s="49" t="str">
+      <c r="Q14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!P5="","",_zhongleng_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="R14" s="49" t="str">
+      <c r="R14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!Q5="","",_zhongleng_day_hour!Q5/1000)</f>
         <v/>
       </c>
-      <c r="S14" s="49" t="str">
+      <c r="S14" s="80" t="str">
         <f>IF(_zhongleng_day_hour!R5="","",_zhongleng_day_hour!R5/1000)</f>
         <v/>
       </c>
-      <c r="T14" s="50" t="str">
+      <c r="T14" s="81" t="str">
         <f>IF(_zhongleng_day_hour!S5="","",_zhongleng_day_hour!S5/1000)</f>
         <v/>
       </c>
-      <c r="U14" s="88"/>
-      <c r="V14" s="44" t="s">
+      <c r="U14" s="74"/>
+      <c r="V14" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="W14" s="45" t="str">
+      <c r="W14" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!D2)</f>
         <v/>
       </c>
-      <c r="X14" s="45" t="str">
+      <c r="X14" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!D3)</f>
         <v/>
       </c>
-      <c r="Y14" s="46" t="str">
+      <c r="Y14" s="77" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!D4)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="15">
+      <c r="A15" s="71">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B15" s="49" t="str">
+      <c r="B15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!A6="","",_zhongleng_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="C15" s="49" t="str">
+      <c r="C15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!B6="","",_zhongleng_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="D15" s="49" t="str">
+      <c r="D15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!C6="","",_zhongleng_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="E15" s="49" t="str">
+      <c r="E15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!D6="","",_zhongleng_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="F15" s="49" t="str">
+      <c r="F15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!E6="","",_zhongleng_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="G15" s="49" t="str">
+      <c r="G15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!F6="","",_zhongleng_day_hour!F6/1000)</f>
         <v/>
       </c>
-      <c r="H15" s="49" t="str">
+      <c r="H15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!G6="","",_zhongleng_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="I15" s="49" t="str">
+      <c r="I15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!H6="","",_zhongleng_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="J15" s="49" t="str">
+      <c r="J15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!I6="","",_zhongleng_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="K15" s="49" t="str">
+      <c r="K15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!J6="","",_zhongleng_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="L15" s="49" t="str">
+      <c r="L15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!K6="","",_zhongleng_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="M15" s="49" t="str">
+      <c r="M15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!L6="","",_zhongleng_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="N15" s="49" t="str">
+      <c r="N15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!M6="","",_zhongleng_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="O15" s="49" t="str">
+      <c r="O15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!N6="","",_zhongleng_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="P15" s="49" t="str">
+      <c r="P15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!O6="","",_zhongleng_day_hour!O6/1000)</f>
         <v/>
       </c>
-      <c r="Q15" s="49" t="str">
+      <c r="Q15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!P6="","",_zhongleng_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="R15" s="49" t="str">
+      <c r="R15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!Q6="","",_zhongleng_day_hour!Q6/1000)</f>
         <v/>
       </c>
-      <c r="S15" s="49" t="str">
+      <c r="S15" s="80" t="str">
         <f>IF(_zhongleng_day_hour!R6="","",_zhongleng_day_hour!R6/1000)</f>
         <v/>
       </c>
-      <c r="T15" s="50" t="str">
+      <c r="T15" s="81" t="str">
         <f>IF(_zhongleng_day_hour!S6="","",_zhongleng_day_hour!S6/1000)</f>
         <v/>
       </c>
-      <c r="U15" s="75" t="s">
+      <c r="U15" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="44" t="s">
+      <c r="V15" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="45" t="str">
+      <c r="W15" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!E2)</f>
         <v/>
       </c>
-      <c r="X15" s="45" t="str">
+      <c r="X15" s="76" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!E3)</f>
         <v/>
       </c>
-      <c r="Y15" s="46" t="str">
+      <c r="Y15" s="77" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!E4)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="16">
+      <c r="A16" s="71">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B16" s="49" t="str">
+      <c r="B16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!A7="","",_zhongleng_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="C16" s="49" t="str">
+      <c r="C16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!B7="","",_zhongleng_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="D16" s="49" t="str">
+      <c r="D16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!C7="","",_zhongleng_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="E16" s="49" t="str">
+      <c r="E16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!D7="","",_zhongleng_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="F16" s="49" t="str">
+      <c r="F16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!E7="","",_zhongleng_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="G16" s="49" t="str">
+      <c r="G16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!F7="","",_zhongleng_day_hour!F7/1000)</f>
         <v/>
       </c>
-      <c r="H16" s="49" t="str">
+      <c r="H16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!G7="","",_zhongleng_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="I16" s="49" t="str">
+      <c r="I16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!H7="","",_zhongleng_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="J16" s="49" t="str">
+      <c r="J16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!I7="","",_zhongleng_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="K16" s="49" t="str">
+      <c r="K16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!J7="","",_zhongleng_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="L16" s="49" t="str">
+      <c r="L16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!K7="","",_zhongleng_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="M16" s="49" t="str">
+      <c r="M16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!L7="","",_zhongleng_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="N16" s="49" t="str">
+      <c r="N16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!M7="","",_zhongleng_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="O16" s="49" t="str">
+      <c r="O16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!N7="","",_zhongleng_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="P16" s="49" t="str">
+      <c r="P16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!O7="","",_zhongleng_day_hour!O7/1000)</f>
         <v/>
       </c>
-      <c r="Q16" s="49" t="str">
+      <c r="Q16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!P7="","",_zhongleng_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="R16" s="49" t="str">
+      <c r="R16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!Q7="","",_zhongleng_day_hour!Q7/1000)</f>
         <v/>
       </c>
-      <c r="S16" s="49" t="str">
+      <c r="S16" s="80" t="str">
         <f>IF(_zhongleng_day_hour!R7="","",_zhongleng_day_hour!R7/1000)</f>
         <v/>
       </c>
-      <c r="T16" s="50" t="str">
+      <c r="T16" s="81" t="str">
         <f>IF(_zhongleng_day_hour!S7="","",_zhongleng_day_hour!S7/1000)</f>
         <v/>
       </c>
-      <c r="U16" s="76"/>
-      <c r="V16" s="51" t="s">
+      <c r="U16" s="83"/>
+      <c r="V16" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="W16" s="52" t="str">
+      <c r="W16" s="85" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C2:'_analysis_day_shift'!F2),"",_analysis_day_shift!F2)</f>
         <v/>
       </c>
-      <c r="X16" s="52" t="str">
+      <c r="X16" s="85" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C3:'_analysis_day_shift'!F3),"",_analysis_day_shift!F3)</f>
         <v/>
       </c>
-      <c r="Y16" s="53" t="str">
+      <c r="Y16" s="86" t="str">
         <f>IF(COUNTBLANK(_analysis_day_shift!C4:'_analysis_day_shift'!F4),"",_analysis_day_shift!F4)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="17">
+      <c r="A17" s="71">
         <v>0.25</v>
       </c>
-      <c r="B17" s="49" t="str">
+      <c r="B17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!A8="","",_zhongleng_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!B8="","",_zhongleng_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="D17" s="49" t="str">
+      <c r="D17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!C8="","",_zhongleng_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="E17" s="49" t="str">
+      <c r="E17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!D8="","",_zhongleng_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="F17" s="49" t="str">
+      <c r="F17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!E8="","",_zhongleng_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="G17" s="49" t="str">
+      <c r="G17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!F8="","",_zhongleng_day_hour!F8/1000)</f>
         <v/>
       </c>
-      <c r="H17" s="49" t="str">
+      <c r="H17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!G8="","",_zhongleng_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="I17" s="49" t="str">
+      <c r="I17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!H8="","",_zhongleng_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="J17" s="49" t="str">
+      <c r="J17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!I8="","",_zhongleng_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="K17" s="49" t="str">
+      <c r="K17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!J8="","",_zhongleng_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="L17" s="49" t="str">
+      <c r="L17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!K8="","",_zhongleng_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="M17" s="49" t="str">
+      <c r="M17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!L8="","",_zhongleng_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="N17" s="49" t="str">
+      <c r="N17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!M8="","",_zhongleng_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="O17" s="49" t="str">
+      <c r="O17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!N8="","",_zhongleng_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="P17" s="49" t="str">
+      <c r="P17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!O8="","",_zhongleng_day_hour!O8/1000)</f>
         <v/>
       </c>
-      <c r="Q17" s="49" t="str">
+      <c r="Q17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!P8="","",_zhongleng_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="R17" s="49" t="str">
+      <c r="R17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!Q8="","",_zhongleng_day_hour!Q8/1000)</f>
         <v/>
       </c>
-      <c r="S17" s="49" t="str">
+      <c r="S17" s="80" t="str">
         <f>IF(_zhongleng_day_hour!R8="","",_zhongleng_day_hour!R8/1000)</f>
         <v/>
       </c>
-      <c r="T17" s="50" t="str">
+      <c r="T17" s="81" t="str">
         <f>IF(_zhongleng_day_hour!S8="","",_zhongleng_day_hour!S8/1000)</f>
         <v/>
       </c>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="78"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="88"/>
     </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="54">
+    <row ht="20.100000000000001" customHeight="1" r="18">
+      <c r="A18" s="89">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!A9="","",_zhongleng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="C18" s="55" t="str">
+      <c r="C18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!B9="","",_zhongleng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D18" s="55" t="str">
+      <c r="D18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!C9="","",_zhongleng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E18" s="55" t="str">
+      <c r="E18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!D9="","",_zhongleng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F18" s="55" t="str">
+      <c r="F18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!E9="","",_zhongleng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G18" s="55" t="str">
+      <c r="G18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!F9="","",_zhongleng_day_hour!F9/1000)</f>
         <v/>
       </c>
-      <c r="H18" s="55" t="str">
+      <c r="H18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!G9="","",_zhongleng_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="I18" s="55" t="str">
+      <c r="I18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!H9="","",_zhongleng_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="J18" s="55" t="str">
+      <c r="J18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!I9="","",_zhongleng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K18" s="55" t="str">
+      <c r="K18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!J9="","",_zhongleng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L18" s="55" t="str">
+      <c r="L18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!K9="","",_zhongleng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M18" s="55" t="str">
+      <c r="M18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!L9="","",_zhongleng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N18" s="55" t="str">
+      <c r="N18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!M9="","",_zhongleng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O18" s="55" t="str">
+      <c r="O18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!N9="","",_zhongleng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P18" s="55" t="str">
+      <c r="P18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!O9="","",_zhongleng_day_hour!O9/1000)</f>
         <v/>
       </c>
-      <c r="Q18" s="55" t="str">
+      <c r="Q18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!P9="","",_zhongleng_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="R18" s="55" t="str">
+      <c r="R18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!Q9="","",_zhongleng_day_hour!Q9/1000)</f>
         <v/>
       </c>
-      <c r="S18" s="55" t="str">
+      <c r="S18" s="90" t="str">
         <f>IF(_zhongleng_day_hour!R9="","",_zhongleng_day_hour!R9/1000)</f>
         <v/>
       </c>
-      <c r="T18" s="56" t="str">
+      <c r="T18" s="91" t="str">
         <f>IF(_zhongleng_day_hour!S9="","",_zhongleng_day_hour!S9/1000)</f>
         <v/>
       </c>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="80"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="93"/>
     </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57">
+    <row ht="20.100000000000001" customHeight="1" r="19">
+      <c r="A19" s="94">
         <v>0.33333333333333398</v>
       </c>
-      <c r="B19" s="58" t="str">
+      <c r="B19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!A10="","",_zhongleng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="C19" s="58" t="str">
+      <c r="C19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!B10="","",_zhongleng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="D19" s="58" t="str">
+      <c r="D19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!C10="","",_zhongleng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="E19" s="58" t="str">
+      <c r="E19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!D10="","",_zhongleng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="F19" s="58" t="str">
+      <c r="F19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!E10="","",_zhongleng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="G19" s="58" t="str">
+      <c r="G19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!F10="","",_zhongleng_day_hour!F10/1000)</f>
         <v/>
       </c>
-      <c r="H19" s="58" t="str">
+      <c r="H19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!G10="","",_zhongleng_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="I19" s="58" t="str">
+      <c r="I19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!H10="","",_zhongleng_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="J19" s="58" t="str">
+      <c r="J19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!I10="","",_zhongleng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="K19" s="58" t="str">
+      <c r="K19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!J10="","",_zhongleng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L19" s="58" t="str">
+      <c r="L19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!K10="","",_zhongleng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="M19" s="58" t="str">
+      <c r="M19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!L10="","",_zhongleng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="N19" s="58" t="str">
+      <c r="N19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!M10="","",_zhongleng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="O19" s="58" t="str">
+      <c r="O19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!N10="","",_zhongleng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="P19" s="58" t="str">
+      <c r="P19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!O10="","",_zhongleng_day_hour!O10/1000)</f>
         <v/>
       </c>
-      <c r="Q19" s="58" t="str">
+      <c r="Q19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!P10="","",_zhongleng_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="R19" s="58" t="str">
+      <c r="R19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!Q10="","",_zhongleng_day_hour!Q10/1000)</f>
         <v/>
       </c>
-      <c r="S19" s="58" t="str">
+      <c r="S19" s="95" t="str">
         <f>IF(_zhongleng_day_hour!R10="","",_zhongleng_day_hour!R10/1000)</f>
         <v/>
       </c>
-      <c r="T19" s="59" t="str">
+      <c r="T19" s="96" t="str">
         <f>IF(_zhongleng_day_hour!S10="","",_zhongleng_day_hour!S10/1000)</f>
         <v/>
       </c>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="80"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="93"/>
     </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="20">
+      <c r="A20" s="71">
         <v>0.375</v>
       </c>
-      <c r="B20" s="42" t="str">
+      <c r="B20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A11="","",_zhongleng_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="C20" s="42" t="str">
+      <c r="C20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B11="","",_zhongleng_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="D20" s="42" t="str">
+      <c r="D20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C11="","",_zhongleng_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="E20" s="42" t="str">
+      <c r="E20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D11="","",_zhongleng_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="F20" s="42" t="str">
+      <c r="F20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E11="","",_zhongleng_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="G20" s="42" t="str">
+      <c r="G20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F11="","",_zhongleng_day_hour!F11/1000)</f>
         <v/>
       </c>
-      <c r="H20" s="42" t="str">
+      <c r="H20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G11="","",_zhongleng_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="I20" s="42" t="str">
+      <c r="I20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H11="","",_zhongleng_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="J20" s="42" t="str">
+      <c r="J20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I11="","",_zhongleng_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="K20" s="42" t="str">
+      <c r="K20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J11="","",_zhongleng_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="L20" s="42" t="str">
+      <c r="L20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K11="","",_zhongleng_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L11="","",_zhongleng_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="N20" s="42" t="str">
+      <c r="N20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M11="","",_zhongleng_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="O20" s="42" t="str">
+      <c r="O20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N11="","",_zhongleng_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="P20" s="42" t="str">
+      <c r="P20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O11="","",_zhongleng_day_hour!O11/1000)</f>
         <v/>
       </c>
-      <c r="Q20" s="42" t="str">
+      <c r="Q20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P11="","",_zhongleng_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="R20" s="42" t="str">
+      <c r="R20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q11="","",_zhongleng_day_hour!Q11/1000)</f>
         <v/>
       </c>
-      <c r="S20" s="42" t="str">
+      <c r="S20" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R11="","",_zhongleng_day_hour!R11/1000)</f>
         <v/>
       </c>
-      <c r="T20" s="43" t="str">
+      <c r="T20" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S11="","",_zhongleng_day_hour!S11/1000)</f>
         <v/>
       </c>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="80"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="93"/>
     </row>
-    <row r="21" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="21">
+      <c r="A21" s="71">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A12="","",_zhongleng_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B12="","",_zhongleng_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C12="","",_zhongleng_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D12="","",_zhongleng_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="F21" s="42" t="str">
+      <c r="F21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E12="","",_zhongleng_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="G21" s="42" t="str">
+      <c r="G21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F12="","",_zhongleng_day_hour!F12/1000)</f>
         <v/>
       </c>
-      <c r="H21" s="42" t="str">
+      <c r="H21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G12="","",_zhongleng_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="I21" s="42" t="str">
+      <c r="I21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H12="","",_zhongleng_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="J21" s="42" t="str">
+      <c r="J21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I12="","",_zhongleng_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="K21" s="42" t="str">
+      <c r="K21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J12="","",_zhongleng_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="L21" s="42" t="str">
+      <c r="L21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K12="","",_zhongleng_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="M21" s="42" t="str">
+      <c r="M21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L12="","",_zhongleng_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="N21" s="42" t="str">
+      <c r="N21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M12="","",_zhongleng_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="O21" s="42" t="str">
+      <c r="O21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N12="","",_zhongleng_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="P21" s="42" t="str">
+      <c r="P21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O12="","",_zhongleng_day_hour!O12/1000)</f>
         <v/>
       </c>
-      <c r="Q21" s="42" t="str">
+      <c r="Q21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P12="","",_zhongleng_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="R21" s="42" t="str">
+      <c r="R21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q12="","",_zhongleng_day_hour!Q12/1000)</f>
         <v/>
       </c>
-      <c r="S21" s="42" t="str">
+      <c r="S21" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R12="","",_zhongleng_day_hour!R12/1000)</f>
         <v/>
       </c>
-      <c r="T21" s="43" t="str">
+      <c r="T21" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S12="","",_zhongleng_day_hour!S12/1000)</f>
         <v/>
       </c>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="80"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="93"/>
     </row>
-    <row r="22" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="22">
+      <c r="A22" s="71">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B22" s="42" t="str">
+      <c r="B22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A13="","",_zhongleng_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B13="","",_zhongleng_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C13="","",_zhongleng_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D13="","",_zhongleng_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="F22" s="42" t="str">
+      <c r="F22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E13="","",_zhongleng_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="G22" s="42" t="str">
+      <c r="G22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F13="","",_zhongleng_day_hour!F13/1000)</f>
         <v/>
       </c>
-      <c r="H22" s="42" t="str">
+      <c r="H22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G13="","",_zhongleng_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="I22" s="42" t="str">
+      <c r="I22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H13="","",_zhongleng_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="J22" s="42" t="str">
+      <c r="J22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I13="","",_zhongleng_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="K22" s="42" t="str">
+      <c r="K22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J13="","",_zhongleng_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="L22" s="42" t="str">
+      <c r="L22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K13="","",_zhongleng_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L13="","",_zhongleng_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="N22" s="42" t="str">
+      <c r="N22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M13="","",_zhongleng_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="O22" s="42" t="str">
+      <c r="O22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N13="","",_zhongleng_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="P22" s="42" t="str">
+      <c r="P22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O13="","",_zhongleng_day_hour!O13/1000)</f>
         <v/>
       </c>
-      <c r="Q22" s="42" t="str">
+      <c r="Q22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P13="","",_zhongleng_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="R22" s="42" t="str">
+      <c r="R22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q13="","",_zhongleng_day_hour!Q13/1000)</f>
         <v/>
       </c>
-      <c r="S22" s="42" t="str">
+      <c r="S22" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R13="","",_zhongleng_day_hour!R13/1000)</f>
         <v/>
       </c>
-      <c r="T22" s="43" t="str">
+      <c r="T22" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S13="","",_zhongleng_day_hour!S13/1000)</f>
         <v/>
       </c>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="80"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="93"/>
     </row>
-    <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="23">
+      <c r="A23" s="71">
         <v>0.5</v>
       </c>
-      <c r="B23" s="42" t="str">
+      <c r="B23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A14="","",_zhongleng_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B14="","",_zhongleng_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C14="","",_zhongleng_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D14="","",_zhongleng_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="F23" s="42" t="str">
+      <c r="F23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E14="","",_zhongleng_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="G23" s="42" t="str">
+      <c r="G23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F14="","",_zhongleng_day_hour!F14/1000)</f>
         <v/>
       </c>
-      <c r="H23" s="42" t="str">
+      <c r="H23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G14="","",_zhongleng_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="I23" s="42" t="str">
+      <c r="I23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H14="","",_zhongleng_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="J23" s="42" t="str">
+      <c r="J23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I14="","",_zhongleng_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="K23" s="42" t="str">
+      <c r="K23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J14="","",_zhongleng_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="L23" s="42" t="str">
+      <c r="L23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K14="","",_zhongleng_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="M23" s="42" t="str">
+      <c r="M23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L14="","",_zhongleng_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="N23" s="42" t="str">
+      <c r="N23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M14="","",_zhongleng_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="O23" s="42" t="str">
+      <c r="O23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N14="","",_zhongleng_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="P23" s="42" t="str">
+      <c r="P23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O14="","",_zhongleng_day_hour!O14/1000)</f>
         <v/>
       </c>
-      <c r="Q23" s="42" t="str">
+      <c r="Q23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P14="","",_zhongleng_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="R23" s="42" t="str">
+      <c r="R23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q14="","",_zhongleng_day_hour!Q14/1000)</f>
         <v/>
       </c>
-      <c r="S23" s="42" t="str">
+      <c r="S23" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R14="","",_zhongleng_day_hour!R14/1000)</f>
         <v/>
       </c>
-      <c r="T23" s="43" t="str">
+      <c r="T23" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S14="","",_zhongleng_day_hour!S14/1000)</f>
         <v/>
       </c>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="80"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="93"/>
     </row>
-    <row r="24" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="24">
+      <c r="A24" s="71">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B24" s="42" t="str">
+      <c r="B24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A15="","",_zhongleng_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="C24" s="42" t="str">
+      <c r="C24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B15="","",_zhongleng_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="D24" s="42" t="str">
+      <c r="D24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C15="","",_zhongleng_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="E24" s="42" t="str">
+      <c r="E24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D15="","",_zhongleng_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="F24" s="42" t="str">
+      <c r="F24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E15="","",_zhongleng_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="G24" s="42" t="str">
+      <c r="G24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F15="","",_zhongleng_day_hour!F15/1000)</f>
         <v/>
       </c>
-      <c r="H24" s="42" t="str">
+      <c r="H24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G15="","",_zhongleng_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="I24" s="42" t="str">
+      <c r="I24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H15="","",_zhongleng_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="J24" s="42" t="str">
+      <c r="J24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I15="","",_zhongleng_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="K24" s="42" t="str">
+      <c r="K24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J15="","",_zhongleng_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="L24" s="42" t="str">
+      <c r="L24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K15="","",_zhongleng_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L15="","",_zhongleng_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="N24" s="42" t="str">
+      <c r="N24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M15="","",_zhongleng_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="O24" s="42" t="str">
+      <c r="O24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N15="","",_zhongleng_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="P24" s="42" t="str">
+      <c r="P24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O15="","",_zhongleng_day_hour!O15/1000)</f>
         <v/>
       </c>
-      <c r="Q24" s="42" t="str">
+      <c r="Q24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P15="","",_zhongleng_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="R24" s="42" t="str">
+      <c r="R24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q15="","",_zhongleng_day_hour!Q15/1000)</f>
         <v/>
       </c>
-      <c r="S24" s="42" t="str">
+      <c r="S24" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R15="","",_zhongleng_day_hour!R15/1000)</f>
         <v/>
       </c>
-      <c r="T24" s="43" t="str">
+      <c r="T24" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S15="","",_zhongleng_day_hour!S15/1000)</f>
         <v/>
       </c>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="80"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="93"/>
     </row>
-    <row r="25" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="25">
+      <c r="A25" s="71">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B25" s="42" t="str">
+      <c r="B25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!A16="","",_zhongleng_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="C25" s="42" t="str">
+      <c r="C25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!B16="","",_zhongleng_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="D25" s="42" t="str">
+      <c r="D25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!C16="","",_zhongleng_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="E25" s="42" t="str">
+      <c r="E25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!D16="","",_zhongleng_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="F25" s="42" t="str">
+      <c r="F25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!E16="","",_zhongleng_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="G25" s="42" t="str">
+      <c r="G25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!F16="","",_zhongleng_day_hour!F16/1000)</f>
         <v/>
       </c>
-      <c r="H25" s="42" t="str">
+      <c r="H25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!G16="","",_zhongleng_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="I25" s="42" t="str">
+      <c r="I25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!H16="","",_zhongleng_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="J25" s="42" t="str">
+      <c r="J25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!I16="","",_zhongleng_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="K25" s="42" t="str">
+      <c r="K25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!J16="","",_zhongleng_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="L25" s="42" t="str">
+      <c r="L25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!K16="","",_zhongleng_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="M25" s="42" t="str">
+      <c r="M25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!L16="","",_zhongleng_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="N25" s="42" t="str">
+      <c r="N25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!M16="","",_zhongleng_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="O25" s="42" t="str">
+      <c r="O25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!N16="","",_zhongleng_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="P25" s="42" t="str">
+      <c r="P25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!O16="","",_zhongleng_day_hour!O16/1000)</f>
         <v/>
       </c>
-      <c r="Q25" s="42" t="str">
+      <c r="Q25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!P16="","",_zhongleng_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="R25" s="42" t="str">
+      <c r="R25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!Q16="","",_zhongleng_day_hour!Q16/1000)</f>
         <v/>
       </c>
-      <c r="S25" s="42" t="str">
+      <c r="S25" s="72" t="str">
         <f>IF(_zhongleng_day_hour!R16="","",_zhongleng_day_hour!R16/1000)</f>
         <v/>
       </c>
-      <c r="T25" s="43" t="str">
+      <c r="T25" s="73" t="str">
         <f>IF(_zhongleng_day_hour!S16="","",_zhongleng_day_hour!S16/1000)</f>
         <v/>
       </c>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="80"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="93"/>
     </row>
-    <row r="26" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60">
+    <row ht="20.100000000000001" customHeight="1" r="26">
+      <c r="A26" s="97">
         <v>0.625</v>
       </c>
-      <c r="B26" s="61" t="str">
+      <c r="B26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!A17="","",_zhongleng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="C26" s="61" t="str">
+      <c r="C26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!B17="","",_zhongleng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="D26" s="61" t="str">
+      <c r="D26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!C17="","",_zhongleng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="E26" s="61" t="str">
+      <c r="E26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!D17="","",_zhongleng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="F26" s="61" t="str">
+      <c r="F26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!E17="","",_zhongleng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="G26" s="61" t="str">
+      <c r="G26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!F17="","",_zhongleng_day_hour!F17/1000)</f>
         <v/>
       </c>
-      <c r="H26" s="61" t="str">
+      <c r="H26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!G17="","",_zhongleng_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="I26" s="61" t="str">
+      <c r="I26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!H17="","",_zhongleng_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="J26" s="61" t="str">
+      <c r="J26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!I17="","",_zhongleng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="K26" s="61" t="str">
+      <c r="K26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!J17="","",_zhongleng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L26" s="61" t="str">
+      <c r="L26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!K17="","",_zhongleng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="M26" s="61" t="str">
+      <c r="M26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!L17="","",_zhongleng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="N26" s="61" t="str">
+      <c r="N26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!M17="","",_zhongleng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="O26" s="61" t="str">
+      <c r="O26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!N17="","",_zhongleng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="P26" s="61" t="str">
+      <c r="P26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!O17="","",_zhongleng_day_hour!O17/1000)</f>
         <v/>
       </c>
-      <c r="Q26" s="61" t="str">
+      <c r="Q26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!P17="","",_zhongleng_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="R26" s="61" t="str">
+      <c r="R26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!Q17="","",_zhongleng_day_hour!Q17/1000)</f>
         <v/>
       </c>
-      <c r="S26" s="61" t="str">
+      <c r="S26" s="98" t="str">
         <f>IF(_zhongleng_day_hour!R17="","",_zhongleng_day_hour!R17/1000)</f>
         <v/>
       </c>
-      <c r="T26" s="62" t="str">
+      <c r="T26" s="99" t="str">
         <f>IF(_zhongleng_day_hour!S17="","",_zhongleng_day_hour!S17/1000)</f>
         <v/>
       </c>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="80"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="93"/>
     </row>
-    <row r="27" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57">
+    <row ht="20.100000000000001" customHeight="1" r="27">
+      <c r="A27" s="94">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="63" t="str">
+      <c r="B27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!A18="","",_zhongleng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C27" s="63" t="str">
+      <c r="C27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!B18="","",_zhongleng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D27" s="63" t="str">
+      <c r="D27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!C18="","",_zhongleng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E27" s="63" t="str">
+      <c r="E27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!D18="","",_zhongleng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F27" s="63" t="str">
+      <c r="F27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!E18="","",_zhongleng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G27" s="63" t="str">
+      <c r="G27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!F18="","",_zhongleng_day_hour!F18/1000)</f>
         <v/>
       </c>
-      <c r="H27" s="63" t="str">
+      <c r="H27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!G18="","",_zhongleng_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="I27" s="63" t="str">
+      <c r="I27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!H18="","",_zhongleng_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="J27" s="63" t="str">
+      <c r="J27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!I18="","",_zhongleng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K27" s="63" t="str">
+      <c r="K27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!J18="","",_zhongleng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L27" s="63" t="str">
+      <c r="L27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!K18="","",_zhongleng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M27" s="63" t="str">
+      <c r="M27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!L18="","",_zhongleng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N27" s="63" t="str">
+      <c r="N27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!M18="","",_zhongleng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O27" s="63" t="str">
+      <c r="O27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!N18="","",_zhongleng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P27" s="63" t="str">
+      <c r="P27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!O18="","",_zhongleng_day_hour!O18/1000)</f>
         <v/>
       </c>
-      <c r="Q27" s="63" t="str">
+      <c r="Q27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!P18="","",_zhongleng_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="R27" s="63" t="str">
+      <c r="R27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!Q18="","",_zhongleng_day_hour!Q18/1000)</f>
         <v/>
       </c>
-      <c r="S27" s="63" t="str">
+      <c r="S27" s="100" t="str">
         <f>IF(_zhongleng_day_hour!R18="","",_zhongleng_day_hour!R18/1000)</f>
         <v/>
       </c>
-      <c r="T27" s="64" t="str">
+      <c r="T27" s="101" t="str">
         <f>IF(_zhongleng_day_hour!S18="","",_zhongleng_day_hour!S18/1000)</f>
         <v/>
       </c>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="80"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="93"/>
     </row>
-    <row r="28" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="28">
+      <c r="A28" s="71">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B28" s="65" t="str">
+      <c r="B28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A19="","",_zhongleng_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="C28" s="65" t="str">
+      <c r="C28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B19="","",_zhongleng_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="D28" s="65" t="str">
+      <c r="D28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C19="","",_zhongleng_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="E28" s="65" t="str">
+      <c r="E28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D19="","",_zhongleng_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="F28" s="65" t="str">
+      <c r="F28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E19="","",_zhongleng_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="G28" s="65" t="str">
+      <c r="G28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F19="","",_zhongleng_day_hour!F19/1000)</f>
         <v/>
       </c>
-      <c r="H28" s="65" t="str">
+      <c r="H28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G19="","",_zhongleng_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="I28" s="65" t="str">
+      <c r="I28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H19="","",_zhongleng_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="J28" s="65" t="str">
+      <c r="J28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I19="","",_zhongleng_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="K28" s="65" t="str">
+      <c r="K28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J19="","",_zhongleng_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="L28" s="65" t="str">
+      <c r="L28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K19="","",_zhongleng_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="M28" s="65" t="str">
+      <c r="M28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L19="","",_zhongleng_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="N28" s="65" t="str">
+      <c r="N28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M19="","",_zhongleng_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="O28" s="65" t="str">
+      <c r="O28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N19="","",_zhongleng_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="P28" s="65" t="str">
+      <c r="P28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O19="","",_zhongleng_day_hour!O19/1000)</f>
         <v/>
       </c>
-      <c r="Q28" s="65" t="str">
+      <c r="Q28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P19="","",_zhongleng_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="R28" s="65" t="str">
+      <c r="R28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q19="","",_zhongleng_day_hour!Q19/1000)</f>
         <v/>
       </c>
-      <c r="S28" s="65" t="str">
+      <c r="S28" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R19="","",_zhongleng_day_hour!R19/1000)</f>
         <v/>
       </c>
-      <c r="T28" s="66" t="str">
+      <c r="T28" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S19="","",_zhongleng_day_hour!S19/1000)</f>
         <v/>
       </c>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="80"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="93"/>
     </row>
-    <row r="29" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="29">
+      <c r="A29" s="71">
         <v>0.75</v>
       </c>
-      <c r="B29" s="65" t="str">
+      <c r="B29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A20="","",_zhongleng_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="C29" s="65" t="str">
+      <c r="C29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B20="","",_zhongleng_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="D29" s="65" t="str">
+      <c r="D29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C20="","",_zhongleng_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="E29" s="65" t="str">
+      <c r="E29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D20="","",_zhongleng_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="F29" s="65" t="str">
+      <c r="F29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E20="","",_zhongleng_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="G29" s="65" t="str">
+      <c r="G29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F20="","",_zhongleng_day_hour!F20/1000)</f>
         <v/>
       </c>
-      <c r="H29" s="65" t="str">
+      <c r="H29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G20="","",_zhongleng_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="I29" s="65" t="str">
+      <c r="I29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H20="","",_zhongleng_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="J29" s="65" t="str">
+      <c r="J29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I20="","",_zhongleng_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="K29" s="65" t="str">
+      <c r="K29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J20="","",_zhongleng_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="L29" s="65" t="str">
+      <c r="L29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K20="","",_zhongleng_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="M29" s="65" t="str">
+      <c r="M29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L20="","",_zhongleng_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="N29" s="65" t="str">
+      <c r="N29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M20="","",_zhongleng_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="O29" s="65" t="str">
+      <c r="O29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N20="","",_zhongleng_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="P29" s="65" t="str">
+      <c r="P29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O20="","",_zhongleng_day_hour!O20/1000)</f>
         <v/>
       </c>
-      <c r="Q29" s="65" t="str">
+      <c r="Q29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P20="","",_zhongleng_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="R29" s="65" t="str">
+      <c r="R29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q20="","",_zhongleng_day_hour!Q20/1000)</f>
         <v/>
       </c>
-      <c r="S29" s="65" t="str">
+      <c r="S29" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R20="","",_zhongleng_day_hour!R20/1000)</f>
         <v/>
       </c>
-      <c r="T29" s="66" t="str">
+      <c r="T29" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S20="","",_zhongleng_day_hour!S20/1000)</f>
         <v/>
       </c>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="80"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="93"/>
     </row>
-    <row r="30" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="30">
+      <c r="A30" s="71">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B30" s="65" t="str">
+      <c r="B30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A21="","",_zhongleng_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="C30" s="65" t="str">
+      <c r="C30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B21="","",_zhongleng_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="D30" s="65" t="str">
+      <c r="D30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C21="","",_zhongleng_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="E30" s="65" t="str">
+      <c r="E30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D21="","",_zhongleng_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="F30" s="65" t="str">
+      <c r="F30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E21="","",_zhongleng_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="G30" s="65" t="str">
+      <c r="G30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F21="","",_zhongleng_day_hour!F21/1000)</f>
         <v/>
       </c>
-      <c r="H30" s="65" t="str">
+      <c r="H30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G21="","",_zhongleng_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="I30" s="65" t="str">
+      <c r="I30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H21="","",_zhongleng_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="J30" s="65" t="str">
+      <c r="J30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I21="","",_zhongleng_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="K30" s="65" t="str">
+      <c r="K30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J21="","",_zhongleng_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="L30" s="65" t="str">
+      <c r="L30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K21="","",_zhongleng_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="M30" s="65" t="str">
+      <c r="M30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L21="","",_zhongleng_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="N30" s="65" t="str">
+      <c r="N30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M21="","",_zhongleng_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="O30" s="65" t="str">
+      <c r="O30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N21="","",_zhongleng_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="P30" s="65" t="str">
+      <c r="P30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O21="","",_zhongleng_day_hour!O21/1000)</f>
         <v/>
       </c>
-      <c r="Q30" s="65" t="str">
+      <c r="Q30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P21="","",_zhongleng_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="R30" s="65" t="str">
+      <c r="R30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q21="","",_zhongleng_day_hour!Q21/1000)</f>
         <v/>
       </c>
-      <c r="S30" s="65" t="str">
+      <c r="S30" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R21="","",_zhongleng_day_hour!R21/1000)</f>
         <v/>
       </c>
-      <c r="T30" s="66" t="str">
+      <c r="T30" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S21="","",_zhongleng_day_hour!S21/1000)</f>
         <v/>
       </c>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="80"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="93"/>
     </row>
-    <row r="31" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="31">
+      <c r="A31" s="71">
         <v>0.83333333333333404</v>
       </c>
-      <c r="B31" s="65" t="str">
+      <c r="B31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A22="","",_zhongleng_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="C31" s="65" t="str">
+      <c r="C31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B22="","",_zhongleng_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="D31" s="65" t="str">
+      <c r="D31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C22="","",_zhongleng_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="E31" s="65" t="str">
+      <c r="E31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D22="","",_zhongleng_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="F31" s="65" t="str">
+      <c r="F31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E22="","",_zhongleng_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="G31" s="65" t="str">
+      <c r="G31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F22="","",_zhongleng_day_hour!F22/1000)</f>
         <v/>
       </c>
-      <c r="H31" s="65" t="str">
+      <c r="H31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G22="","",_zhongleng_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="I31" s="65" t="str">
+      <c r="I31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H22="","",_zhongleng_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="J31" s="65" t="str">
+      <c r="J31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I22="","",_zhongleng_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="K31" s="65" t="str">
+      <c r="K31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J22="","",_zhongleng_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="L31" s="65" t="str">
+      <c r="L31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K22="","",_zhongleng_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="M31" s="65" t="str">
+      <c r="M31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L22="","",_zhongleng_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="N31" s="65" t="str">
+      <c r="N31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M22="","",_zhongleng_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="O31" s="65" t="str">
+      <c r="O31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N22="","",_zhongleng_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="P31" s="65" t="str">
+      <c r="P31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O22="","",_zhongleng_day_hour!O22/1000)</f>
         <v/>
       </c>
-      <c r="Q31" s="65" t="str">
+      <c r="Q31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P22="","",_zhongleng_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="R31" s="65" t="str">
+      <c r="R31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q22="","",_zhongleng_day_hour!Q22/1000)</f>
         <v/>
       </c>
-      <c r="S31" s="65" t="str">
+      <c r="S31" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R22="","",_zhongleng_day_hour!R22/1000)</f>
         <v/>
       </c>
-      <c r="T31" s="66" t="str">
+      <c r="T31" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S22="","",_zhongleng_day_hour!S22/1000)</f>
         <v/>
       </c>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="80"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="93"/>
     </row>
-    <row r="32" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="32">
+      <c r="A32" s="71">
         <v>0.875</v>
       </c>
-      <c r="B32" s="65" t="str">
+      <c r="B32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A23="","",_zhongleng_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="C32" s="65" t="str">
+      <c r="C32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B23="","",_zhongleng_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="D32" s="65" t="str">
+      <c r="D32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C23="","",_zhongleng_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="E32" s="65" t="str">
+      <c r="E32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D23="","",_zhongleng_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="F32" s="65" t="str">
+      <c r="F32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E23="","",_zhongleng_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="G32" s="65" t="str">
+      <c r="G32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F23="","",_zhongleng_day_hour!F23/1000)</f>
         <v/>
       </c>
-      <c r="H32" s="65" t="str">
+      <c r="H32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G23="","",_zhongleng_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="I32" s="65" t="str">
+      <c r="I32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H23="","",_zhongleng_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="J32" s="65" t="str">
+      <c r="J32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I23="","",_zhongleng_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="K32" s="65" t="str">
+      <c r="K32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J23="","",_zhongleng_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="L32" s="65" t="str">
+      <c r="L32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K23="","",_zhongleng_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="M32" s="65" t="str">
+      <c r="M32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L23="","",_zhongleng_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="N32" s="65" t="str">
+      <c r="N32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M23="","",_zhongleng_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="O32" s="65" t="str">
+      <c r="O32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N23="","",_zhongleng_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="P32" s="65" t="str">
+      <c r="P32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O23="","",_zhongleng_day_hour!O23/1000)</f>
         <v/>
       </c>
-      <c r="Q32" s="65" t="str">
+      <c r="Q32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P23="","",_zhongleng_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="R32" s="65" t="str">
+      <c r="R32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q23="","",_zhongleng_day_hour!Q23/1000)</f>
         <v/>
       </c>
-      <c r="S32" s="65" t="str">
+      <c r="S32" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R23="","",_zhongleng_day_hour!R23/1000)</f>
         <v/>
       </c>
-      <c r="T32" s="66" t="str">
+      <c r="T32" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S23="","",_zhongleng_day_hour!S23/1000)</f>
         <v/>
       </c>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="80"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="93"/>
     </row>
-    <row r="33" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="33">
+      <c r="A33" s="71">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B33" s="65" t="str">
+      <c r="B33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A24="","",_zhongleng_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="C33" s="65" t="str">
+      <c r="C33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B24="","",_zhongleng_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="D33" s="65" t="str">
+      <c r="D33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C24="","",_zhongleng_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="E33" s="65" t="str">
+      <c r="E33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D24="","",_zhongleng_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="F33" s="65" t="str">
+      <c r="F33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E24="","",_zhongleng_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="G33" s="65" t="str">
+      <c r="G33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F24="","",_zhongleng_day_hour!F24/1000)</f>
         <v/>
       </c>
-      <c r="H33" s="65" t="str">
+      <c r="H33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G24="","",_zhongleng_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="I33" s="65" t="str">
+      <c r="I33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H24="","",_zhongleng_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="J33" s="65" t="str">
+      <c r="J33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I24="","",_zhongleng_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="K33" s="65" t="str">
+      <c r="K33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J24="","",_zhongleng_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="L33" s="65" t="str">
+      <c r="L33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K24="","",_zhongleng_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="M33" s="65" t="str">
+      <c r="M33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L24="","",_zhongleng_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="N33" s="65" t="str">
+      <c r="N33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M24="","",_zhongleng_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="O33" s="65" t="str">
+      <c r="O33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N24="","",_zhongleng_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="P33" s="65" t="str">
+      <c r="P33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O24="","",_zhongleng_day_hour!O24/1000)</f>
         <v/>
       </c>
-      <c r="Q33" s="65" t="str">
+      <c r="Q33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P24="","",_zhongleng_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="R33" s="65" t="str">
+      <c r="R33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q24="","",_zhongleng_day_hour!Q24/1000)</f>
         <v/>
       </c>
-      <c r="S33" s="65" t="str">
+      <c r="S33" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R24="","",_zhongleng_day_hour!R24/1000)</f>
         <v/>
       </c>
-      <c r="T33" s="66" t="str">
+      <c r="T33" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S24="","",_zhongleng_day_hour!S24/1000)</f>
         <v/>
       </c>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="80"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="93"/>
     </row>
-    <row r="34" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="41">
+    <row ht="20.100000000000001" customHeight="1" r="34">
+      <c r="A34" s="71">
         <v>0.95833333333333404</v>
       </c>
-      <c r="B34" s="65" t="str">
+      <c r="B34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!A25="","",_zhongleng_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="C34" s="65" t="str">
+      <c r="C34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!B25="","",_zhongleng_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="D34" s="65" t="str">
+      <c r="D34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!C25="","",_zhongleng_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="E34" s="65" t="str">
+      <c r="E34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!D25="","",_zhongleng_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="F34" s="65" t="str">
+      <c r="F34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!E25="","",_zhongleng_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="G34" s="65" t="str">
+      <c r="G34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!F25="","",_zhongleng_day_hour!F25/1000)</f>
         <v/>
       </c>
-      <c r="H34" s="65" t="str">
+      <c r="H34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!G25="","",_zhongleng_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="I34" s="65" t="str">
+      <c r="I34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!H25="","",_zhongleng_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="J34" s="65" t="str">
+      <c r="J34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!I25="","",_zhongleng_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="K34" s="65" t="str">
+      <c r="K34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!J25="","",_zhongleng_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="L34" s="65" t="str">
+      <c r="L34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!K25="","",_zhongleng_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="M34" s="65" t="str">
+      <c r="M34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!L25="","",_zhongleng_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="N34" s="65" t="str">
+      <c r="N34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!M25="","",_zhongleng_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="O34" s="65" t="str">
+      <c r="O34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!N25="","",_zhongleng_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="P34" s="65" t="str">
+      <c r="P34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!O25="","",_zhongleng_day_hour!O25/1000)</f>
         <v/>
       </c>
-      <c r="Q34" s="65" t="str">
+      <c r="Q34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!P25="","",_zhongleng_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="R34" s="65" t="str">
+      <c r="R34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!Q25="","",_zhongleng_day_hour!Q25/1000)</f>
         <v/>
       </c>
-      <c r="S34" s="65" t="str">
+      <c r="S34" s="102" t="str">
         <f>IF(_zhongleng_day_hour!R25="","",_zhongleng_day_hour!R25/1000)</f>
         <v/>
       </c>
-      <c r="T34" s="66" t="str">
+      <c r="T34" s="103" t="str">
         <f>IF(_zhongleng_day_hour!S25="","",_zhongleng_day_hour!S25/1000)</f>
         <v/>
       </c>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="80"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="93"/>
     </row>
-    <row r="35" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67" t="s">
+    <row ht="20.100000000000001" customHeight="1" r="35">
+      <c r="A35" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="68" t="str">
-        <f t="shared" ref="B35:T35" si="0">IFERROR(AVERAGE(B11:B34),"")</f>
-        <v/>
-      </c>
-      <c r="C35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S35" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T35" s="69" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="80"/>
+      <c r="B35" s="105" t="str">
+        <f>IFERROR(AVERAGE(B11:B34),"")</f>
+        <v/>
+      </c>
+      <c r="C35" s="105" t="str">
+        <f>IFERROR(AVERAGE(C11:C34),"")</f>
+        <v/>
+      </c>
+      <c r="D35" s="105" t="str">
+        <f>IFERROR(AVERAGE(D11:D34),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="105" t="str">
+        <f>IFERROR(AVERAGE(E11:E34),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="105" t="str">
+        <f>IFERROR(AVERAGE(F11:F34),"")</f>
+        <v/>
+      </c>
+      <c r="G35" s="105" t="str">
+        <f>IFERROR(AVERAGE(G11:G34),"")</f>
+        <v/>
+      </c>
+      <c r="H35" s="105" t="str">
+        <f>IFERROR(AVERAGE(H11:H34),"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="105" t="str">
+        <f>IFERROR(AVERAGE(I11:I34),"")</f>
+        <v/>
+      </c>
+      <c r="J35" s="105" t="str">
+        <f>IFERROR(AVERAGE(J11:J34),"")</f>
+        <v/>
+      </c>
+      <c r="K35" s="105" t="str">
+        <f>IFERROR(AVERAGE(K11:K34),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="105" t="str">
+        <f>IFERROR(AVERAGE(L11:L34),"")</f>
+        <v/>
+      </c>
+      <c r="M35" s="105" t="str">
+        <f>IFERROR(AVERAGE(M11:M34),"")</f>
+        <v/>
+      </c>
+      <c r="N35" s="105" t="str">
+        <f>IFERROR(AVERAGE(N11:N34),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="105" t="str">
+        <f>IFERROR(AVERAGE(O11:O34),"")</f>
+        <v/>
+      </c>
+      <c r="P35" s="105" t="str">
+        <f>IFERROR(AVERAGE(P11:P34),"")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="105" t="str">
+        <f>IFERROR(AVERAGE(Q11:Q34),"")</f>
+        <v/>
+      </c>
+      <c r="R35" s="105" t="str">
+        <f>IFERROR(AVERAGE(R11:R34),"")</f>
+        <v/>
+      </c>
+      <c r="S35" s="105" t="str">
+        <f>IFERROR(AVERAGE(S11:S34),"")</f>
+        <v/>
+      </c>
+      <c r="T35" s="106" t="str">
+        <f>IFERROR(AVERAGE(T11:T34),"")</f>
+        <v/>
+      </c>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="93"/>
     </row>
-    <row r="36" spans="1:25" ht="107.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71" t="s">
+    <row ht="107.45" customHeight="1" r="36">
+      <c r="A36" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81" t="s">
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81" t="s">
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="82"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="109"/>
     </row>
-    <row r="37" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="72"/>
-      <c r="B37" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="74"/>
+    <row ht="26.25" customHeight="1" r="37">
+      <c r="A37" s="110"/>
+      <c r="B37" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -5332,387 +5486,378 @@
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U10:Y10"/>
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="U13:U14"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="U17:Y35"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:R36"/>
+    <mergeCell ref="S36:Y36"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="J37:R37"/>
     <mergeCell ref="S37:Y37"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="U17:Y35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:R36"/>
-    <mergeCell ref="S36:Y36"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B11:B34">
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="0" operator="greaterThan">
       <formula>B$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B34">
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="lessThan">
+    <cfRule type="cellIs" priority="39" dxfId="1" operator="lessThan">
       <formula>B$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" priority="36" dxfId="2" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+    <cfRule type="cellIs" priority="35" dxfId="3" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" priority="34" dxfId="4" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" priority="33" dxfId="5" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E34">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" priority="32" dxfId="6" operator="greaterThan">
       <formula>E$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E34">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" priority="31" dxfId="7" operator="lessThan">
       <formula>E$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F34">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" priority="30" dxfId="8" operator="greaterThan">
       <formula>F$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F34">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" priority="29" dxfId="9" operator="lessThan">
       <formula>F$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G34">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" priority="28" dxfId="10" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G34">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" priority="27" dxfId="11" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H34">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" priority="26" dxfId="12" operator="greaterThan">
       <formula>H$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H34">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" priority="25" dxfId="13" operator="lessThan">
       <formula>H$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I34">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="24" dxfId="14" operator="greaterThan">
       <formula>I$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I34">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" priority="23" dxfId="15" operator="lessThan">
       <formula>I$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" priority="22" dxfId="16" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+    <cfRule type="cellIs" priority="21" dxfId="17" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" priority="20" dxfId="18" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" priority="19" dxfId="19" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" priority="18" dxfId="20" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" priority="17" dxfId="21" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" priority="16" dxfId="22" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" priority="15" dxfId="23" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" priority="14" dxfId="24" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" priority="13" dxfId="25" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" priority="12" dxfId="26" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" priority="11" dxfId="27" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" priority="10" dxfId="28" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" priority="9" dxfId="29" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q34">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" priority="8" dxfId="30" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q34">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+    <cfRule type="cellIs" priority="7" dxfId="31" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" priority="6" dxfId="32" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" priority="5" dxfId="33" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" priority="4" dxfId="34" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" priority="3" dxfId="35" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" priority="2" dxfId="36" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" priority="1" dxfId="37" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="38" t="s">
+    <row ht="71.25" r="1">
+      <c r="A1" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="38" t="s">
+      <c r="I1" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="66" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="2" width="36.625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="20.25"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="22.375"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="22.5"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="24.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="D1" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>88</v>
+      <c r="E1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="0">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
-  <printOptions gridLines="1"/>
+  <printOptions headings="0" gridLines="1" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
